--- a/spreadsheet/aks_checklist.pt.xlsx
+++ b/spreadsheet/aks_checklist.pt.xlsx
@@ -1122,7 +1122,7 @@
       <c r="G8" s="22" t="n"/>
       <c r="H8" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/business-continuity-and-disaster-recovery</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/business-continuity-and-disaster-recovery</t>
         </is>
       </c>
       <c r="I8" s="16" t="n"/>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="B38" s="22" t="inlineStr">
         <is>
-          <t>TEM</t>
+          <t>Tem</t>
         </is>
       </c>
       <c r="C38" s="22" t="inlineStr">
@@ -4725,1750 +4725,5094 @@
       <c r="P86" s="26" t="n"/>
     </row>
     <row r="87" ht="16.5" customHeight="1" s="13">
-      <c r="A87" s="22" t="n"/>
-      <c r="B87" s="22" t="n"/>
-      <c r="C87" s="22" t="n"/>
+      <c r="A87" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B87" s="22" t="inlineStr">
+        <is>
+          <t>PaaS</t>
+        </is>
+      </c>
+      <c r="C87" s="22" t="inlineStr">
+        <is>
+          <t>Don't use virtual network service endpoints when there are data exfiltration concerns, unless you use NVA filtering.</t>
+        </is>
+      </c>
       <c r="D87" s="22" t="n"/>
-      <c r="E87" s="22" t="n"/>
+      <c r="E87" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G87" s="22" t="n"/>
-      <c r="H87" s="16" t="n"/>
-      <c r="I87" s="16" t="n"/>
+      <c r="H87" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I87" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J87" s="23" t="n"/>
       <c r="K87" s="23" t="n"/>
-      <c r="L87" s="26" t="n"/>
+      <c r="L87" s="26" t="inlineStr">
+        <is>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+        </is>
+      </c>
       <c r="M87" s="26" t="n"/>
       <c r="N87" s="26" t="n"/>
       <c r="O87" s="26" t="n"/>
       <c r="P87" s="26" t="n"/>
     </row>
     <row r="88" ht="16.5" customHeight="1" s="13">
-      <c r="A88" s="22" t="n"/>
-      <c r="B88" s="22" t="n"/>
-      <c r="C88" s="22" t="n"/>
+      <c r="A88" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B88" s="22" t="inlineStr">
+        <is>
+          <t>PaaS</t>
+        </is>
+      </c>
+      <c r="C88" s="22" t="inlineStr">
+        <is>
+          <t>Don't implement forced tunneling to enable communication from Azure to Azure resources.</t>
+        </is>
+      </c>
       <c r="D88" s="22" t="n"/>
-      <c r="E88" s="22" t="n"/>
+      <c r="E88" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G88" s="22" t="n"/>
-      <c r="H88" s="16" t="n"/>
-      <c r="I88" s="16" t="n"/>
+      <c r="H88" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I88" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J88" s="23" t="n"/>
       <c r="K88" s="23" t="n"/>
-      <c r="L88" s="26" t="n"/>
+      <c r="L88" s="26" t="inlineStr">
+        <is>
+          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
+        </is>
+      </c>
       <c r="M88" s="26" t="n"/>
       <c r="N88" s="26" t="n"/>
       <c r="O88" s="26" t="n"/>
       <c r="P88" s="26" t="n"/>
     </row>
     <row r="89" ht="16.5" customHeight="1" s="13">
-      <c r="A89" s="22" t="n"/>
-      <c r="B89" s="22" t="n"/>
-      <c r="C89" s="22" t="n"/>
+      <c r="A89" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B89" s="22" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="C89" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
+        </is>
+      </c>
       <c r="D89" s="22" t="n"/>
-      <c r="E89" s="22" t="n"/>
+      <c r="E89" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G89" s="22" t="n"/>
-      <c r="H89" s="16" t="n"/>
-      <c r="I89" s="16" t="n"/>
+      <c r="H89" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I89" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J89" s="23" t="n"/>
       <c r="K89" s="23" t="n"/>
-      <c r="L89" s="26" t="n"/>
+      <c r="L89" s="26" t="inlineStr">
+        <is>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+        </is>
+      </c>
       <c r="M89" s="26" t="n"/>
       <c r="N89" s="26" t="n"/>
       <c r="O89" s="26" t="n"/>
       <c r="P89" s="26" t="n"/>
     </row>
     <row r="90" ht="16.5" customHeight="1" s="13">
-      <c r="A90" s="22" t="n"/>
-      <c r="B90" s="22" t="n"/>
-      <c r="C90" s="22" t="n"/>
+      <c r="A90" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B90" s="22" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="C90" s="22" t="inlineStr">
+        <is>
+          <t>Use Firewall Manager with Virtual WAN to deploy and manage Azure firewalls across Virtual WAN hubs or in hub virtual networks. Firewall Manager is now in general availability for both Virtual WAN and regular virtual networks.</t>
+        </is>
+      </c>
       <c r="D90" s="22" t="n"/>
-      <c r="E90" s="22" t="n"/>
+      <c r="E90" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G90" s="22" t="n"/>
-      <c r="H90" s="16" t="n"/>
-      <c r="I90" s="16" t="n"/>
+      <c r="H90" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
+        </is>
+      </c>
+      <c r="I90" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J90" s="23" t="n"/>
       <c r="K90" s="23" t="n"/>
-      <c r="L90" s="26" t="n"/>
+      <c r="L90" s="26" t="inlineStr">
+        <is>
+          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+        </is>
+      </c>
       <c r="M90" s="26" t="n"/>
       <c r="N90" s="26" t="n"/>
       <c r="O90" s="26" t="n"/>
       <c r="P90" s="26" t="n"/>
     </row>
     <row r="91" ht="16.5" customHeight="1" s="13">
-      <c r="A91" s="22" t="n"/>
-      <c r="B91" s="22" t="n"/>
-      <c r="C91" s="22" t="n"/>
+      <c r="A91" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B91" s="22" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="C91" s="22" t="inlineStr">
+        <is>
+          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
+        </is>
+      </c>
       <c r="D91" s="22" t="n"/>
-      <c r="E91" s="22" t="n"/>
+      <c r="E91" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G91" s="22" t="n"/>
-      <c r="H91" s="16" t="n"/>
-      <c r="I91" s="16" t="n"/>
+      <c r="H91" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
+        </is>
+      </c>
+      <c r="I91" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J91" s="23" t="n"/>
       <c r="K91" s="23" t="n"/>
-      <c r="L91" s="26" t="n"/>
+      <c r="L91" s="26" t="inlineStr">
+        <is>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+        </is>
+      </c>
       <c r="M91" s="26" t="n"/>
       <c r="N91" s="26" t="n"/>
       <c r="O91" s="26" t="n"/>
       <c r="P91" s="26" t="n"/>
     </row>
     <row r="92" ht="16.5" customHeight="1" s="13">
-      <c r="A92" s="22" t="n"/>
-      <c r="B92" s="22" t="n"/>
-      <c r="C92" s="22" t="n"/>
+      <c r="A92" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B92" s="22" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="C92" s="22" t="inlineStr">
+        <is>
+          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
+        </is>
+      </c>
       <c r="D92" s="22" t="n"/>
-      <c r="E92" s="22" t="n"/>
+      <c r="E92" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G92" s="22" t="n"/>
-      <c r="H92" s="16" t="n"/>
-      <c r="I92" s="16" t="n"/>
+      <c r="H92" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
+        </is>
+      </c>
+      <c r="I92" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J92" s="23" t="n"/>
       <c r="K92" s="23" t="n"/>
-      <c r="L92" s="26" t="n"/>
+      <c r="L92" s="26" t="inlineStr">
+        <is>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+        </is>
+      </c>
       <c r="M92" s="26" t="n"/>
       <c r="N92" s="26" t="n"/>
       <c r="O92" s="26" t="n"/>
       <c r="P92" s="26" t="n"/>
     </row>
     <row r="93" ht="16.5" customHeight="1" s="13">
-      <c r="A93" s="22" t="n"/>
-      <c r="B93" s="22" t="n"/>
-      <c r="C93" s="22" t="n"/>
+      <c r="A93" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B93" s="22" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="C93" s="22" t="inlineStr">
+        <is>
+          <t>Use WAF within a landing-zone virtual network for protecting inbound HTTP/S traffic from the internet.</t>
+        </is>
+      </c>
       <c r="D93" s="22" t="n"/>
-      <c r="E93" s="22" t="n"/>
+      <c r="E93" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G93" s="22" t="n"/>
-      <c r="H93" s="16" t="n"/>
-      <c r="I93" s="16" t="n"/>
+      <c r="H93" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
+        </is>
+      </c>
+      <c r="I93" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J93" s="23" t="n"/>
       <c r="K93" s="23" t="n"/>
-      <c r="L93" s="26" t="n"/>
+      <c r="L93" s="26" t="inlineStr">
+        <is>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+        </is>
+      </c>
       <c r="M93" s="26" t="n"/>
       <c r="N93" s="26" t="n"/>
       <c r="O93" s="26" t="n"/>
       <c r="P93" s="26" t="n"/>
     </row>
     <row r="94" ht="16.5" customHeight="1" s="13">
-      <c r="A94" s="22" t="n"/>
-      <c r="B94" s="22" t="n"/>
-      <c r="C94" s="22" t="n"/>
+      <c r="A94" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B94" s="22" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="C94" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
+        </is>
+      </c>
       <c r="D94" s="22" t="n"/>
-      <c r="E94" s="22" t="n"/>
+      <c r="E94" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G94" s="22" t="n"/>
-      <c r="H94" s="16" t="n"/>
-      <c r="I94" s="16" t="n"/>
+      <c r="H94" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+        </is>
+      </c>
+      <c r="I94" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J94" s="23" t="n"/>
       <c r="K94" s="23" t="n"/>
-      <c r="L94" s="26" t="n"/>
+      <c r="L94" s="26" t="inlineStr">
+        <is>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+        </is>
+      </c>
       <c r="M94" s="26" t="n"/>
       <c r="N94" s="26" t="n"/>
       <c r="O94" s="26" t="n"/>
       <c r="P94" s="26" t="n"/>
     </row>
     <row r="95" ht="16.5" customHeight="1" s="13">
-      <c r="A95" s="22" t="n"/>
-      <c r="B95" s="22" t="n"/>
-      <c r="C95" s="22" t="n"/>
+      <c r="A95" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B95" s="22" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="C95" s="22" t="inlineStr">
+        <is>
+          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
+        </is>
+      </c>
       <c r="D95" s="22" t="n"/>
-      <c r="E95" s="22" t="n"/>
+      <c r="E95" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G95" s="22" t="n"/>
-      <c r="H95" s="16" t="n"/>
-      <c r="I95" s="16" t="n"/>
+      <c r="H95" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I95" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J95" s="23" t="n"/>
       <c r="K95" s="23" t="n"/>
-      <c r="L95" s="26" t="n"/>
+      <c r="L95" s="26" t="inlineStr">
+        <is>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+        </is>
+      </c>
       <c r="M95" s="26" t="n"/>
       <c r="N95" s="26" t="n"/>
       <c r="O95" s="26" t="n"/>
       <c r="P95" s="26" t="n"/>
     </row>
     <row r="96" ht="16.5" customHeight="1" s="13">
-      <c r="A96" s="22" t="n"/>
-      <c r="B96" s="22" t="n"/>
-      <c r="C96" s="22" t="n"/>
+      <c r="A96" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B96" s="22" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="C96" s="22" t="inlineStr">
+        <is>
+          <t>If partner NVAs are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
+        </is>
+      </c>
       <c r="D96" s="22" t="n"/>
-      <c r="E96" s="22" t="n"/>
+      <c r="E96" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G96" s="22" t="n"/>
-      <c r="H96" s="16" t="n"/>
-      <c r="I96" s="16" t="n"/>
+      <c r="H96" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I96" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J96" s="23" t="n"/>
       <c r="K96" s="23" t="n"/>
-      <c r="L96" s="26" t="n"/>
+      <c r="L96" s="26" t="inlineStr">
+        <is>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+        </is>
+      </c>
       <c r="M96" s="26" t="n"/>
       <c r="N96" s="26" t="n"/>
       <c r="O96" s="26" t="n"/>
       <c r="P96" s="26" t="n"/>
     </row>
     <row r="97" ht="16.5" customHeight="1" s="13">
-      <c r="A97" s="22" t="n"/>
-      <c r="B97" s="22" t="n"/>
-      <c r="C97" s="22" t="n"/>
+      <c r="A97" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B97" s="22" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="C97" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure DDoS Protection Standard protection plans to help protect all public endpoints hosted within the virtual networks.</t>
+        </is>
+      </c>
       <c r="D97" s="22" t="n"/>
-      <c r="E97" s="22" t="n"/>
+      <c r="E97" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G97" s="22" t="n"/>
-      <c r="H97" s="16" t="n"/>
-      <c r="I97" s="16" t="n"/>
+      <c r="H97" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+        </is>
+      </c>
+      <c r="I97" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J97" s="23" t="n"/>
       <c r="K97" s="23" t="n"/>
-      <c r="L97" s="26" t="n"/>
+      <c r="L97" s="26" t="inlineStr">
+        <is>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+        </is>
+      </c>
       <c r="M97" s="26" t="n"/>
       <c r="N97" s="26" t="n"/>
       <c r="O97" s="26" t="n"/>
       <c r="P97" s="26" t="n"/>
     </row>
     <row r="98" ht="16.5" customHeight="1" s="13">
-      <c r="A98" s="22" t="n"/>
-      <c r="B98" s="22" t="n"/>
-      <c r="C98" s="22" t="n"/>
+      <c r="A98" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B98" s="22" t="inlineStr">
+        <is>
+          <t>App delivery</t>
+        </is>
+      </c>
+      <c r="C98" s="22" t="inlineStr">
+        <is>
+          <t>Perform app delivery within landing zones for both internal-facing (corp) and external-facing apps (online).</t>
+        </is>
+      </c>
       <c r="D98" s="22" t="n"/>
-      <c r="E98" s="22" t="n"/>
+      <c r="E98" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G98" s="22" t="n"/>
-      <c r="H98" s="16" t="n"/>
-      <c r="I98" s="16" t="n"/>
+      <c r="H98" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+        </is>
+      </c>
+      <c r="I98" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J98" s="23" t="n"/>
       <c r="K98" s="23" t="n"/>
-      <c r="L98" s="26" t="n"/>
+      <c r="L98" s="26" t="inlineStr">
+        <is>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+        </is>
+      </c>
       <c r="M98" s="26" t="n"/>
       <c r="N98" s="26" t="n"/>
       <c r="O98" s="26" t="n"/>
       <c r="P98" s="26" t="n"/>
     </row>
     <row r="99" ht="16.5" customHeight="1" s="13">
-      <c r="A99" s="22" t="n"/>
-      <c r="B99" s="22" t="n"/>
-      <c r="C99" s="22" t="n"/>
+      <c r="A99" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B99" s="22" t="inlineStr">
+        <is>
+          <t>App delivery</t>
+        </is>
+      </c>
+      <c r="C99" s="22" t="inlineStr">
+        <is>
+          <t>For secure delivery of HTTP/S apps, use Application Gateway v2 and ensure that WAF protection and policies are enabled.</t>
+        </is>
+      </c>
       <c r="D99" s="22" t="n"/>
-      <c r="E99" s="22" t="n"/>
+      <c r="E99" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G99" s="22" t="n"/>
-      <c r="H99" s="16" t="n"/>
-      <c r="I99" s="16" t="n"/>
+      <c r="H99" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+        </is>
+      </c>
+      <c r="I99" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J99" s="23" t="n"/>
       <c r="K99" s="23" t="n"/>
-      <c r="L99" s="26" t="n"/>
+      <c r="L99" s="26" t="inlineStr">
+        <is>
+          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
+        </is>
+      </c>
       <c r="M99" s="26" t="n"/>
       <c r="N99" s="26" t="n"/>
       <c r="O99" s="26" t="n"/>
       <c r="P99" s="26" t="n"/>
     </row>
     <row r="100" ht="16.5" customHeight="1" s="13">
-      <c r="A100" s="22" t="n"/>
-      <c r="B100" s="22" t="n"/>
-      <c r="C100" s="22" t="n"/>
+      <c r="A100" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B100" s="22" t="inlineStr">
+        <is>
+          <t>App delivery</t>
+        </is>
+      </c>
+      <c r="C100" s="22" t="inlineStr">
+        <is>
+          <t>Use a partner NVA if you can't use Application Gateway v2 for the security of HTTP/S apps.</t>
+        </is>
+      </c>
       <c r="D100" s="22" t="n"/>
-      <c r="E100" s="22" t="n"/>
+      <c r="E100" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G100" s="22" t="n"/>
-      <c r="H100" s="16" t="n"/>
-      <c r="I100" s="16" t="n"/>
+      <c r="H100" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+        </is>
+      </c>
+      <c r="I100" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J100" s="23" t="n"/>
       <c r="K100" s="23" t="n"/>
-      <c r="L100" s="26" t="n"/>
+      <c r="L100" s="26" t="inlineStr">
+        <is>
+          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
+        </is>
+      </c>
       <c r="M100" s="26" t="n"/>
       <c r="N100" s="26" t="n"/>
       <c r="O100" s="26" t="n"/>
       <c r="P100" s="26" t="n"/>
     </row>
     <row r="101" ht="16.5" customHeight="1" s="13">
-      <c r="A101" s="22" t="n"/>
-      <c r="B101" s="22" t="n"/>
-      <c r="C101" s="22" t="n"/>
+      <c r="A101" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B101" s="22" t="inlineStr">
+        <is>
+          <t>App delivery</t>
+        </is>
+      </c>
+      <c r="C101" s="22" t="inlineStr">
+        <is>
+          <t>Deploy Azure Application Gateway v2 or partner NVAs used for inbound HTTP/S connections within the landing-zone virtual network and with the apps that they're securing.</t>
+        </is>
+      </c>
       <c r="D101" s="22" t="n"/>
-      <c r="E101" s="22" t="n"/>
+      <c r="E101" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G101" s="22" t="n"/>
-      <c r="H101" s="16" t="n"/>
-      <c r="I101" s="16" t="n"/>
+      <c r="H101" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I101" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J101" s="23" t="n"/>
       <c r="K101" s="23" t="n"/>
-      <c r="L101" s="26" t="n"/>
+      <c r="L101" s="26" t="inlineStr">
+        <is>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+        </is>
+      </c>
       <c r="M101" s="26" t="n"/>
       <c r="N101" s="26" t="n"/>
       <c r="O101" s="26" t="n"/>
       <c r="P101" s="26" t="n"/>
     </row>
     <row r="102" ht="16.5" customHeight="1" s="13">
-      <c r="A102" s="22" t="n"/>
-      <c r="B102" s="22" t="n"/>
-      <c r="C102" s="22" t="n"/>
+      <c r="A102" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B102" s="22" t="inlineStr">
+        <is>
+          <t>App delivery</t>
+        </is>
+      </c>
+      <c r="C102" s="22" t="inlineStr">
+        <is>
+          <t>Use a DDoS standard protection plan for all public IP addresses in a landing zone.</t>
+        </is>
+      </c>
       <c r="D102" s="22" t="n"/>
-      <c r="E102" s="22" t="n"/>
+      <c r="E102" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G102" s="22" t="n"/>
-      <c r="H102" s="16" t="n"/>
-      <c r="I102" s="16" t="n"/>
+      <c r="H102" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I102" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J102" s="23" t="n"/>
       <c r="K102" s="23" t="n"/>
-      <c r="L102" s="26" t="n"/>
+      <c r="L102" s="26" t="inlineStr">
+        <is>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+        </is>
+      </c>
       <c r="M102" s="26" t="n"/>
       <c r="N102" s="26" t="n"/>
       <c r="O102" s="26" t="n"/>
       <c r="P102" s="26" t="n"/>
     </row>
     <row r="103" ht="16.5" customHeight="1" s="13">
-      <c r="A103" s="22" t="n"/>
-      <c r="B103" s="22" t="n"/>
-      <c r="C103" s="22" t="n"/>
+      <c r="A103" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B103" s="22" t="inlineStr">
+        <is>
+          <t>App delivery</t>
+        </is>
+      </c>
+      <c r="C103" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span Azure regions.</t>
+        </is>
+      </c>
       <c r="D103" s="22" t="n"/>
-      <c r="E103" s="22" t="n"/>
+      <c r="E103" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G103" s="22" t="n"/>
-      <c r="H103" s="16" t="n"/>
-      <c r="I103" s="16" t="n"/>
+      <c r="H103" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I103" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J103" s="23" t="n"/>
       <c r="K103" s="23" t="n"/>
-      <c r="L103" s="26" t="n"/>
+      <c r="L103" s="26" t="inlineStr">
+        <is>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+        </is>
+      </c>
       <c r="M103" s="26" t="n"/>
       <c r="N103" s="26" t="n"/>
       <c r="O103" s="26" t="n"/>
       <c r="P103" s="26" t="n"/>
     </row>
     <row r="104" ht="16.5" customHeight="1" s="13">
-      <c r="A104" s="22" t="n"/>
-      <c r="B104" s="22" t="n"/>
-      <c r="C104" s="22" t="n"/>
+      <c r="A104" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B104" s="22" t="inlineStr">
+        <is>
+          <t>App delivery</t>
+        </is>
+      </c>
+      <c r="C104" s="22" t="inlineStr">
+        <is>
+          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
+        </is>
+      </c>
       <c r="D104" s="22" t="n"/>
-      <c r="E104" s="22" t="n"/>
+      <c r="E104" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G104" s="22" t="n"/>
-      <c r="H104" s="16" t="n"/>
-      <c r="I104" s="16" t="n"/>
+      <c r="H104" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+        </is>
+      </c>
+      <c r="I104" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J104" s="23" t="n"/>
       <c r="K104" s="23" t="n"/>
-      <c r="L104" s="26" t="n"/>
+      <c r="L104" s="26" t="inlineStr">
+        <is>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+        </is>
+      </c>
       <c r="M104" s="26" t="n"/>
       <c r="N104" s="26" t="n"/>
       <c r="O104" s="26" t="n"/>
       <c r="P104" s="26" t="n"/>
     </row>
     <row r="105" ht="16.5" customHeight="1" s="13">
-      <c r="A105" s="22" t="n"/>
-      <c r="B105" s="22" t="n"/>
-      <c r="C105" s="22" t="n"/>
+      <c r="A105" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B105" s="22" t="inlineStr">
+        <is>
+          <t>App delivery</t>
+        </is>
+      </c>
+      <c r="C105" s="22" t="inlineStr">
+        <is>
+          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
+        </is>
+      </c>
       <c r="D105" s="22" t="n"/>
-      <c r="E105" s="22" t="n"/>
+      <c r="E105" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G105" s="22" t="n"/>
-      <c r="H105" s="16" t="n"/>
-      <c r="I105" s="16" t="n"/>
+      <c r="H105" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I105" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J105" s="23" t="n"/>
       <c r="K105" s="23" t="n"/>
-      <c r="L105" s="26" t="n"/>
+      <c r="L105" s="26" t="inlineStr">
+        <is>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+        </is>
+      </c>
       <c r="M105" s="26" t="n"/>
       <c r="N105" s="26" t="n"/>
       <c r="O105" s="26" t="n"/>
       <c r="P105" s="26" t="n"/>
     </row>
     <row r="106" ht="16.5" customHeight="1" s="13">
-      <c r="A106" s="22" t="n"/>
-      <c r="B106" s="22" t="n"/>
-      <c r="C106" s="22" t="n"/>
+      <c r="A106" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B106" s="22" t="inlineStr">
+        <is>
+          <t>App delivery</t>
+        </is>
+      </c>
+      <c r="C106" s="22" t="inlineStr">
+        <is>
+          <t>If users only need access to internal applications, has Azure AD Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
+        </is>
+      </c>
       <c r="D106" s="22" t="n"/>
-      <c r="E106" s="22" t="n"/>
+      <c r="E106" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G106" s="22" t="n"/>
-      <c r="H106" s="16" t="n"/>
-      <c r="I106" s="16" t="n"/>
+      <c r="H106" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I106" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+        </is>
+      </c>
       <c r="J106" s="23" t="n"/>
       <c r="K106" s="23" t="n"/>
-      <c r="L106" s="26" t="n"/>
+      <c r="L106" s="26" t="inlineStr">
+        <is>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+        </is>
+      </c>
       <c r="M106" s="26" t="n"/>
       <c r="N106" s="26" t="n"/>
       <c r="O106" s="26" t="n"/>
       <c r="P106" s="26" t="n"/>
     </row>
     <row r="107" ht="16.5" customHeight="1" s="13">
-      <c r="A107" s="22" t="n"/>
-      <c r="B107" s="22" t="n"/>
-      <c r="C107" s="22" t="n"/>
+      <c r="A107" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B107" s="22" t="inlineStr">
+        <is>
+          <t>Segmentation</t>
+        </is>
+      </c>
+      <c r="C107" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
+        </is>
+      </c>
       <c r="D107" s="22" t="n"/>
-      <c r="E107" s="22" t="n"/>
+      <c r="E107" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G107" s="22" t="n"/>
-      <c r="H107" s="16" t="n"/>
-      <c r="I107" s="16" t="n"/>
+      <c r="H107" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+        </is>
+      </c>
+      <c r="I107" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J107" s="23" t="n"/>
       <c r="K107" s="23" t="n"/>
-      <c r="L107" s="26" t="n"/>
+      <c r="L107" s="26" t="inlineStr">
+        <is>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+        </is>
+      </c>
       <c r="M107" s="26" t="n"/>
       <c r="N107" s="26" t="n"/>
       <c r="O107" s="26" t="n"/>
       <c r="P107" s="26" t="n"/>
     </row>
     <row r="108" ht="16.5" customHeight="1" s="13">
-      <c r="A108" s="22" t="n"/>
-      <c r="B108" s="22" t="n"/>
-      <c r="C108" s="22" t="n"/>
+      <c r="A108" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B108" s="22" t="inlineStr">
+        <is>
+          <t>App delivery</t>
+        </is>
+      </c>
+      <c r="C108" s="22" t="inlineStr">
+        <is>
+          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Azure AD Application Proxy to give remote users secure and authenticated access to internal applications.</t>
+        </is>
+      </c>
       <c r="D108" s="22" t="n"/>
-      <c r="E108" s="22" t="n"/>
+      <c r="E108" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G108" s="22" t="n"/>
-      <c r="H108" s="16" t="n"/>
-      <c r="I108" s="16" t="n"/>
+      <c r="H108" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I108" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="J108" s="23" t="n"/>
       <c r="K108" s="23" t="n"/>
-      <c r="L108" s="26" t="n"/>
+      <c r="L108" s="26" t="inlineStr">
+        <is>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+        </is>
+      </c>
       <c r="M108" s="26" t="n"/>
       <c r="N108" s="26" t="n"/>
       <c r="O108" s="26" t="n"/>
       <c r="P108" s="26" t="n"/>
     </row>
     <row r="109" ht="16.5" customHeight="1" s="13">
-      <c r="A109" s="22" t="n"/>
-      <c r="B109" s="22" t="n"/>
-      <c r="C109" s="22" t="n"/>
+      <c r="A109" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B109" s="22" t="inlineStr">
+        <is>
+          <t>Segmentation</t>
+        </is>
+      </c>
+      <c r="C109" s="22" t="inlineStr">
+        <is>
+          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
+        </is>
+      </c>
       <c r="D109" s="22" t="n"/>
-      <c r="E109" s="22" t="n"/>
+      <c r="E109" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G109" s="22" t="n"/>
-      <c r="H109" s="16" t="n"/>
-      <c r="I109" s="16" t="n"/>
+      <c r="H109" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I109" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J109" s="23" t="n"/>
       <c r="K109" s="23" t="n"/>
-      <c r="L109" s="26" t="n"/>
+      <c r="L109" s="26" t="inlineStr">
+        <is>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+        </is>
+      </c>
       <c r="M109" s="26" t="n"/>
       <c r="N109" s="26" t="n"/>
       <c r="O109" s="26" t="n"/>
       <c r="P109" s="26" t="n"/>
     </row>
     <row r="110" ht="16.5" customHeight="1" s="13">
-      <c r="A110" s="22" t="n"/>
-      <c r="B110" s="22" t="n"/>
-      <c r="C110" s="22" t="n"/>
+      <c r="A110" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B110" s="22" t="inlineStr">
+        <is>
+          <t>Segmentation</t>
+        </is>
+      </c>
+      <c r="C110" s="22" t="inlineStr">
+        <is>
+          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
+        </is>
+      </c>
       <c r="D110" s="22" t="n"/>
-      <c r="E110" s="22" t="n"/>
+      <c r="E110" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G110" s="22" t="n"/>
-      <c r="H110" s="16" t="n"/>
-      <c r="I110" s="16" t="n"/>
+      <c r="H110" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+        </is>
+      </c>
+      <c r="I110" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J110" s="23" t="n"/>
       <c r="K110" s="23" t="n"/>
-      <c r="L110" s="26" t="n"/>
+      <c r="L110" s="26" t="inlineStr">
+        <is>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+        </is>
+      </c>
       <c r="M110" s="26" t="n"/>
       <c r="N110" s="26" t="n"/>
       <c r="O110" s="26" t="n"/>
       <c r="P110" s="26" t="n"/>
     </row>
     <row r="111" ht="16.5" customHeight="1" s="13">
-      <c r="A111" s="22" t="n"/>
-      <c r="B111" s="22" t="n"/>
-      <c r="C111" s="22" t="n"/>
+      <c r="A111" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B111" s="22" t="inlineStr">
+        <is>
+          <t>Segmentation</t>
+        </is>
+      </c>
+      <c r="C111" s="22" t="inlineStr">
+        <is>
+          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
+        </is>
+      </c>
       <c r="D111" s="22" t="n"/>
-      <c r="E111" s="22" t="n"/>
+      <c r="E111" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G111" s="22" t="n"/>
-      <c r="H111" s="16" t="n"/>
+      <c r="H111" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
-      <c r="L111" s="26" t="n"/>
+      <c r="L111" s="26" t="inlineStr">
+        <is>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+        </is>
+      </c>
       <c r="M111" s="26" t="n"/>
       <c r="N111" s="26" t="n"/>
       <c r="O111" s="26" t="n"/>
       <c r="P111" s="26" t="n"/>
     </row>
     <row r="112" ht="16.5" customHeight="1" s="13">
-      <c r="A112" s="22" t="n"/>
-      <c r="B112" s="22" t="n"/>
-      <c r="C112" s="22" t="n"/>
+      <c r="A112" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B112" s="22" t="inlineStr">
+        <is>
+          <t>Segmentation</t>
+        </is>
+      </c>
+      <c r="C112" s="22" t="inlineStr">
+        <is>
+          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
+        </is>
+      </c>
       <c r="D112" s="22" t="n"/>
-      <c r="E112" s="22" t="n"/>
+      <c r="E112" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G112" s="22" t="n"/>
-      <c r="H112" s="16" t="n"/>
-      <c r="I112" s="16" t="n"/>
+      <c r="H112" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I112" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
-      <c r="L112" s="26" t="n"/>
+      <c r="L112" s="26" t="inlineStr">
+        <is>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+        </is>
+      </c>
       <c r="M112" s="26" t="n"/>
       <c r="N112" s="26" t="n"/>
       <c r="O112" s="26" t="n"/>
       <c r="P112" s="26" t="n"/>
     </row>
     <row r="113" ht="16.5" customHeight="1" s="13">
-      <c r="A113" s="22" t="n"/>
-      <c r="B113" s="22" t="n"/>
-      <c r="C113" s="22" t="n"/>
+      <c r="A113" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B113" s="22" t="inlineStr">
+        <is>
+          <t>Segmentation</t>
+        </is>
+      </c>
+      <c r="C113" s="22" t="inlineStr">
+        <is>
+          <t>Use NSGs to selectively allow connectivity between landing zones.</t>
+        </is>
+      </c>
       <c r="D113" s="22" t="n"/>
-      <c r="E113" s="22" t="n"/>
+      <c r="E113" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G113" s="22" t="n"/>
-      <c r="H113" s="16" t="n"/>
-      <c r="I113" s="16" t="n"/>
+      <c r="H113" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I113" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J113" s="23" t="n"/>
       <c r="K113" s="23" t="n"/>
-      <c r="L113" s="26" t="n"/>
+      <c r="L113" s="26" t="inlineStr">
+        <is>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+        </is>
+      </c>
       <c r="M113" s="26" t="n"/>
       <c r="N113" s="26" t="n"/>
       <c r="O113" s="26" t="n"/>
       <c r="P113" s="26" t="n"/>
     </row>
     <row r="114" ht="16.5" customHeight="1" s="13">
-      <c r="A114" s="22" t="n"/>
-      <c r="B114" s="22" t="n"/>
-      <c r="C114" s="22" t="n"/>
+      <c r="A114" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B114" s="22" t="inlineStr">
+        <is>
+          <t>Segmentation</t>
+        </is>
+      </c>
+      <c r="C114" s="22" t="inlineStr">
+        <is>
+          <t>For Virtual WAN topologies, route traffic across landing zones via Azure Firewall if the organization requires filtering and logging capabilities for traffic flowing across landing zones.</t>
+        </is>
+      </c>
       <c r="D114" s="22" t="n"/>
-      <c r="E114" s="22" t="n"/>
+      <c r="E114" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G114" s="22" t="n"/>
-      <c r="H114" s="16" t="n"/>
-      <c r="I114" s="16" t="n"/>
+      <c r="H114" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I114" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J114" s="23" t="n"/>
       <c r="K114" s="23" t="n"/>
-      <c r="L114" s="26" t="n"/>
+      <c r="L114" s="26" t="inlineStr">
+        <is>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+        </is>
+      </c>
       <c r="M114" s="26" t="n"/>
       <c r="N114" s="26" t="n"/>
       <c r="O114" s="26" t="n"/>
       <c r="P114" s="26" t="n"/>
     </row>
     <row r="115" ht="16.5" customHeight="1" s="13">
-      <c r="A115" s="22" t="n"/>
-      <c r="B115" s="22" t="n"/>
-      <c r="C115" s="22" t="n"/>
+      <c r="A115" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B115" s="22" t="inlineStr">
+        <is>
+          <t>Encryption</t>
+        </is>
+      </c>
+      <c r="C115" s="22" t="inlineStr">
+        <is>
+          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
+        </is>
+      </c>
       <c r="D115" s="22" t="n"/>
-      <c r="E115" s="22" t="n"/>
+      <c r="E115" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G115" s="22" t="n"/>
-      <c r="H115" s="16" t="n"/>
+      <c r="H115" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
-      <c r="L115" s="26" t="n"/>
+      <c r="L115" s="26" t="inlineStr">
+        <is>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+        </is>
+      </c>
       <c r="M115" s="26" t="n"/>
       <c r="N115" s="26" t="n"/>
       <c r="O115" s="26" t="n"/>
       <c r="P115" s="26" t="n"/>
     </row>
     <row r="116" ht="16.5" customHeight="1" s="13">
-      <c r="A116" s="22" t="n"/>
-      <c r="B116" s="22" t="n"/>
-      <c r="C116" s="22" t="n"/>
+      <c r="A116" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B116" s="22" t="inlineStr">
+        <is>
+          <t>Encryption</t>
+        </is>
+      </c>
+      <c r="C116" s="22" t="inlineStr">
+        <is>
+          <t>If traffic between Azure regions must be encrypted, use global VNet peering to connect virtual networks across regions.</t>
+        </is>
+      </c>
       <c r="D116" s="22" t="n"/>
-      <c r="E116" s="22" t="n"/>
+      <c r="E116" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G116" s="22" t="n"/>
-      <c r="H116" s="16" t="n"/>
+      <c r="H116" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
-      <c r="L116" s="26" t="n"/>
+      <c r="L116" s="26" t="inlineStr">
+        <is>
+          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
+        </is>
+      </c>
       <c r="M116" s="26" t="n"/>
       <c r="N116" s="26" t="n"/>
       <c r="O116" s="26" t="n"/>
       <c r="P116" s="26" t="n"/>
     </row>
     <row r="117" ht="16.5" customHeight="1" s="13">
-      <c r="A117" s="22" t="n"/>
-      <c r="B117" s="22" t="n"/>
-      <c r="C117" s="22" t="n"/>
+      <c r="A117" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B117" s="22" t="inlineStr">
+        <is>
+          <t>Encryption</t>
+        </is>
+      </c>
+      <c r="C117" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">For Virtual WAN scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a Virtual WAN VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
+        </is>
+      </c>
       <c r="D117" s="22" t="n"/>
-      <c r="E117" s="22" t="n"/>
+      <c r="E117" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G117" s="22" t="n"/>
-      <c r="H117" s="16" t="n"/>
+      <c r="H117" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
-      <c r="L117" s="26" t="n"/>
+      <c r="L117" s="26" t="inlineStr">
+        <is>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+        </is>
+      </c>
       <c r="M117" s="26" t="n"/>
       <c r="N117" s="26" t="n"/>
       <c r="O117" s="26" t="n"/>
       <c r="P117" s="26" t="n"/>
     </row>
     <row r="118" ht="16.5" customHeight="1" s="13">
-      <c r="A118" s="22" t="n"/>
-      <c r="B118" s="22" t="n"/>
-      <c r="C118" s="22" t="n"/>
+      <c r="A118" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B118" s="22" t="inlineStr">
+        <is>
+          <t>Inspection</t>
+        </is>
+      </c>
+      <c r="C118" s="22" t="inlineStr">
+        <is>
+          <t>Use Network Watcher packets to capture despite the limited capture window.</t>
+        </is>
+      </c>
       <c r="D118" s="22" t="n"/>
-      <c r="E118" s="22" t="n"/>
+      <c r="E118" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G118" s="22" t="n"/>
-      <c r="H118" s="16" t="n"/>
-      <c r="I118" s="16" t="n"/>
+      <c r="H118" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+        </is>
+      </c>
+      <c r="I118" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J118" s="23" t="n"/>
       <c r="K118" s="23" t="n"/>
-      <c r="L118" s="26" t="n"/>
+      <c r="L118" s="26" t="inlineStr">
+        <is>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+        </is>
+      </c>
       <c r="M118" s="26" t="n"/>
       <c r="N118" s="26" t="n"/>
       <c r="O118" s="26" t="n"/>
       <c r="P118" s="26" t="n"/>
     </row>
     <row r="119" ht="16.5" customHeight="1" s="13">
-      <c r="A119" s="22" t="n"/>
-      <c r="B119" s="22" t="n"/>
-      <c r="C119" s="22" t="n"/>
+      <c r="A119" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B119" s="22" t="inlineStr">
+        <is>
+          <t>Inspection</t>
+        </is>
+      </c>
+      <c r="C119" s="22" t="inlineStr">
+        <is>
+          <t>Evaluate whether the latest version of NSG flow logs provides the level of detail that you need.</t>
+        </is>
+      </c>
       <c r="D119" s="22" t="n"/>
-      <c r="E119" s="22" t="n"/>
+      <c r="E119" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G119" s="22" t="n"/>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
-      <c r="L119" s="26" t="n"/>
+      <c r="L119" s="26" t="inlineStr">
+        <is>
+          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
+        </is>
+      </c>
       <c r="M119" s="26" t="n"/>
       <c r="N119" s="26" t="n"/>
       <c r="O119" s="26" t="n"/>
       <c r="P119" s="26" t="n"/>
     </row>
     <row r="120" ht="16.5" customHeight="1" s="13">
-      <c r="A120" s="22" t="n"/>
-      <c r="B120" s="22" t="n"/>
-      <c r="C120" s="22" t="n"/>
+      <c r="A120" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B120" s="22" t="inlineStr">
+        <is>
+          <t>Inspection</t>
+        </is>
+      </c>
+      <c r="C120" s="22" t="inlineStr">
+        <is>
+          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
+        </is>
+      </c>
       <c r="D120" s="22" t="n"/>
-      <c r="E120" s="22" t="n"/>
+      <c r="E120" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G120" s="22" t="n"/>
-      <c r="H120" s="16" t="n"/>
+      <c r="H120" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
       <c r="I120" s="16" t="n"/>
       <c r="J120" s="23" t="n"/>
       <c r="K120" s="23" t="n"/>
-      <c r="L120" s="26" t="n"/>
+      <c r="L120" s="26" t="inlineStr">
+        <is>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+        </is>
+      </c>
       <c r="M120" s="26" t="n"/>
       <c r="N120" s="26" t="n"/>
       <c r="O120" s="26" t="n"/>
       <c r="P120" s="26" t="n"/>
     </row>
     <row r="121" ht="16.5" customHeight="1" s="13">
-      <c r="A121" s="22" t="n"/>
-      <c r="B121" s="22" t="n"/>
-      <c r="C121" s="22" t="n"/>
+      <c r="A121" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B121" s="22" t="inlineStr">
+        <is>
+          <t>Inspection</t>
+        </is>
+      </c>
+      <c r="C121" s="22" t="inlineStr">
+        <is>
+          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
+        </is>
+      </c>
       <c r="D121" s="22" t="n"/>
-      <c r="E121" s="22" t="n"/>
+      <c r="E121" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G121" s="22" t="n"/>
-      <c r="H121" s="16" t="n"/>
+      <c r="H121" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+        </is>
+      </c>
       <c r="I121" s="16" t="n"/>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
-      <c r="L121" s="26" t="n"/>
+      <c r="L121" s="26" t="inlineStr">
+        <is>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+        </is>
+      </c>
       <c r="M121" s="26" t="n"/>
       <c r="N121" s="26" t="n"/>
       <c r="O121" s="26" t="n"/>
       <c r="P121" s="26" t="n"/>
     </row>
     <row r="122" ht="16.5" customHeight="1" s="13">
-      <c r="A122" s="22" t="n"/>
-      <c r="B122" s="22" t="n"/>
-      <c r="C122" s="22" t="n"/>
+      <c r="A122" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B122" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C122" s="22" t="inlineStr">
+        <is>
+          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
+        </is>
+      </c>
       <c r="D122" s="22" t="n"/>
-      <c r="E122" s="22" t="n"/>
+      <c r="E122" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G122" s="22" t="n"/>
-      <c r="H122" s="16" t="n"/>
-      <c r="I122" s="16" t="n"/>
+      <c r="H122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
-      <c r="L122" s="26" t="n"/>
+      <c r="L122" s="26" t="inlineStr">
+        <is>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+        </is>
+      </c>
       <c r="M122" s="26" t="n"/>
       <c r="N122" s="26" t="n"/>
       <c r="O122" s="26" t="n"/>
       <c r="P122" s="26" t="n"/>
     </row>
     <row r="123" ht="16.5" customHeight="1" s="13">
-      <c r="A123" s="22" t="n"/>
-      <c r="B123" s="22" t="n"/>
-      <c r="C123" s="22" t="n"/>
+      <c r="A123" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B123" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C123" s="22" t="inlineStr">
+        <is>
+          <t>Is the landing zone documented?</t>
+        </is>
+      </c>
       <c r="D123" s="22" t="n"/>
-      <c r="E123" s="22" t="n"/>
+      <c r="E123" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G123" s="22" t="n"/>
       <c r="H123" s="16" t="n"/>
       <c r="I123" s="16" t="n"/>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
-      <c r="L123" s="26" t="n"/>
+      <c r="L123" s="26" t="inlineStr">
+        <is>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+        </is>
+      </c>
       <c r="M123" s="26" t="n"/>
       <c r="N123" s="26" t="n"/>
       <c r="O123" s="26" t="n"/>
       <c r="P123" s="26" t="n"/>
     </row>
     <row r="124" ht="16.5" customHeight="1" s="13">
-      <c r="A124" s="22" t="n"/>
-      <c r="B124" s="22" t="n"/>
-      <c r="C124" s="22" t="n"/>
+      <c r="A124" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B124" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C124" s="22" t="inlineStr">
+        <is>
+          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
+        </is>
+      </c>
       <c r="D124" s="22" t="n"/>
-      <c r="E124" s="22" t="n"/>
+      <c r="E124" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G124" s="22" t="n"/>
-      <c r="H124" s="16" t="n"/>
-      <c r="I124" s="16" t="n"/>
+      <c r="H124" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I124" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="J124" s="23" t="n"/>
       <c r="K124" s="23" t="n"/>
-      <c r="L124" s="26" t="n"/>
+      <c r="L124" s="26" t="inlineStr">
+        <is>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+        </is>
+      </c>
       <c r="M124" s="26" t="n"/>
       <c r="N124" s="26" t="n"/>
       <c r="O124" s="26" t="n"/>
       <c r="P124" s="26" t="n"/>
     </row>
     <row r="125" ht="16.5" customHeight="1" s="13">
-      <c r="A125" s="22" t="n"/>
-      <c r="B125" s="22" t="n"/>
-      <c r="C125" s="22" t="n"/>
+      <c r="A125" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B125" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C125" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
+        </is>
+      </c>
       <c r="D125" s="22" t="n"/>
-      <c r="E125" s="22" t="n"/>
+      <c r="E125" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G125" s="22" t="n"/>
-      <c r="H125" s="16" t="n"/>
-      <c r="I125" s="16" t="n"/>
+      <c r="H125" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I125" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
-      <c r="L125" s="26" t="n"/>
+      <c r="L125" s="26" t="inlineStr">
+        <is>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+        </is>
+      </c>
       <c r="M125" s="26" t="n"/>
       <c r="N125" s="26" t="n"/>
       <c r="O125" s="26" t="n"/>
       <c r="P125" s="26" t="n"/>
     </row>
     <row r="126" ht="16.5" customHeight="1" s="13">
-      <c r="A126" s="22" t="n"/>
-      <c r="B126" s="22" t="n"/>
-      <c r="C126" s="22" t="n"/>
+      <c r="A126" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B126" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C126" s="22" t="inlineStr">
+        <is>
+          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
+        </is>
+      </c>
       <c r="D126" s="22" t="n"/>
-      <c r="E126" s="22" t="n"/>
+      <c r="E126" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G126" s="22" t="n"/>
-      <c r="H126" s="16" t="n"/>
+      <c r="H126" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
-      <c r="L126" s="26" t="n"/>
+      <c r="L126" s="26" t="inlineStr">
+        <is>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+        </is>
+      </c>
       <c r="M126" s="26" t="n"/>
       <c r="N126" s="26" t="n"/>
       <c r="O126" s="26" t="n"/>
       <c r="P126" s="26" t="n"/>
     </row>
     <row r="127" ht="16.5" customHeight="1" s="13">
-      <c r="A127" s="22" t="n"/>
-      <c r="B127" s="22" t="n"/>
-      <c r="C127" s="22" t="n"/>
+      <c r="A127" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B127" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C127" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
+        </is>
+      </c>
       <c r="D127" s="22" t="n"/>
-      <c r="E127" s="22" t="n"/>
+      <c r="E127" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G127" s="22" t="n"/>
-      <c r="H127" s="16" t="n"/>
+      <c r="H127" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+        </is>
+      </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
-      <c r="L127" s="26" t="n"/>
+      <c r="L127" s="26" t="inlineStr">
+        <is>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+        </is>
+      </c>
       <c r="M127" s="26" t="n"/>
       <c r="N127" s="26" t="n"/>
       <c r="O127" s="26" t="n"/>
       <c r="P127" s="26" t="n"/>
     </row>
     <row r="128" ht="16.5" customHeight="1" s="13">
-      <c r="A128" s="22" t="n"/>
-      <c r="B128" s="22" t="n"/>
-      <c r="C128" s="22" t="n"/>
+      <c r="A128" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B128" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C128" s="22" t="inlineStr">
+        <is>
+          <t>Use Network Watcher to proactively monitor traffic flows</t>
+        </is>
+      </c>
       <c r="D128" s="22" t="n"/>
-      <c r="E128" s="22" t="n"/>
+      <c r="E128" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G128" s="22" t="n"/>
-      <c r="H128" s="16" t="n"/>
+      <c r="H128" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
+        </is>
+      </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
-      <c r="L128" s="26" t="n"/>
+      <c r="L128" s="26" t="inlineStr">
+        <is>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+        </is>
+      </c>
       <c r="M128" s="26" t="n"/>
       <c r="N128" s="26" t="n"/>
       <c r="O128" s="26" t="n"/>
       <c r="P128" s="26" t="n"/>
     </row>
     <row r="129" ht="16.5" customHeight="1" s="13">
-      <c r="A129" s="22" t="n"/>
-      <c r="B129" s="22" t="n"/>
-      <c r="C129" s="22" t="n"/>
+      <c r="A129" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B129" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C129" s="22" t="inlineStr">
+        <is>
+          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
+        </is>
+      </c>
       <c r="D129" s="22" t="n"/>
-      <c r="E129" s="22" t="n"/>
+      <c r="E129" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G129" s="22" t="n"/>
-      <c r="H129" s="16" t="n"/>
+      <c r="H129" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
-      <c r="L129" s="26" t="n"/>
+      <c r="L129" s="26" t="inlineStr">
+        <is>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+        </is>
+      </c>
       <c r="M129" s="26" t="n"/>
       <c r="N129" s="26" t="n"/>
       <c r="O129" s="26" t="n"/>
       <c r="P129" s="26" t="n"/>
     </row>
     <row r="130" ht="16.5" customHeight="1" s="13">
-      <c r="A130" s="22" t="n"/>
-      <c r="B130" s="22" t="n"/>
-      <c r="C130" s="22" t="n"/>
+      <c r="A130" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B130" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C130" s="22" t="inlineStr">
+        <is>
+          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
+        </is>
+      </c>
       <c r="D130" s="22" t="n"/>
-      <c r="E130" s="22" t="n"/>
+      <c r="E130" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G130" s="22" t="n"/>
-      <c r="H130" s="16" t="n"/>
+      <c r="H130" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
-      <c r="L130" s="26" t="n"/>
+      <c r="L130" s="26" t="inlineStr">
+        <is>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+        </is>
+      </c>
       <c r="M130" s="26" t="n"/>
       <c r="N130" s="26" t="n"/>
       <c r="O130" s="26" t="n"/>
       <c r="P130" s="26" t="n"/>
     </row>
     <row r="131" ht="16.5" customHeight="1" s="13">
-      <c r="A131" s="22" t="n"/>
-      <c r="B131" s="22" t="n"/>
-      <c r="C131" s="22" t="n"/>
+      <c r="A131" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B131" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C131" s="22" t="inlineStr">
+        <is>
+          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
+        </is>
+      </c>
       <c r="D131" s="22" t="n"/>
-      <c r="E131" s="22" t="n"/>
+      <c r="E131" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G131" s="22" t="n"/>
-      <c r="H131" s="16" t="n"/>
+      <c r="H131" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+        </is>
+      </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
-      <c r="L131" s="26" t="n"/>
+      <c r="L131" s="26" t="inlineStr">
+        <is>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+        </is>
+      </c>
       <c r="M131" s="26" t="n"/>
       <c r="N131" s="26" t="n"/>
       <c r="O131" s="26" t="n"/>
       <c r="P131" s="26" t="n"/>
     </row>
     <row r="132" ht="16.5" customHeight="1" s="13">
-      <c r="A132" s="22" t="n"/>
-      <c r="B132" s="22" t="n"/>
-      <c r="C132" s="22" t="n"/>
+      <c r="A132" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B132" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C132" s="22" t="inlineStr">
+        <is>
+          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
+        </is>
+      </c>
       <c r="D132" s="22" t="n"/>
-      <c r="E132" s="22" t="n"/>
+      <c r="E132" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G132" s="22" t="n"/>
-      <c r="H132" s="16" t="n"/>
+      <c r="H132" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+        </is>
+      </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
-      <c r="L132" s="26" t="n"/>
+      <c r="L132" s="26" t="inlineStr">
+        <is>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+        </is>
+      </c>
       <c r="M132" s="26" t="n"/>
       <c r="N132" s="26" t="n"/>
       <c r="O132" s="26" t="n"/>
       <c r="P132" s="26" t="n"/>
     </row>
     <row r="133" ht="16.5" customHeight="1" s="13">
-      <c r="A133" s="22" t="n"/>
-      <c r="B133" s="22" t="n"/>
-      <c r="C133" s="22" t="n"/>
+      <c r="A133" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B133" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C133" s="22" t="inlineStr">
+        <is>
+          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
+        </is>
+      </c>
       <c r="D133" s="22" t="n"/>
-      <c r="E133" s="22" t="n"/>
+      <c r="E133" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G133" s="22" t="n"/>
-      <c r="H133" s="16" t="n"/>
+      <c r="H133" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+        </is>
+      </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
-      <c r="L133" s="26" t="n"/>
+      <c r="L133" s="26" t="inlineStr">
+        <is>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+        </is>
+      </c>
       <c r="M133" s="26" t="n"/>
       <c r="N133" s="26" t="n"/>
       <c r="O133" s="26" t="n"/>
       <c r="P133" s="26" t="n"/>
     </row>
     <row r="134" ht="16.5" customHeight="1" s="13">
-      <c r="A134" s="22" t="n"/>
-      <c r="B134" s="22" t="n"/>
-      <c r="C134" s="22" t="n"/>
+      <c r="A134" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B134" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C134" s="22" t="inlineStr">
+        <is>
+          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
+        </is>
+      </c>
       <c r="D134" s="22" t="n"/>
-      <c r="E134" s="22" t="n"/>
+      <c r="E134" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G134" s="22" t="n"/>
-      <c r="H134" s="16" t="n"/>
+      <c r="H134" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
-      <c r="L134" s="26" t="n"/>
+      <c r="L134" s="26" t="inlineStr">
+        <is>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+        </is>
+      </c>
       <c r="M134" s="26" t="n"/>
       <c r="N134" s="26" t="n"/>
       <c r="O134" s="26" t="n"/>
       <c r="P134" s="26" t="n"/>
     </row>
     <row r="135" ht="16.5" customHeight="1" s="13">
-      <c r="A135" s="22" t="n"/>
-      <c r="B135" s="22" t="n"/>
-      <c r="C135" s="22" t="n"/>
+      <c r="A135" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B135" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C135" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure Monitor Logs for insights and reporting.</t>
+        </is>
+      </c>
       <c r="D135" s="22" t="n"/>
-      <c r="E135" s="22" t="n"/>
+      <c r="E135" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G135" s="22" t="n"/>
-      <c r="H135" s="16" t="n"/>
+      <c r="H135" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+        </is>
+      </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
-      <c r="L135" s="26" t="n"/>
+      <c r="L135" s="26" t="inlineStr">
+        <is>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+        </is>
+      </c>
       <c r="M135" s="26" t="n"/>
       <c r="N135" s="26" t="n"/>
       <c r="O135" s="26" t="n"/>
       <c r="P135" s="26" t="n"/>
     </row>
     <row r="136" ht="16.5" customHeight="1" s="13">
-      <c r="A136" s="22" t="n"/>
-      <c r="B136" s="22" t="n"/>
-      <c r="C136" s="22" t="n"/>
+      <c r="A136" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B136" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C136" s="22" t="inlineStr">
+        <is>
+          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
+        </is>
+      </c>
       <c r="D136" s="22" t="n"/>
-      <c r="E136" s="22" t="n"/>
+      <c r="E136" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G136" s="22" t="n"/>
-      <c r="H136" s="16" t="n"/>
+      <c r="H136" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+        </is>
+      </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
-      <c r="L136" s="26" t="n"/>
+      <c r="L136" s="26" t="inlineStr">
+        <is>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+        </is>
+      </c>
       <c r="M136" s="26" t="n"/>
       <c r="N136" s="26" t="n"/>
       <c r="O136" s="26" t="n"/>
       <c r="P136" s="26" t="n"/>
     </row>
     <row r="137" ht="16.5" customHeight="1" s="13">
-      <c r="A137" s="22" t="n"/>
-      <c r="B137" s="22" t="n"/>
-      <c r="C137" s="22" t="n"/>
+      <c r="A137" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B137" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C137" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
+        </is>
+      </c>
       <c r="D137" s="22" t="n"/>
-      <c r="E137" s="22" t="n"/>
+      <c r="E137" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G137" s="22" t="n"/>
-      <c r="H137" s="16" t="n"/>
+      <c r="H137" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+        </is>
+      </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
-      <c r="L137" s="26" t="n"/>
+      <c r="L137" s="26" t="inlineStr">
+        <is>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+        </is>
+      </c>
       <c r="M137" s="26" t="n"/>
       <c r="N137" s="26" t="n"/>
       <c r="O137" s="26" t="n"/>
       <c r="P137" s="26" t="n"/>
     </row>
     <row r="138" ht="16.5" customHeight="1" s="13">
-      <c r="A138" s="22" t="n"/>
-      <c r="B138" s="22" t="n"/>
-      <c r="C138" s="22" t="n"/>
+      <c r="A138" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B138" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C138" s="22" t="inlineStr">
+        <is>
+          <t>Employ Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+        </is>
+      </c>
       <c r="D138" s="22" t="n"/>
-      <c r="E138" s="22" t="n"/>
+      <c r="E138" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G138" s="22" t="n"/>
-      <c r="H138" s="16" t="n"/>
+      <c r="H138" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+        </is>
+      </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
-      <c r="L138" s="26" t="n"/>
+      <c r="L138" s="26" t="inlineStr">
+        <is>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+        </is>
+      </c>
       <c r="M138" s="26" t="n"/>
       <c r="N138" s="26" t="n"/>
       <c r="O138" s="26" t="n"/>
       <c r="P138" s="26" t="n"/>
     </row>
     <row r="139" ht="16.5" customHeight="1" s="13">
-      <c r="A139" s="22" t="n"/>
-      <c r="B139" s="22" t="n"/>
-      <c r="C139" s="22" t="n"/>
+      <c r="A139" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B139" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C139" s="22" t="inlineStr">
+        <is>
+          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
+        </is>
+      </c>
       <c r="D139" s="22" t="n"/>
-      <c r="E139" s="22" t="n"/>
+      <c r="E139" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G139" s="22" t="n"/>
-      <c r="H139" s="16" t="n"/>
+      <c r="H139" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+        </is>
+      </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
-      <c r="L139" s="26" t="n"/>
+      <c r="L139" s="26" t="inlineStr">
+        <is>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+        </is>
+      </c>
       <c r="M139" s="26" t="n"/>
       <c r="N139" s="26" t="n"/>
       <c r="O139" s="26" t="n"/>
       <c r="P139" s="26" t="n"/>
     </row>
     <row r="140" ht="16.5" customHeight="1" s="13">
-      <c r="A140" s="22" t="n"/>
-      <c r="B140" s="22" t="n"/>
-      <c r="C140" s="22" t="n"/>
+      <c r="A140" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B140" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C140" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
+        </is>
+      </c>
       <c r="D140" s="22" t="n"/>
-      <c r="E140" s="22" t="n"/>
+      <c r="E140" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G140" s="22" t="n"/>
-      <c r="H140" s="16" t="n"/>
+      <c r="H140" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
+        </is>
+      </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
-      <c r="L140" s="26" t="n"/>
+      <c r="L140" s="26" t="inlineStr">
+        <is>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+        </is>
+      </c>
       <c r="M140" s="26" t="n"/>
       <c r="N140" s="26" t="n"/>
       <c r="O140" s="26" t="n"/>
       <c r="P140" s="26" t="n"/>
     </row>
     <row r="141" ht="16.5" customHeight="1" s="13">
-      <c r="A141" s="22" t="n"/>
-      <c r="B141" s="22" t="n"/>
-      <c r="C141" s="22" t="n"/>
+      <c r="A141" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B141" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C141" s="22" t="inlineStr">
+        <is>
+          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
+        </is>
+      </c>
       <c r="D141" s="22" t="n"/>
-      <c r="E141" s="22" t="n"/>
+      <c r="E141" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G141" s="22" t="n"/>
-      <c r="H141" s="16" t="n"/>
+      <c r="H141" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/architecture/best-practices/monitoring</t>
+        </is>
+      </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
-      <c r="L141" s="26" t="n"/>
+      <c r="L141" s="26" t="inlineStr">
+        <is>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+        </is>
+      </c>
       <c r="M141" s="26" t="n"/>
       <c r="N141" s="26" t="n"/>
       <c r="O141" s="26" t="n"/>
       <c r="P141" s="26" t="n"/>
     </row>
     <row r="142" ht="16.5" customHeight="1" s="13">
-      <c r="A142" s="22" t="n"/>
-      <c r="B142" s="22" t="n"/>
-      <c r="C142" s="22" t="n"/>
+      <c r="A142" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B142" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C142" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
+        </is>
+      </c>
       <c r="D142" s="22" t="n"/>
-      <c r="E142" s="22" t="n"/>
+      <c r="E142" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G142" s="22" t="n"/>
-      <c r="H142" s="16" t="n"/>
+      <c r="H142" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+        </is>
+      </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
-      <c r="L142" s="26" t="n"/>
+      <c r="L142" s="26" t="inlineStr">
+        <is>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+        </is>
+      </c>
       <c r="M142" s="26" t="n"/>
       <c r="N142" s="26" t="n"/>
       <c r="O142" s="26" t="n"/>
       <c r="P142" s="26" t="n"/>
     </row>
     <row r="143" ht="16.5" customHeight="1" s="13">
-      <c r="A143" s="22" t="n"/>
-      <c r="B143" s="22" t="n"/>
-      <c r="C143" s="22" t="n"/>
+      <c r="A143" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B143" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C143" s="22" t="inlineStr">
+        <is>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
+        </is>
+      </c>
       <c r="D143" s="22" t="n"/>
-      <c r="E143" s="22" t="n"/>
+      <c r="E143" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G143" s="22" t="n"/>
-      <c r="H143" s="16" t="n"/>
+      <c r="H143" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+        </is>
+      </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
-      <c r="L143" s="26" t="n"/>
+      <c r="L143" s="26" t="inlineStr">
+        <is>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+        </is>
+      </c>
       <c r="M143" s="26" t="n"/>
       <c r="N143" s="26" t="n"/>
       <c r="O143" s="26" t="n"/>
       <c r="P143" s="26" t="n"/>
     </row>
     <row r="144" ht="16.5" customHeight="1" s="13">
-      <c r="A144" s="22" t="n"/>
-      <c r="B144" s="22" t="n"/>
-      <c r="C144" s="22" t="n"/>
+      <c r="A144" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B144" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C144" s="22" t="inlineStr">
+        <is>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+        </is>
+      </c>
       <c r="D144" s="22" t="n"/>
-      <c r="E144" s="22" t="n"/>
+      <c r="E144" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G144" s="22" t="n"/>
-      <c r="H144" s="16" t="n"/>
+      <c r="H144" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J144" s="23" t="n"/>
       <c r="K144" s="23" t="n"/>
-      <c r="L144" s="26" t="n"/>
+      <c r="L144" s="26" t="inlineStr">
+        <is>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+        </is>
+      </c>
       <c r="M144" s="26" t="n"/>
       <c r="N144" s="26" t="n"/>
       <c r="O144" s="26" t="n"/>
       <c r="P144" s="26" t="n"/>
     </row>
     <row r="145" ht="16.5" customHeight="1" s="13">
-      <c r="A145" s="22" t="n"/>
-      <c r="B145" s="22" t="n"/>
-      <c r="C145" s="22" t="n"/>
+      <c r="A145" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B145" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C145" s="22" t="inlineStr">
+        <is>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
+        </is>
+      </c>
       <c r="D145" s="22" t="n"/>
-      <c r="E145" s="22" t="n"/>
+      <c r="E145" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G145" s="22" t="n"/>
-      <c r="H145" s="16" t="n"/>
+      <c r="H145" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J145" s="23" t="n"/>
       <c r="K145" s="23" t="n"/>
-      <c r="L145" s="26" t="n"/>
+      <c r="L145" s="26" t="inlineStr">
+        <is>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+        </is>
+      </c>
       <c r="M145" s="26" t="n"/>
       <c r="N145" s="26" t="n"/>
       <c r="O145" s="26" t="n"/>
       <c r="P145" s="26" t="n"/>
     </row>
     <row r="146" ht="16.5" customHeight="1" s="13">
-      <c r="A146" s="22" t="n"/>
-      <c r="B146" s="22" t="n"/>
-      <c r="C146" s="22" t="n"/>
+      <c r="A146" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B146" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C146" s="22" t="inlineStr">
+        <is>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
+        </is>
+      </c>
       <c r="D146" s="22" t="n"/>
-      <c r="E146" s="22" t="n"/>
+      <c r="E146" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G146" s="22" t="n"/>
-      <c r="H146" s="16" t="n"/>
+      <c r="H146" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J146" s="23" t="n"/>
       <c r="K146" s="23" t="n"/>
-      <c r="L146" s="26" t="n"/>
+      <c r="L146" s="26" t="inlineStr">
+        <is>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+        </is>
+      </c>
       <c r="M146" s="26" t="n"/>
       <c r="N146" s="26" t="n"/>
       <c r="O146" s="26" t="n"/>
       <c r="P146" s="26" t="n"/>
     </row>
     <row r="147" ht="16.5" customHeight="1" s="13">
-      <c r="A147" s="22" t="n"/>
-      <c r="B147" s="22" t="n"/>
-      <c r="C147" s="22" t="n"/>
+      <c r="A147" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B147" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C147" s="22" t="inlineStr">
+        <is>
+          <t>Establish an automated process for key and certificate rotation.</t>
+        </is>
+      </c>
       <c r="D147" s="22" t="n"/>
-      <c r="E147" s="22" t="n"/>
+      <c r="E147" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G147" s="22" t="n"/>
-      <c r="H147" s="16" t="n"/>
+      <c r="H147" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
-      <c r="L147" s="26" t="n"/>
+      <c r="L147" s="26" t="inlineStr">
+        <is>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+        </is>
+      </c>
       <c r="M147" s="26" t="n"/>
       <c r="N147" s="26" t="n"/>
       <c r="O147" s="26" t="n"/>
       <c r="P147" s="26" t="n"/>
     </row>
     <row r="148" ht="16.5" customHeight="1" s="13">
-      <c r="A148" s="22" t="n"/>
-      <c r="B148" s="22" t="n"/>
-      <c r="C148" s="22" t="n"/>
+      <c r="A148" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B148" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C148" s="22" t="inlineStr">
+        <is>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+        </is>
+      </c>
       <c r="D148" s="22" t="n"/>
-      <c r="E148" s="22" t="n"/>
+      <c r="E148" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G148" s="22" t="n"/>
-      <c r="H148" s="16" t="n"/>
+      <c r="H148" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
-      <c r="L148" s="26" t="n"/>
+      <c r="L148" s="26" t="inlineStr">
+        <is>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+        </is>
+      </c>
       <c r="M148" s="26" t="n"/>
       <c r="N148" s="26" t="n"/>
       <c r="O148" s="26" t="n"/>
       <c r="P148" s="26" t="n"/>
     </row>
     <row r="149" ht="16.5" customHeight="1" s="13">
-      <c r="A149" s="22" t="n"/>
-      <c r="B149" s="22" t="n"/>
-      <c r="C149" s="22" t="n"/>
+      <c r="A149" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B149" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C149" s="22" t="inlineStr">
+        <is>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
+        </is>
+      </c>
       <c r="D149" s="22" t="n"/>
-      <c r="E149" s="22" t="n"/>
+      <c r="E149" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G149" s="22" t="n"/>
-      <c r="H149" s="16" t="n"/>
+      <c r="H149" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+        </is>
+      </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
-      <c r="L149" s="26" t="n"/>
+      <c r="L149" s="26" t="inlineStr">
+        <is>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+        </is>
+      </c>
       <c r="M149" s="26" t="n"/>
       <c r="N149" s="26" t="n"/>
       <c r="O149" s="26" t="n"/>
       <c r="P149" s="26" t="n"/>
     </row>
     <row r="150" ht="16.5" customHeight="1" s="13">
-      <c r="A150" s="22" t="n"/>
-      <c r="B150" s="22" t="n"/>
-      <c r="C150" s="22" t="n"/>
+      <c r="A150" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B150" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C150" s="22" t="inlineStr">
+        <is>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
+        </is>
+      </c>
       <c r="D150" s="22" t="n"/>
-      <c r="E150" s="22" t="n"/>
+      <c r="E150" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G150" s="22" t="n"/>
-      <c r="H150" s="16" t="n"/>
+      <c r="H150" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
-      <c r="L150" s="26" t="n"/>
+      <c r="L150" s="26" t="inlineStr">
+        <is>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+        </is>
+      </c>
       <c r="M150" s="26" t="n"/>
       <c r="N150" s="26" t="n"/>
       <c r="O150" s="26" t="n"/>
       <c r="P150" s="26" t="n"/>
     </row>
     <row r="151" ht="16.5" customHeight="1" s="13">
-      <c r="A151" s="22" t="n"/>
-      <c r="B151" s="22" t="n"/>
-      <c r="C151" s="22" t="n"/>
+      <c r="A151" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B151" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C151" s="22" t="inlineStr">
+        <is>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+        </is>
+      </c>
       <c r="D151" s="22" t="n"/>
-      <c r="E151" s="22" t="n"/>
+      <c r="E151" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G151" s="22" t="n"/>
-      <c r="H151" s="16" t="n"/>
+      <c r="H151" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+        </is>
+      </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
-      <c r="L151" s="26" t="n"/>
+      <c r="L151" s="26" t="inlineStr">
+        <is>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+        </is>
+      </c>
       <c r="M151" s="26" t="n"/>
       <c r="N151" s="26" t="n"/>
       <c r="O151" s="26" t="n"/>
       <c r="P151" s="26" t="n"/>
     </row>
     <row r="152" ht="16.5" customHeight="1" s="13">
-      <c r="A152" s="22" t="n"/>
-      <c r="B152" s="22" t="n"/>
-      <c r="C152" s="22" t="n"/>
+      <c r="A152" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B152" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C152" s="22" t="inlineStr">
+        <is>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
+        </is>
+      </c>
       <c r="D152" s="22" t="n"/>
-      <c r="E152" s="22" t="n"/>
+      <c r="E152" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G152" s="22" t="n"/>
-      <c r="H152" s="16" t="n"/>
+      <c r="H152" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
-      <c r="L152" s="26" t="n"/>
+      <c r="L152" s="26" t="inlineStr">
+        <is>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+        </is>
+      </c>
       <c r="M152" s="26" t="n"/>
       <c r="N152" s="26" t="n"/>
       <c r="O152" s="26" t="n"/>
       <c r="P152" s="26" t="n"/>
     </row>
     <row r="153" ht="16.5" customHeight="1" s="13">
-      <c r="A153" s="22" t="n"/>
-      <c r="B153" s="22" t="n"/>
-      <c r="C153" s="22" t="n"/>
+      <c r="A153" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B153" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C153" s="22" t="inlineStr">
+        <is>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
+        </is>
+      </c>
       <c r="D153" s="22" t="n"/>
-      <c r="E153" s="22" t="n"/>
+      <c r="E153" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G153" s="22" t="n"/>
-      <c r="H153" s="16" t="n"/>
+      <c r="H153" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
-      <c r="L153" s="26" t="n"/>
+      <c r="L153" s="26" t="inlineStr">
+        <is>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+        </is>
+      </c>
       <c r="M153" s="26" t="n"/>
       <c r="N153" s="26" t="n"/>
       <c r="O153" s="26" t="n"/>
       <c r="P153" s="26" t="n"/>
     </row>
     <row r="154" ht="16.5" customHeight="1" s="13">
-      <c r="A154" s="22" t="n"/>
-      <c r="B154" s="22" t="n"/>
-      <c r="C154" s="22" t="n"/>
+      <c r="A154" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B154" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C154" s="22" t="inlineStr">
+        <is>
+          <t>Leverage Azure Policy</t>
+        </is>
+      </c>
       <c r="D154" s="22" t="n"/>
-      <c r="E154" s="22" t="n"/>
+      <c r="E154" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G154" s="22" t="n"/>
-      <c r="H154" s="16" t="n"/>
+      <c r="H154" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
-      <c r="L154" s="26" t="n"/>
+      <c r="L154" s="26" t="inlineStr">
+        <is>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+        </is>
+      </c>
       <c r="M154" s="26" t="n"/>
       <c r="N154" s="26" t="n"/>
       <c r="O154" s="26" t="n"/>
       <c r="P154" s="26" t="n"/>
     </row>
     <row r="155" ht="16.5" customHeight="1" s="13">
-      <c r="A155" s="22" t="n"/>
-      <c r="B155" s="22" t="n"/>
-      <c r="C155" s="22" t="n"/>
+      <c r="A155" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B155" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C155" s="22" t="inlineStr">
+        <is>
+          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
+        </is>
+      </c>
       <c r="D155" s="22" t="n"/>
-      <c r="E155" s="22" t="n"/>
+      <c r="E155" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G155" s="22" t="n"/>
-      <c r="H155" s="16" t="n"/>
+      <c r="H155" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+        </is>
+      </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
-      <c r="L155" s="26" t="n"/>
+      <c r="L155" s="26" t="inlineStr">
+        <is>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+        </is>
+      </c>
       <c r="M155" s="26" t="n"/>
       <c r="N155" s="26" t="n"/>
       <c r="O155" s="26" t="n"/>
       <c r="P155" s="26" t="n"/>
     </row>
     <row r="156" ht="16.5" customHeight="1" s="13">
-      <c r="A156" s="22" t="n"/>
-      <c r="B156" s="22" t="n"/>
-      <c r="C156" s="22" t="n"/>
+      <c r="A156" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B156" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C156" s="22" t="inlineStr">
+        <is>
+          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+        </is>
+      </c>
       <c r="D156" s="22" t="n"/>
-      <c r="E156" s="22" t="n"/>
+      <c r="E156" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G156" s="22" t="n"/>
-      <c r="H156" s="16" t="n"/>
+      <c r="H156" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J156" s="23" t="n"/>
       <c r="K156" s="23" t="n"/>
-      <c r="L156" s="26" t="n"/>
+      <c r="L156" s="26" t="inlineStr">
+        <is>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+        </is>
+      </c>
       <c r="M156" s="26" t="n"/>
       <c r="N156" s="26" t="n"/>
       <c r="O156" s="26" t="n"/>
       <c r="P156" s="26" t="n"/>
     </row>
     <row r="157" ht="16.5" customHeight="1" s="13">
-      <c r="A157" s="22" t="n"/>
-      <c r="B157" s="22" t="n"/>
-      <c r="C157" s="22" t="n"/>
+      <c r="A157" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B157" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C157" s="22" t="inlineStr">
+        <is>
+          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
+        </is>
+      </c>
       <c r="D157" s="22" t="n"/>
-      <c r="E157" s="22" t="n"/>
+      <c r="E157" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G157" s="22" t="n"/>
-      <c r="H157" s="16" t="n"/>
+      <c r="H157" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
-      <c r="L157" s="26" t="n"/>
+      <c r="L157" s="26" t="inlineStr">
+        <is>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+        </is>
+      </c>
       <c r="M157" s="26" t="n"/>
       <c r="N157" s="26" t="n"/>
       <c r="O157" s="26" t="n"/>
       <c r="P157" s="26" t="n"/>
     </row>
     <row r="158" ht="16.5" customHeight="1" s="13">
-      <c r="A158" s="22" t="n"/>
-      <c r="B158" s="22" t="n"/>
-      <c r="C158" s="22" t="n"/>
+      <c r="A158" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B158" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C158" s="22" t="inlineStr">
+        <is>
+          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
+        </is>
+      </c>
       <c r="D158" s="22" t="n"/>
-      <c r="E158" s="22" t="n"/>
+      <c r="E158" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G158" s="22" t="n"/>
-      <c r="H158" s="16" t="n"/>
+      <c r="H158" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
-      <c r="L158" s="26" t="n"/>
+      <c r="L158" s="26" t="inlineStr">
+        <is>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+        </is>
+      </c>
       <c r="M158" s="26" t="n"/>
       <c r="N158" s="26" t="n"/>
       <c r="O158" s="26" t="n"/>
       <c r="P158" s="26" t="n"/>
     </row>
     <row r="159" ht="16.5" customHeight="1" s="13">
-      <c r="A159" s="22" t="n"/>
-      <c r="B159" s="22" t="n"/>
-      <c r="C159" s="22" t="n"/>
+      <c r="A159" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B159" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C159" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
+        </is>
+      </c>
       <c r="D159" s="22" t="n"/>
-      <c r="E159" s="22" t="n"/>
+      <c r="E159" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G159" s="22" t="n"/>
-      <c r="H159" s="16" t="n"/>
+      <c r="H159" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
-      <c r="L159" s="26" t="n"/>
+      <c r="L159" s="26" t="inlineStr">
+        <is>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
+        </is>
+      </c>
       <c r="M159" s="26" t="n"/>
       <c r="N159" s="26" t="n"/>
       <c r="O159" s="26" t="n"/>
       <c r="P159" s="26" t="n"/>
     </row>
     <row r="160" ht="16.5" customHeight="1" s="13">
-      <c r="A160" s="22" t="n"/>
-      <c r="B160" s="22" t="n"/>
-      <c r="C160" s="22" t="n"/>
+      <c r="A160" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B160" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C160" s="22" t="inlineStr">
+        <is>
+          <t>Use built-in policies where possible to minimize operational overhead.</t>
+        </is>
+      </c>
       <c r="D160" s="22" t="n"/>
-      <c r="E160" s="22" t="n"/>
+      <c r="E160" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G160" s="22" t="n"/>
-      <c r="H160" s="16" t="n"/>
+      <c r="H160" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J160" s="23" t="n"/>
       <c r="K160" s="24" t="n"/>
-      <c r="L160" s="26" t="n"/>
+      <c r="L160" s="26" t="inlineStr">
+        <is>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+        </is>
+      </c>
       <c r="M160" s="26" t="n"/>
       <c r="N160" s="26" t="n"/>
       <c r="O160" s="26" t="n"/>
       <c r="P160" s="26" t="n"/>
     </row>
     <row r="161" ht="16.5" customHeight="1" s="13">
-      <c r="A161" s="22" t="n"/>
-      <c r="B161" s="22" t="n"/>
-      <c r="C161" s="22" t="n"/>
+      <c r="A161" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B161" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C161" s="22" t="inlineStr">
+        <is>
+          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
+        </is>
+      </c>
       <c r="D161" s="22" t="n"/>
-      <c r="E161" s="22" t="n"/>
+      <c r="E161" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G161" s="22" t="n"/>
-      <c r="H161" s="16" t="n"/>
+      <c r="H161" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
-      <c r="L161" s="26" t="n"/>
+      <c r="L161" s="26" t="inlineStr">
+        <is>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+        </is>
+      </c>
       <c r="M161" s="26" t="n"/>
       <c r="N161" s="26" t="n"/>
       <c r="O161" s="26" t="n"/>
       <c r="P161" s="26" t="n"/>
     </row>
     <row r="162" ht="16.5" customHeight="1" s="13">
-      <c r="A162" s="22" t="n"/>
-      <c r="B162" s="22" t="n"/>
-      <c r="C162" s="22" t="n"/>
+      <c r="A162" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B162" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C162" s="22" t="inlineStr">
+        <is>
+          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
+        </is>
+      </c>
       <c r="D162" s="22" t="n"/>
-      <c r="E162" s="22" t="n"/>
+      <c r="E162" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G162" s="22" t="n"/>
-      <c r="H162" s="16" t="n"/>
+      <c r="H162" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
-      <c r="L162" s="26" t="n"/>
+      <c r="L162" s="26" t="inlineStr">
+        <is>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+        </is>
+      </c>
       <c r="M162" s="26" t="n"/>
       <c r="N162" s="26" t="n"/>
       <c r="O162" s="26" t="n"/>
       <c r="P162" s="26" t="n"/>
     </row>
     <row r="163" ht="16.5" customHeight="1" s="13">
-      <c r="A163" s="22" t="n"/>
-      <c r="B163" s="22" t="n"/>
-      <c r="C163" s="22" t="n"/>
+      <c r="A163" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B163" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C163" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+        </is>
+      </c>
       <c r="D163" s="22" t="n"/>
-      <c r="E163" s="22" t="n"/>
+      <c r="E163" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G163" s="22" t="n"/>
-      <c r="H163" s="16" t="n"/>
+      <c r="H163" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+        </is>
+      </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
-      <c r="L163" s="26" t="n"/>
+      <c r="L163" s="26" t="inlineStr">
+        <is>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+        </is>
+      </c>
       <c r="M163" s="26" t="n"/>
       <c r="N163" s="26" t="n"/>
       <c r="O163" s="26" t="n"/>
       <c r="P163" s="26" t="n"/>
     </row>
     <row r="164" ht="16.5" customHeight="1" s="13">
-      <c r="A164" s="22" t="n"/>
-      <c r="B164" s="22" t="n"/>
-      <c r="C164" s="22" t="n"/>
+      <c r="A164" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B164" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C164" s="22" t="inlineStr">
+        <is>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
+        </is>
+      </c>
       <c r="D164" s="22" t="n"/>
-      <c r="E164" s="22" t="n"/>
+      <c r="E164" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G164" s="22" t="n"/>
-      <c r="H164" s="16" t="n"/>
+      <c r="H164" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+        </is>
+      </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
-      <c r="L164" s="26" t="n"/>
+      <c r="L164" s="26" t="inlineStr">
+        <is>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+        </is>
+      </c>
       <c r="M164" s="26" t="n"/>
       <c r="N164" s="26" t="n"/>
       <c r="O164" s="26" t="n"/>
       <c r="P164" s="26" t="n"/>
     </row>
     <row r="165" ht="16.5" customHeight="1" s="13">
-      <c r="A165" s="22" t="n"/>
-      <c r="B165" s="22" t="n"/>
-      <c r="C165" s="22" t="n"/>
+      <c r="A165" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B165" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C165" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
+        </is>
+      </c>
       <c r="D165" s="22" t="n"/>
-      <c r="E165" s="22" t="n"/>
+      <c r="E165" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G165" s="22" t="n"/>
-      <c r="H165" s="16" t="n"/>
+      <c r="H165" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+        </is>
+      </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
-      <c r="L165" s="26" t="n"/>
+      <c r="L165" s="26" t="inlineStr">
+        <is>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+        </is>
+      </c>
       <c r="M165" s="26" t="n"/>
       <c r="N165" s="26" t="n"/>
       <c r="O165" s="26" t="n"/>
       <c r="P165" s="26" t="n"/>
     </row>
     <row r="166" ht="16.5" customHeight="1" s="13">
-      <c r="A166" s="22" t="n"/>
-      <c r="B166" s="22" t="n"/>
-      <c r="C166" s="22" t="n"/>
+      <c r="A166" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B166" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C166" s="22" t="inlineStr">
+        <is>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
+        </is>
+      </c>
       <c r="D166" s="22" t="n"/>
-      <c r="E166" s="22" t="n"/>
+      <c r="E166" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G166" s="22" t="n"/>
-      <c r="H166" s="16" t="n"/>
+      <c r="H166" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+        </is>
+      </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
-      <c r="L166" s="26" t="n"/>
+      <c r="L166" s="26" t="inlineStr">
+        <is>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+        </is>
+      </c>
       <c r="M166" s="26" t="n"/>
       <c r="N166" s="26" t="n"/>
       <c r="O166" s="26" t="n"/>
       <c r="P166" s="26" t="n"/>
     </row>
     <row r="167" ht="16.5" customHeight="1" s="13">
-      <c r="A167" s="22" t="n"/>
-      <c r="B167" s="22" t="n"/>
-      <c r="C167" s="22" t="n"/>
+      <c r="A167" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B167" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C167" s="22" t="inlineStr">
+        <is>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+        </is>
+      </c>
       <c r="D167" s="22" t="n"/>
-      <c r="E167" s="22" t="n"/>
+      <c r="E167" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G167" s="22" t="n"/>
-      <c r="H167" s="16" t="n"/>
+      <c r="H167" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
+        </is>
+      </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
-      <c r="L167" s="26" t="n"/>
+      <c r="L167" s="26" t="inlineStr">
+        <is>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+        </is>
+      </c>
       <c r="M167" s="26" t="n"/>
       <c r="N167" s="26" t="n"/>
       <c r="O167" s="26" t="n"/>
       <c r="P167" s="26" t="n"/>
     </row>
     <row r="168" ht="16.5" customHeight="1" s="13">
-      <c r="A168" s="22" t="n"/>
-      <c r="B168" s="22" t="n"/>
-      <c r="C168" s="22" t="n"/>
+      <c r="A168" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B168" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C168" s="22" t="inlineStr">
+        <is>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+        </is>
+      </c>
       <c r="D168" s="22" t="n"/>
-      <c r="E168" s="22" t="n"/>
+      <c r="E168" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G168" s="22" t="n"/>
-      <c r="H168" s="16" t="n"/>
+      <c r="H168" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
+        </is>
+      </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
-      <c r="L168" s="26" t="n"/>
+      <c r="L168" s="26" t="inlineStr">
+        <is>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+        </is>
+      </c>
       <c r="M168" s="26" t="n"/>
       <c r="N168" s="26" t="n"/>
       <c r="O168" s="26" t="n"/>
       <c r="P168" s="26" t="n"/>
     </row>
     <row r="169" ht="16.5" customHeight="1" s="13">
-      <c r="A169" s="22" t="n"/>
-      <c r="B169" s="22" t="n"/>
-      <c r="C169" s="22" t="n"/>
+      <c r="A169" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B169" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C169" s="22" t="inlineStr">
+        <is>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+        </is>
+      </c>
       <c r="D169" s="22" t="n"/>
-      <c r="E169" s="22" t="n"/>
+      <c r="E169" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G169" s="22" t="n"/>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
-      <c r="L169" s="26" t="n"/>
+      <c r="L169" s="26" t="inlineStr">
+        <is>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+        </is>
+      </c>
       <c r="M169" s="26" t="n"/>
       <c r="N169" s="26" t="n"/>
       <c r="O169" s="26" t="n"/>
       <c r="P169" s="26" t="n"/>
     </row>
     <row r="170" ht="16.5" customHeight="1" s="13">
-      <c r="A170" s="22" t="n"/>
-      <c r="B170" s="22" t="n"/>
-      <c r="C170" s="22" t="n"/>
+      <c r="A170" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B170" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C170" s="22" t="inlineStr">
+        <is>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+        </is>
+      </c>
       <c r="D170" s="22" t="n"/>
-      <c r="E170" s="22" t="n"/>
+      <c r="E170" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G170" s="22" t="n"/>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J170" s="23" t="n"/>
       <c r="K170" s="23" t="n"/>
-      <c r="L170" s="26" t="n"/>
+      <c r="L170" s="26" t="inlineStr">
+        <is>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+        </is>
+      </c>
       <c r="M170" s="26" t="n"/>
       <c r="N170" s="26" t="n"/>
       <c r="O170" s="26" t="n"/>
       <c r="P170" s="26" t="n"/>
     </row>
     <row r="171" ht="16.5" customHeight="1" s="13">
-      <c r="A171" s="22" t="n"/>
-      <c r="B171" s="22" t="n"/>
-      <c r="C171" s="22" t="n"/>
+      <c r="A171" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B171" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C171" s="22" t="inlineStr">
+        <is>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+        </is>
+      </c>
       <c r="D171" s="22" t="n"/>
-      <c r="E171" s="22" t="n"/>
+      <c r="E171" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G171" s="22" t="n"/>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
+        </is>
+      </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
-      <c r="L171" s="26" t="n"/>
+      <c r="L171" s="26" t="inlineStr">
+        <is>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+        </is>
+      </c>
       <c r="M171" s="26" t="n"/>
       <c r="N171" s="26" t="n"/>
       <c r="O171" s="26" t="n"/>
       <c r="P171" s="26" t="n"/>
     </row>
     <row r="172" ht="16.5" customHeight="1" s="13">
-      <c r="A172" s="22" t="n"/>
-      <c r="B172" s="22" t="n"/>
-      <c r="C172" s="22" t="n"/>
+      <c r="A172" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B172" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C172" s="22" t="inlineStr">
+        <is>
+          <t>Plan how new azure services will be implemented</t>
+        </is>
+      </c>
       <c r="D172" s="22" t="n"/>
-      <c r="E172" s="22" t="n"/>
+      <c r="E172" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G172" s="22" t="n"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
-      <c r="L172" s="26" t="n"/>
+      <c r="L172" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M172" s="26" t="n"/>
       <c r="N172" s="26" t="n"/>
       <c r="O172" s="26" t="n"/>
       <c r="P172" s="26" t="n"/>
     </row>
     <row r="173" ht="16.5" customHeight="1" s="13">
-      <c r="A173" s="22" t="n"/>
-      <c r="B173" s="22" t="n"/>
-      <c r="C173" s="22" t="n"/>
+      <c r="A173" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B173" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C173" s="22" t="inlineStr">
+        <is>
+          <t>Plan how service request will be fulfilled for Azure services</t>
+        </is>
+      </c>
       <c r="D173" s="22" t="n"/>
-      <c r="E173" s="22" t="n"/>
+      <c r="E173" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G173" s="22" t="n"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
-      <c r="L173" s="26" t="n"/>
+      <c r="L173" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M173" s="26" t="n"/>
       <c r="N173" s="26" t="n"/>
       <c r="O173" s="26" t="n"/>
       <c r="P173" s="26" t="n"/>
     </row>
     <row r="174" ht="16.5" customHeight="1" s="13">
-      <c r="A174" s="22" t="n"/>
-      <c r="B174" s="22" t="n"/>
-      <c r="C174" s="22" t="n"/>
+      <c r="A174" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B174" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C174" s="22" t="inlineStr">
+        <is>
+          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
+        </is>
+      </c>
       <c r="D174" s="22" t="n"/>
-      <c r="E174" s="22" t="n"/>
+      <c r="E174" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G174" s="22" t="n"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
-      <c r="L174" s="26" t="n"/>
+      <c r="L174" s="26" t="inlineStr">
+        <is>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+        </is>
+      </c>
       <c r="M174" s="26" t="n"/>
       <c r="N174" s="26" t="n"/>
       <c r="O174" s="26" t="n"/>
       <c r="P174" s="26" t="n"/>
     </row>
     <row r="175" ht="16.5" customHeight="1" s="13">
-      <c r="A175" s="22" t="n"/>
-      <c r="B175" s="22" t="n"/>
-      <c r="C175" s="22" t="n"/>
+      <c r="A175" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B175" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C175" s="22" t="inlineStr">
+        <is>
+          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+        </is>
+      </c>
       <c r="D175" s="22" t="n"/>
-      <c r="E175" s="22" t="n"/>
+      <c r="E175" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G175" s="22" t="n"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+        </is>
+      </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
-      <c r="L175" s="26" t="n"/>
+      <c r="L175" s="26" t="inlineStr">
+        <is>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+        </is>
+      </c>
       <c r="M175" s="26" t="n"/>
       <c r="N175" s="26" t="n"/>
       <c r="O175" s="26" t="n"/>
       <c r="P175" s="26" t="n"/>
     </row>
     <row r="176" ht="16.5" customHeight="1" s="13">
-      <c r="A176" s="22" t="n"/>
-      <c r="B176" s="22" t="n"/>
-      <c r="C176" s="22" t="n"/>
+      <c r="A176" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B176" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C176" s="22" t="inlineStr">
+        <is>
+          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+        </is>
+      </c>
       <c r="D176" s="22" t="n"/>
-      <c r="E176" s="22" t="n"/>
+      <c r="E176" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G176" s="22" t="n"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+        </is>
+      </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
-      <c r="L176" s="26" t="n"/>
+      <c r="L176" s="26" t="inlineStr">
+        <is>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+        </is>
+      </c>
       <c r="M176" s="26" t="n"/>
       <c r="N176" s="26" t="n"/>
       <c r="O176" s="26" t="n"/>
       <c r="P176" s="26" t="n"/>
     </row>
     <row r="177" ht="16.5" customHeight="1" s="13">
-      <c r="A177" s="22" t="n"/>
-      <c r="B177" s="22" t="n"/>
-      <c r="C177" s="22" t="n"/>
+      <c r="A177" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B177" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C177" s="22" t="inlineStr">
+        <is>
+          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+        </is>
+      </c>
       <c r="D177" s="22" t="n"/>
-      <c r="E177" s="22" t="n"/>
+      <c r="E177" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G177" s="22" t="n"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+        </is>
+      </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
-      <c r="L177" s="26" t="n"/>
+      <c r="L177" s="26" t="inlineStr">
+        <is>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+        </is>
+      </c>
       <c r="M177" s="26" t="n"/>
       <c r="N177" s="26" t="n"/>
       <c r="O177" s="26" t="n"/>
       <c r="P177" s="26" t="n"/>
     </row>
     <row r="178" ht="16.5" customHeight="1" s="13">
-      <c r="A178" s="22" t="n"/>
-      <c r="B178" s="22" t="n"/>
-      <c r="C178" s="22" t="n"/>
+      <c r="A178" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B178" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C178" s="22" t="inlineStr">
+        <is>
+          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
+        </is>
+      </c>
       <c r="D178" s="22" t="n"/>
-      <c r="E178" s="22" t="n"/>
+      <c r="E178" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G178" s="22" t="n"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+        </is>
+      </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
-      <c r="L178" s="26" t="n"/>
+      <c r="L178" s="26" t="inlineStr">
+        <is>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+        </is>
+      </c>
       <c r="M178" s="26" t="n"/>
       <c r="N178" s="26" t="n"/>
       <c r="O178" s="26" t="n"/>
       <c r="P178" s="26" t="n"/>
     </row>
     <row r="179" ht="16.5" customHeight="1" s="13">
-      <c r="A179" s="22" t="n"/>
-      <c r="B179" s="22" t="n"/>
-      <c r="C179" s="22" t="n"/>
+      <c r="A179" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B179" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C179" s="22" t="inlineStr">
+        <is>
+          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
+        </is>
+      </c>
       <c r="D179" s="22" t="n"/>
-      <c r="E179" s="22" t="n"/>
+      <c r="E179" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G179" s="22" t="n"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
-      <c r="L179" s="26" t="n"/>
+      <c r="L179" s="26" t="inlineStr">
+        <is>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+        </is>
+      </c>
       <c r="M179" s="26" t="n"/>
       <c r="N179" s="26" t="n"/>
       <c r="O179" s="26" t="n"/>
       <c r="P179" s="26" t="n"/>
     </row>
     <row r="180" ht="16.5" customHeight="1" s="13">
-      <c r="A180" s="22" t="n"/>
-      <c r="B180" s="22" t="n"/>
-      <c r="C180" s="22" t="n"/>
+      <c r="A180" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B180" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C180" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+        </is>
+      </c>
       <c r="D180" s="22" t="n"/>
-      <c r="E180" s="22" t="n"/>
+      <c r="E180" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G180" s="22" t="n"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+        </is>
+      </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
-      <c r="L180" s="26" t="n"/>
+      <c r="L180" s="26" t="inlineStr">
+        <is>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+        </is>
+      </c>
       <c r="M180" s="26" t="n"/>
       <c r="N180" s="26" t="n"/>
       <c r="O180" s="26" t="n"/>
       <c r="P180" s="26" t="n"/>
     </row>
     <row r="181" ht="16.5" customHeight="1" s="13">
-      <c r="A181" s="22" t="n"/>
-      <c r="B181" s="22" t="n"/>
-      <c r="C181" s="22" t="n"/>
+      <c r="A181" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B181" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C181" s="22" t="inlineStr">
+        <is>
+          <t>Disable health probes when there’s only one origin in an Azure Front Door origin group.</t>
+        </is>
+      </c>
       <c r="D181" s="22" t="n"/>
-      <c r="E181" s="22" t="n"/>
+      <c r="E181" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G181" s="22" t="n"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+        </is>
+      </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
-      <c r="L181" s="26" t="n"/>
+      <c r="L181" s="26" t="inlineStr">
+        <is>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+        </is>
+      </c>
       <c r="M181" s="26" t="n"/>
       <c r="N181" s="26" t="n"/>
       <c r="O181" s="26" t="n"/>
       <c r="P181" s="26" t="n"/>
     </row>
     <row r="182" ht="16.5" customHeight="1" s="13">
-      <c r="A182" s="22" t="n"/>
-      <c r="B182" s="22" t="n"/>
-      <c r="C182" s="22" t="n"/>
+      <c r="A182" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B182" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C182" s="22" t="inlineStr">
+        <is>
+          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
+        </is>
+      </c>
       <c r="D182" s="22" t="n"/>
-      <c r="E182" s="22" t="n"/>
+      <c r="E182" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G182" s="22" t="n"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
-      <c r="L182" s="26" t="n"/>
+      <c r="L182" s="26" t="inlineStr">
+        <is>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+        </is>
+      </c>
       <c r="M182" s="26" t="n"/>
       <c r="N182" s="26" t="n"/>
       <c r="O182" s="26" t="n"/>
       <c r="P182" s="26" t="n"/>
     </row>
     <row r="183" ht="16.5" customHeight="1" s="13">
-      <c r="A183" s="22" t="n"/>
-      <c r="B183" s="22" t="n"/>
-      <c r="C183" s="22" t="n"/>
+      <c r="A183" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B183" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C183" s="22" t="inlineStr">
+        <is>
+          <t>Use HEAD health probes with Azure Front Door. Reduce the traffic that Front Door sends to your application.</t>
+        </is>
+      </c>
       <c r="D183" s="22" t="n"/>
-      <c r="E183" s="22" t="n"/>
+      <c r="E183" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G183" s="22" t="n"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
-      <c r="L183" s="26" t="n"/>
+      <c r="L183" s="26" t="inlineStr">
+        <is>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+        </is>
+      </c>
       <c r="M183" s="26" t="n"/>
       <c r="N183" s="26" t="n"/>
       <c r="O183" s="26" t="n"/>
       <c r="P183" s="26" t="n"/>
     </row>
     <row r="184" ht="16.5" customHeight="1" s="13">
-      <c r="A184" s="22" t="n"/>
-      <c r="B184" s="22" t="n"/>
-      <c r="C184" s="22" t="n"/>
+      <c r="A184" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B184" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C184" s="22" t="inlineStr">
+        <is>
+          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+        </is>
+      </c>
       <c r="D184" s="22" t="n"/>
-      <c r="E184" s="22" t="n"/>
+      <c r="E184" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G184" s="22" t="n"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+        </is>
+      </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
-      <c r="L184" s="26" t="n"/>
+      <c r="L184" s="26" t="inlineStr">
+        <is>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+        </is>
+      </c>
       <c r="M184" s="26" t="n"/>
       <c r="N184" s="26" t="n"/>
       <c r="O184" s="26" t="n"/>
       <c r="P184" s="26" t="n"/>
     </row>
     <row r="185" ht="16.5" customHeight="1" s="13">
-      <c r="A185" s="22" t="n"/>
-      <c r="B185" s="22" t="n"/>
-      <c r="C185" s="22" t="n"/>
+      <c r="A185" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B185" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C185" s="22" t="inlineStr">
+        <is>
+          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+        </is>
+      </c>
       <c r="D185" s="22" t="n"/>
-      <c r="E185" s="22" t="n"/>
+      <c r="E185" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G185" s="22" t="n"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+        </is>
+      </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
-      <c r="L185" s="26" t="n"/>
+      <c r="L185" s="26" t="inlineStr">
+        <is>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+        </is>
+      </c>
       <c r="M185" s="26" t="n"/>
       <c r="N185" s="26" t="n"/>
       <c r="O185" s="26" t="n"/>
       <c r="P185" s="26" t="n"/>
     </row>
     <row r="186" ht="16.5" customHeight="1" s="13">
-      <c r="A186" s="22" t="n"/>
-      <c r="B186" s="22" t="n"/>
-      <c r="C186" s="22" t="n"/>
+      <c r="A186" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B186" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C186" s="22" t="inlineStr">
+        <is>
+          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+        </is>
+      </c>
       <c r="D186" s="22" t="n"/>
-      <c r="E186" s="22" t="n"/>
+      <c r="E186" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G186" s="22" t="n"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+        </is>
+      </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
-      <c r="L186" s="26" t="n"/>
+      <c r="L186" s="26" t="inlineStr">
+        <is>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+        </is>
+      </c>
       <c r="M186" s="26" t="n"/>
       <c r="N186" s="26" t="n"/>
       <c r="O186" s="26" t="n"/>
       <c r="P186" s="26" t="n"/>
     </row>
     <row r="187" ht="16.5" customHeight="1" s="13">
-      <c r="A187" s="22" t="n"/>
-      <c r="B187" s="22" t="n"/>
-      <c r="C187" s="22" t="n"/>
+      <c r="A187" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B187" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C187" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+        </is>
+      </c>
       <c r="D187" s="22" t="n"/>
-      <c r="E187" s="22" t="n"/>
+      <c r="E187" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G187" s="22" t="n"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+        </is>
+      </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
-      <c r="L187" s="26" t="n"/>
+      <c r="L187" s="26" t="inlineStr">
+        <is>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+        </is>
+      </c>
       <c r="M187" s="26" t="n"/>
       <c r="N187" s="26" t="n"/>
       <c r="O187" s="26" t="n"/>
       <c r="P187" s="26" t="n"/>
     </row>
     <row r="188" ht="16.5" customHeight="1" s="13">
-      <c r="A188" s="22" t="n"/>
-      <c r="B188" s="22" t="n"/>
-      <c r="C188" s="22" t="n"/>
+      <c r="A188" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B188" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C188" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+        </is>
+      </c>
       <c r="D188" s="22" t="n"/>
-      <c r="E188" s="22" t="n"/>
+      <c r="E188" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G188" s="22" t="n"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+        </is>
+      </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
-      <c r="L188" s="26" t="n"/>
+      <c r="L188" s="26" t="inlineStr">
+        <is>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+        </is>
+      </c>
       <c r="M188" s="26" t="n"/>
       <c r="N188" s="26" t="n"/>
       <c r="O188" s="26" t="n"/>
       <c r="P188" s="26" t="n"/>
     </row>
     <row r="189" ht="16.5" customHeight="1" s="13">
-      <c r="A189" s="22" t="n"/>
-      <c r="B189" s="22" t="n"/>
-      <c r="C189" s="22" t="n"/>
+      <c r="A189" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B189" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C189" s="22" t="inlineStr">
+        <is>
+          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+        </is>
+      </c>
       <c r="D189" s="22" t="n"/>
-      <c r="E189" s="22" t="n"/>
+      <c r="E189" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G189" s="22" t="n"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+        </is>
+      </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
-      <c r="L189" s="26" t="n"/>
+      <c r="L189" s="26" t="inlineStr">
+        <is>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+        </is>
+      </c>
       <c r="M189" s="26" t="n"/>
       <c r="N189" s="26" t="n"/>
       <c r="O189" s="26" t="n"/>
       <c r="P189" s="26" t="n"/>
     </row>
     <row r="190" ht="16.5" customHeight="1" s="13">
-      <c r="A190" s="22" t="n"/>
-      <c r="B190" s="22" t="n"/>
-      <c r="C190" s="22" t="n"/>
+      <c r="A190" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B190" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C190" s="22" t="inlineStr">
+        <is>
+          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+        </is>
+      </c>
       <c r="D190" s="22" t="n"/>
-      <c r="E190" s="22" t="n"/>
+      <c r="E190" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G190" s="22" t="n"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+        </is>
+      </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
-      <c r="L190" s="26" t="n"/>
+      <c r="L190" s="26" t="inlineStr">
+        <is>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+        </is>
+      </c>
       <c r="M190" s="26" t="n"/>
       <c r="N190" s="26" t="n"/>
       <c r="O190" s="26" t="n"/>
       <c r="P190" s="26" t="n"/>
     </row>
     <row r="191" ht="16.5" customHeight="1" s="13">
-      <c r="A191" s="22" t="n"/>
-      <c r="B191" s="22" t="n"/>
-      <c r="C191" s="22" t="n"/>
+      <c r="A191" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B191" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C191" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+        </is>
+      </c>
       <c r="D191" s="22" t="n"/>
-      <c r="E191" s="22" t="n"/>
+      <c r="E191" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G191" s="22" t="n"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+        </is>
+      </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
-      <c r="L191" s="26" t="n"/>
+      <c r="L191" s="26" t="inlineStr">
+        <is>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+        </is>
+      </c>
       <c r="M191" s="26" t="n"/>
       <c r="N191" s="26" t="n"/>
       <c r="O191" s="26" t="n"/>
       <c r="P191" s="26" t="n"/>
     </row>
     <row r="192" ht="16.5" customHeight="1" s="13">
-      <c r="A192" s="22" t="n"/>
-      <c r="B192" s="22" t="n"/>
-      <c r="C192" s="22" t="n"/>
+      <c r="A192" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B192" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C192" s="22" t="inlineStr">
+        <is>
+          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+        </is>
+      </c>
       <c r="D192" s="22" t="n"/>
-      <c r="E192" s="22" t="n"/>
+      <c r="E192" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G192" s="22" t="n"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+        </is>
+      </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
-      <c r="L192" s="26" t="n"/>
+      <c r="L192" s="26" t="inlineStr">
+        <is>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+        </is>
+      </c>
       <c r="M192" s="26" t="n"/>
       <c r="N192" s="26" t="n"/>
       <c r="O192" s="26" t="n"/>
       <c r="P192" s="26" t="n"/>
     </row>
     <row r="193" ht="16.5" customHeight="1" s="13">
-      <c r="A193" s="22" t="n"/>
-      <c r="B193" s="22" t="n"/>
-      <c r="C193" s="22" t="n"/>
+      <c r="A193" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B193" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C193" s="22" t="inlineStr">
+        <is>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+        </is>
+      </c>
       <c r="D193" s="22" t="n"/>
-      <c r="E193" s="22" t="n"/>
+      <c r="E193" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G193" s="22" t="n"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+        </is>
+      </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
-      <c r="L193" s="26" t="n"/>
+      <c r="L193" s="26" t="inlineStr">
+        <is>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+        </is>
+      </c>
       <c r="M193" s="26" t="n"/>
       <c r="N193" s="26" t="n"/>
       <c r="O193" s="26" t="n"/>
       <c r="P193" s="26" t="n"/>
     </row>
     <row r="194" ht="16.5" customHeight="1" s="13">
-      <c r="A194" s="22" t="n"/>
-      <c r="B194" s="22" t="n"/>
-      <c r="C194" s="22" t="n"/>
+      <c r="A194" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B194" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C194" s="22" t="inlineStr">
+        <is>
+          <t>Add diagnostic settings to save your Azure Front Door WAF's logs. Regularly review the logs to check for attacks and for false positive detections.</t>
+        </is>
+      </c>
       <c r="D194" s="22" t="n"/>
-      <c r="E194" s="22" t="n"/>
+      <c r="E194" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G194" s="22" t="n"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
-      <c r="L194" s="26" t="n"/>
+      <c r="L194" s="26" t="inlineStr">
+        <is>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+        </is>
+      </c>
       <c r="M194" s="26" t="n"/>
       <c r="N194" s="26" t="n"/>
       <c r="O194" s="26" t="n"/>
       <c r="P194" s="26" t="n"/>
     </row>
     <row r="195" ht="16.5" customHeight="1" s="13">
-      <c r="A195" s="22" t="n"/>
-      <c r="B195" s="22" t="n"/>
-      <c r="C195" s="22" t="n"/>
+      <c r="A195" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B195" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C195" s="22" t="inlineStr">
+        <is>
+          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
+        </is>
+      </c>
       <c r="D195" s="22" t="n"/>
-      <c r="E195" s="22" t="n"/>
+      <c r="E195" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G195" s="22" t="n"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
-      <c r="L195" s="26" t="n"/>
+      <c r="L195" s="26" t="inlineStr">
+        <is>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+        </is>
+      </c>
       <c r="M195" s="26" t="n"/>
       <c r="N195" s="26" t="n"/>
       <c r="O195" s="26" t="n"/>
@@ -8166,7 +11510,31 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations count="9">
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
     <dataValidation sqref="F8:F87" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>

--- a/spreadsheet/aks_checklist.pt.xlsx
+++ b/spreadsheet/aks_checklist.pt.xlsx
@@ -977,7 +977,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="14" t="inlineStr">
         <is>
-          <t>Análise Azure AKS</t>
+          <t>Revisão do Azure AKS</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>Definir requisitos não funcionais como SLAs, RTO (Recovery Time Objective) e RPO (Recovery Point Objective).</t>
+          <t>Definir requisitos não funcionais, como SLAs, RTO (Recovery Time Objective) e RPO (Recovery Point Objective).</t>
         </is>
       </c>
       <c r="D8" s="22" t="n"/>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>Use o Azure Traffic Manager ou o Azure Front Door como um balanceador de carga global para failover da região</t>
+          <t>Usar o Gerenciador de Tráfego do Azure ou o Azure Front Door como um balanceador de carga global para failover de região</t>
         </is>
       </c>
       <c r="D10" s="22" t="n"/>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Use zonas de disponibilidade se suportado em sua região do Azure</t>
+          <t>Usar Zonas de Disponibilidade se houver suporte em sua região do Azure</t>
         </is>
       </c>
       <c r="D11" s="22" t="n"/>
@@ -1289,7 +1289,7 @@
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>Use a oferta AKS apoiada pelo SLA</t>
+          <t>Use a oferta AKS apoiada por SLA</t>
         </is>
       </c>
       <c r="D12" s="22" t="n"/>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>Use orçamentos de interrupção em suas definições de pod e implantação</t>
+          <t>Usar orçamentos de interrupção em seu pod e definições de implantação</t>
         </is>
       </c>
       <c r="D13" s="22" t="n"/>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>Se estiver usando um registro privado, configure a replicação da região para armazenar imagens em várias regiões</t>
+          <t>Se estiver usando um registro privado, configure a replicação de região para armazenar imagens em várias regiões</t>
         </is>
       </c>
       <c r="D14" s="22" t="n"/>
@@ -1417,7 +1417,7 @@
     <row r="15" ht="16.5" customHeight="1" s="13">
       <c r="A15" s="22" t="inlineStr">
         <is>
-          <t>Gestão de Identidade e Acesso</t>
+          <t>Gerenciamento de Identidade e Acesso</t>
         </is>
       </c>
       <c r="B15" s="22" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>Use identidades gerenciadas em vez de diretores de serviço</t>
+          <t>Usar identidades gerenciadas em vez de Entidades de Serviço</t>
         </is>
       </c>
       <c r="D15" s="22" t="n"/>
@@ -1463,7 +1463,7 @@
     <row r="16" ht="16.5" customHeight="1" s="13">
       <c r="A16" s="22" t="inlineStr">
         <is>
-          <t>Gestão de Identidade e Acesso</t>
+          <t>Gerenciamento de Identidade e Acesso</t>
         </is>
       </c>
       <c r="B16" s="22" t="inlineStr">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>Integrar autenticação com AAD (usando a integração gerenciada)</t>
+          <t>Integrar a autenticação com o AAD (usando a integração gerenciada)</t>
         </is>
       </c>
       <c r="D16" s="22" t="n"/>
@@ -1509,7 +1509,7 @@
     <row r="17" ht="16.5" customHeight="1" s="13">
       <c r="A17" s="22" t="inlineStr">
         <is>
-          <t>Gestão de Identidade e Acesso</t>
+          <t>Gerenciamento de Identidade e Acesso</t>
         </is>
       </c>
       <c r="B17" s="22" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>Limitar o acesso ao administrador kubeconfig (obter credenciais --administração)</t>
+          <t>Limitar o acesso ao admin kubeconfig (get-credentials --admin)</t>
         </is>
       </c>
       <c r="D17" s="22" t="n"/>
@@ -1555,7 +1555,7 @@
     <row r="18" ht="16.5" customHeight="1" s="13">
       <c r="A18" s="22" t="inlineStr">
         <is>
-          <t>Gestão de Identidade e Acesso</t>
+          <t>Gerenciamento de Identidade e Acesso</t>
         </is>
       </c>
       <c r="B18" s="22" t="inlineStr">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>Integrar autorização com a AAD RBAC</t>
+          <t>Integrar autorização com o AAD RBAC</t>
         </is>
       </c>
       <c r="D18" s="22" t="n"/>
@@ -1601,7 +1601,7 @@
     <row r="19" ht="16.5" customHeight="1" s="13">
       <c r="A19" s="22" t="inlineStr">
         <is>
-          <t>Gestão de Identidade e Acesso</t>
+          <t>Gerenciamento de Identidade e Acesso</t>
         </is>
       </c>
       <c r="B19" s="22" t="inlineStr">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>Use namespaces para restringir o privilégio do RBAC em Kubernetes</t>
+          <t>Usar namespaces para restringir o privilégio RBAC no Kubernetes</t>
         </is>
       </c>
       <c r="D19" s="22" t="n"/>
@@ -1647,7 +1647,7 @@
     <row r="20" ht="16.5" customHeight="1" s="13">
       <c r="A20" s="22" t="inlineStr">
         <is>
-          <t>Gestão de Identidade e Acesso</t>
+          <t>Gerenciamento de Identidade e Acesso</t>
         </is>
       </c>
       <c r="B20" s="22" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>Use a identidade do Pod para identidades de carga de trabalho (addon v2 na pré-visualização hoje)</t>
+          <t>Para o Gerenciamento de Acesso de Identidade POD, use a Identidade da Carga de Trabalho do Azure AD (visualização)</t>
         </is>
       </c>
       <c r="D20" s="22" t="n"/>
@@ -1674,7 +1674,7 @@
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-identity</t>
+          <t>https://learn.microsoft.com/azure/aks/workload-identity-migration-sidecar</t>
         </is>
       </c>
       <c r="I20" s="16" t="n"/>
@@ -1693,23 +1693,23 @@
     <row r="21" ht="16.5" customHeight="1" s="13">
       <c r="A21" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Gerenciamento de Identidade e Acesso</t>
         </is>
       </c>
       <c r="B21" s="22" t="inlineStr">
         <is>
-          <t>IPAM</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>Escolha o melhor plugin de rede CNI para suas necessidades (Azure CNI recomendado)</t>
+          <t>Para logins não interativos do AKS, use kubelogin (visualização)</t>
         </is>
       </c>
       <c r="D21" s="22" t="n"/>
       <c r="E21" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1720,7 +1720,7 @@
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#non-interactive-sign-in-with-kubelogin</t>
         </is>
       </c>
       <c r="I21" s="16" t="n"/>
@@ -1728,7 +1728,7 @@
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>a0f61565-9de5-458f-a372-49c831112dbd</t>
+          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1739,23 +1739,23 @@
     <row r="22" ht="16.5" customHeight="1" s="13">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Gerenciamento de Identidade e Acesso</t>
         </is>
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>IPAM</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Se usar o Azure CNI, dimensione sua sub-rede de acordo considerando o número máximo de pods por nó</t>
+          <t>Desativar contas locais do AKS</t>
         </is>
       </c>
       <c r="D22" s="22" t="n"/>
       <c r="E22" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1766,7 +1766,7 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#disable-local-accounts</t>
         </is>
       </c>
       <c r="I22" s="16" t="n"/>
@@ -1774,7 +1774,7 @@
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>7faf12e7-0943-4f63-8472-2da29c2b1cd6</t>
+          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1785,23 +1785,23 @@
     <row r="23" ht="16.5" customHeight="1" s="13">
       <c r="A23" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Gerenciamento de Identidade e Acesso</t>
         </is>
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>IPAM</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>Se estiver usando o Azure CNI, verifique o número máximo de vagens/nó (padrão 30)</t>
+          <t>Configurar, se necessário, acesso ao cluster Just-in-time</t>
         </is>
       </c>
       <c r="D23" s="22" t="n"/>
       <c r="E23" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1812,7 +1812,7 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#configure-just-in-time-cluster-access-with-azure-ad-and-aks</t>
         </is>
       </c>
       <c r="I23" s="16" t="n"/>
@@ -1820,7 +1820,7 @@
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>22f54b29-bade-43aa-b1e8-c38ec9366673</t>
+          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1831,24 +1831,20 @@
     <row r="24" ht="16.5" customHeight="1" s="13">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Gerenciamento de Identidade e Acesso</t>
         </is>
       </c>
       <c r="B24" s="22" t="inlineStr">
         <is>
-          <t>IPAM</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>Se estiver usando serviços de LoadBalancer IP privado, use uma sub-rede dedicada (não a sub-rede AKS)</t>
-        </is>
-      </c>
-      <c r="D24" s="22" t="inlineStr">
-        <is>
-          <t>Para aplicativos internos, as organizações geralmente abrem toda a sub-rede AKS em seus firewalls. Isso abre o acesso da rede aos nódulos também, e potencialmente para os pods também (se usar o Azure CNI). Se os IPs loadbalancer estiverem em uma sub-rede diferente, apenas este precisa estar disponível para os clientes do aplicativo. Outra razão é que, se os endereços IP na sub-rede AKS forem um recurso escasso, consumir seus endereços IP para serviços reduzirá a escalabilidade máxima do cluster .</t>
-        </is>
-      </c>
+          <t>Configurar, se necessário, o acesso condicional do AAD para AKS</t>
+        </is>
+      </c>
+      <c r="D24" s="22" t="n"/>
       <c r="E24" s="22" t="inlineStr">
         <is>
           <t>Baixo</t>
@@ -1862,7 +1858,7 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/internal-lb</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#use-conditional-access-with-azure-ad-and-aks</t>
         </is>
       </c>
       <c r="I24" s="16" t="n"/>
@@ -1870,7 +1866,7 @@
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>13c00567-4b1e-4945-a459-c373e7ed6162</t>
+          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1881,23 +1877,23 @@
     <row r="25" ht="16.5" customHeight="1" s="13">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Gerenciamento de Identidade e Acesso</t>
         </is>
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>IPAM</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>Dimensione a faixa de endereço IP de serviço de acordo (ela vai limitar a escalabilidade do cluster)</t>
+          <t xml:space="preserve">Se necessário para cargas de trabalho do Windows AKS, configure o gMSA </t>
         </is>
       </c>
       <c r="D25" s="22" t="n"/>
       <c r="E25" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1908,7 +1904,7 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
+          <t>https://learn.microsoft.com/azure/aks/use-group-managed-service-accounts</t>
         </is>
       </c>
       <c r="I25" s="16" t="n"/>
@@ -1916,7 +1912,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
+          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -1927,23 +1923,23 @@
     <row r="26" ht="16.5" customHeight="1" s="13">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Gerenciamento de Identidade e Acesso</t>
         </is>
       </c>
       <c r="B26" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>Filtrar o tráfego de saída com a AzFW/NVA se seus requisitos de segurança o obrigam</t>
+          <t>Para um controle mais preciso, considere o uso de uma identidade Kubelet gerenciada</t>
         </is>
       </c>
       <c r="D26" s="22" t="n"/>
       <c r="E26" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1954,7 +1950,7 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/limit-egress-traffic</t>
+          <t>https://learn.microsoft.com/azure/aks/use-managed-identity#use-a-pre-created-kubelet-managed-identity</t>
         </is>
       </c>
       <c r="I26" s="16" t="n"/>
@@ -1962,7 +1958,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>3b365a91-7ecb-4e48-bbe5-4cd7df2e8bba</t>
+          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -1973,23 +1969,23 @@
     <row r="27" ht="16.5" customHeight="1" s="13">
       <c r="A27" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B27" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>IPAM</t>
         </is>
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>Se usar um ponto final de API público, restrinja os endereços IP que podem acessá-lo</t>
+          <t>Escolha o melhor plug-in de rede CNI para suas necessidades (CNI do Azure recomendado)</t>
         </is>
       </c>
       <c r="D27" s="22" t="n"/>
       <c r="E27" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2000,14 +1996,14 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/api-server-authorized-ip-ranges</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>c4581559-bb91-463e-a908-aed8c44ce3b2</t>
+          <t>a0f61565-9de5-458f-a372-49c831112dbd</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2018,23 +2014,23 @@
     <row r="28" ht="16.5" customHeight="1" s="13">
       <c r="A28" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B28" s="22" t="inlineStr">
         <is>
-          <t>Escalabilidade</t>
+          <t>IPAM</t>
         </is>
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>Use um controlador de entrada para expor aplicativos baseados na Web em vez de expô-los com serviços do tipo LoadBalancer</t>
+          <t>Se estiver usando a CNI do Azure, dimensione sua sub-rede de acordo, considerando o número máximo de pods por nó</t>
         </is>
       </c>
       <c r="D28" s="22" t="n"/>
       <c r="E28" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2045,14 +2041,14 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/concepts-network</t>
+          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
+          <t>7faf12e7-0943-4f63-8472-2da29c2b1cd6</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2063,23 +2059,23 @@
     <row r="29" ht="16.5" customHeight="1" s="13">
       <c r="A29" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B29" s="22" t="inlineStr">
         <is>
-          <t>Melhores práticas</t>
+          <t>IPAM</t>
         </is>
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>Se estiver usando a AGIC, não compartilhe um AppGW entre clusters</t>
+          <t>Se estiver usando a CNI do Azure, verifique o máximo de pods/nós (padrão 30)</t>
         </is>
       </c>
       <c r="D29" s="22" t="n"/>
       <c r="E29" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2090,14 +2086,14 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://azure.github.io/application-gateway-kubernetes-ingress/setup/install-existing/</t>
+          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>cbd8ac2a-aebc-4a2a-94da-1dbf3dc99248</t>
+          <t>22f54b29-bade-43aa-b1e8-c38ec9366673</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2108,23 +2104,27 @@
     <row r="30" ht="16.5" customHeight="1" s="13">
       <c r="A30" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B30" s="22" t="inlineStr">
         <is>
-          <t>Custar</t>
+          <t>IPAM</t>
         </is>
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Use Pontos finais privados (preferidos) ou pontos finais de serviço de rede virtual para acessar os serviços PaaS do cluster</t>
-        </is>
-      </c>
-      <c r="D30" s="22" t="n"/>
+          <t>Se estiver usando serviços LoadBalancer de IP privado, use uma sub-rede dedicada (não a sub-rede AKS)</t>
+        </is>
+      </c>
+      <c r="D30" s="22" t="inlineStr">
+        <is>
+          <t>Para aplicativos internos, as organizações geralmente abrem toda a sub-rede AKS em seus firewalls. Isso também abre o acesso de rede aos nós e, potencialmente, aos pods também (se estiver usando a CNI do Azure). Se os IPs do LoadBalancer estiverem em uma sub-rede diferente, somente este precisará estar disponível para os clientes do aplicativo. Outra razão é que, se os endereços IP na sub-rede AKS forem um recurso escasso, consumir seus endereços IP para serviços reduzirá a escalabilidade máxima do cluster.</t>
+        </is>
+      </c>
       <c r="E30" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2135,14 +2135,14 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/private-link/private-link-overview</t>
+          <t>https://docs.microsoft.com/azure/aks/internal-lb</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>c3c39c98-6bb2-4c12-859a-114b5e3df584</t>
+          <t>13c00567-4b1e-4945-a459-c373e7ed6162</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2153,17 +2153,17 @@
     <row r="31" ht="16.5" customHeight="1" s="13">
       <c r="A31" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B31" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>IPAM</t>
         </is>
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>Use clusters privados se seus requisitos o obrigam</t>
+          <t>Dimensione o intervalo de endereços IP do serviço de acordo (ele limitará a escalabilidade do cluster)</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
@@ -2180,14 +2180,14 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/private-clusters</t>
+          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
+          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2198,7 +2198,7 @@
     <row r="32" ht="16.5" customHeight="1" s="13">
       <c r="A32" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B32" s="22" t="inlineStr">
@@ -2208,7 +2208,7 @@
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Habilitar uma opção de Política de Rede Kubernetes (Calico/Azure)</t>
+          <t>Filtre o tráfego de saída com o AzFW/NVA se os requisitos de segurança o exigirem</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
@@ -2225,7 +2225,7 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/use-network-policies</t>
+          <t>https://docs.microsoft.com/azure/aks/limit-egress-traffic</t>
         </is>
       </c>
       <c r="I32" s="16" t="n"/>
@@ -2233,7 +2233,7 @@
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>58d7c892-ddb1-407d-9769-ae669ca48e4a</t>
+          <t>3b365a91-7ecb-4e48-bbe5-4cd7df2e8bba</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2244,7 +2244,7 @@
     <row r="33" ht="16.5" customHeight="1" s="13">
       <c r="A33" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B33" s="22" t="inlineStr">
@@ -2254,13 +2254,13 @@
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>Use as políticas de rede kubernetes para aumentar a segurança intra-cluster</t>
+          <t>Se estiver usando um ponto de extremidade de API pública, restrinja os endereços IP que podem acessá-lo</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
       <c r="E33" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2271,7 +2271,7 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
+          <t>https://docs.microsoft.com/azure/aks/api-server-authorized-ip-ranges</t>
         </is>
       </c>
       <c r="I33" s="16" t="n"/>
@@ -2279,7 +2279,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>85e2223e-ce8b-4b12-907c-a5f16f158e3e</t>
+          <t>C4581559-BB91-463E-A908-AED8C44CE3B2</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2290,23 +2290,23 @@
     <row r="34" ht="16.5" customHeight="1" s="13">
       <c r="A34" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B34" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Escalabilidade</t>
         </is>
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>Use um WAF para cargas de trabalho web (UIs ou APIs)</t>
+          <t>Use um controlador de entrada para expor aplicativos baseados na Web em vez de expô-los com serviços do tipo LoadBalancer</t>
         </is>
       </c>
       <c r="D34" s="22" t="n"/>
       <c r="E34" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2317,7 +2317,7 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
+          <t>https://docs.microsoft.com/azure/aks/concepts-network</t>
         </is>
       </c>
       <c r="I34" s="16" t="n"/>
@@ -2325,7 +2325,7 @@
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>a3a92c2d-e7e2-4165-a3a8-7af4a7a1f893</t>
+          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2336,23 +2336,23 @@
     <row r="35" ht="16.5" customHeight="1" s="13">
       <c r="A35" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B35" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Escalabilidade</t>
         </is>
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>Use o padrão DDoS na rede virtual AKS</t>
+          <t>Usar o Azue NAT Gateway como outboundType para dimensionar o tráfego de saída</t>
         </is>
       </c>
       <c r="D35" s="22" t="n"/>
       <c r="E35" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2363,7 +2363,7 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/aks/nat-gateway</t>
         </is>
       </c>
       <c r="I35" s="16" t="n"/>
@@ -2371,7 +2371,7 @@
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
+          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2382,23 +2382,23 @@
     <row r="36" ht="16.5" customHeight="1" s="13">
       <c r="A36" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B36" s="22" t="inlineStr">
         <is>
-          <t>Melhores práticas</t>
+          <t>Escalabilidade</t>
         </is>
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>Não use complemento de roteamento de aplicativos AKS</t>
+          <t>Usar alocações dinâmicas de IPs para evitar o esgotamento do IP da CNI do Azure</t>
         </is>
       </c>
       <c r="D36" s="22" t="n"/>
       <c r="E36" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2409,7 +2409,7 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/http-application-routing</t>
+          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni#dynamic-allocation-of-ips-and-enhanced-subnet-support</t>
         </is>
       </c>
       <c r="I36" s="16" t="n"/>
@@ -2417,7 +2417,7 @@
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
+          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2428,23 +2428,23 @@
     <row r="37" ht="16.5" customHeight="1" s="13">
       <c r="A37" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B37" s="22" t="inlineStr">
         <is>
-          <t>Melhores práticas</t>
+          <t>Práticas recomendadas</t>
         </is>
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>Use o ALB padrão (em oposição ao básico)</t>
+          <t>Se estiver usando AGIC, não compartilhe um AppGW entre clusters</t>
         </is>
       </c>
       <c r="D37" s="22" t="n"/>
       <c r="E37" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2455,7 +2455,7 @@
       <c r="G37" s="22" t="n"/>
       <c r="H37" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/load-balancer-standard</t>
+          <t>https://azure.github.io/application-gateway-kubernetes-ingress/setup/install-existing/</t>
         </is>
       </c>
       <c r="I37" s="16" t="n"/>
@@ -2463,7 +2463,7 @@
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>ba7da7be-9952-4914-a384-5d997cb39132</t>
+          <t>cbd8ac2a-aebc-4a2a-94da-1dbf3dc99248</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2474,17 +2474,17 @@
     <row r="38" ht="16.5" customHeight="1" s="13">
       <c r="A38" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B38" s="22" t="inlineStr">
         <is>
-          <t>Tem</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>Se for necessária conectividade híbrida, use 2xER ou ER+VPN para melhor disponibilidade</t>
+          <t>Usar Pontos de Extremidade Privados (preferencialmente) ou Pontos de Extremidade de Serviço de Rede Virtual para acessar serviços de PaaS a partir do cluster</t>
         </is>
       </c>
       <c r="D38" s="22" t="n"/>
@@ -2501,7 +2501,7 @@
       <c r="G38" s="22" t="n"/>
       <c r="H38" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering</t>
+          <t>https://docs.microsoft.com/azure/private-link/private-link-overview</t>
         </is>
       </c>
       <c r="I38" s="16" t="n"/>
@@ -2509,7 +2509,7 @@
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>e8a03f97-8794-468d-96a7-86d60f96c97b</t>
+          <t>c3c39c98-6bb2-4c12-859a-114b5e3df584</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2520,7 +2520,7 @@
     <row r="39" ht="16.5" customHeight="1" s="13">
       <c r="A39" s="22" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B39" s="22" t="inlineStr">
@@ -2530,13 +2530,13 @@
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>Considere usar uma malha de serviço para gerenciamento avançado de comunicação de microsserviço</t>
+          <t>Usar clusters privados se suas necessidades exigirem</t>
         </is>
       </c>
       <c r="D39" s="22" t="n"/>
       <c r="E39" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2547,7 +2547,7 @@
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/servicemesh-about</t>
+          <t>https://docs.microsoft.com/azure/aks/private-clusters</t>
         </is>
       </c>
       <c r="I39" s="16" t="n"/>
@@ -2555,7 +2555,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
+          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2566,17 +2566,17 @@
     <row r="40" ht="16.5" customHeight="1" s="13">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>Governança e Segurança</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>Guarde seus segredos no Azure Key Vault com o motorista da CSI Secrets Store</t>
+          <t xml:space="preserve">Para nós AKS do Windows 2019 e 2022, as políticas de rede Calico podem ser usadas </t>
         </is>
       </c>
       <c r="D40" s="22" t="n"/>
@@ -2593,7 +2593,7 @@
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/secrets-store-csi-driver-provider-azure</t>
+          <t>https://learn.microsoft.com/azure/aks/use-network-policies</t>
         </is>
       </c>
       <c r="I40" s="16" t="n"/>
@@ -2601,7 +2601,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>5e3df584-eccc-4d97-a3b6-bcda3b50eb2e</t>
+          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2612,17 +2612,17 @@
     <row r="41" ht="16.5" customHeight="1" s="13">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>Governança e Segurança</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>Se os principais do serviço do usuário para o cluster, atualize as credenciais periodicamente (como trimestralmente)</t>
+          <t>Habilitar uma opção de Política de Rede do Kubernetes (Calico/Azure)</t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
@@ -2639,7 +2639,7 @@
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/update-credentials</t>
+          <t>https://docs.microsoft.com/azure/aks/use-network-policies</t>
         </is>
       </c>
       <c r="I41" s="16" t="n"/>
@@ -2647,7 +2647,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>b03dda6d-58d7-4c89-8ddb-107d5769ae66</t>
+          <t>58d7c892-ddb1-407d-9769-ae669ca48e4a</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2658,23 +2658,23 @@
     <row r="42" ht="16.5" customHeight="1" s="13">
       <c r="A42" s="22" t="inlineStr">
         <is>
-          <t>Governança e Segurança</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B42" s="22" t="inlineStr">
         <is>
-          <t>Conformidade</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>Use a política do Azure para Kubernetes para garantir a conformidade do cluster</t>
+          <t>Use as diretivas de rede do Kubernetes para aumentar a segurança intracluster</t>
         </is>
       </c>
       <c r="D42" s="22" t="n"/>
       <c r="E42" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2685,7 +2685,7 @@
       <c r="G42" s="22" t="n"/>
       <c r="H42" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/concepts/policy-for-kubernetes</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
         </is>
       </c>
       <c r="I42" s="16" t="n"/>
@@ -2693,7 +2693,7 @@
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>9ca48e4a-85e2-4223-bce8-bb12307ca5f1</t>
+          <t>85e2223e-ce8b-4b12-907c-a5f16f158e3e</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2704,23 +2704,23 @@
     <row r="43" ht="16.5" customHeight="1" s="13">
       <c r="A43" s="22" t="inlineStr">
         <is>
-          <t>Governança e Segurança</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B43" s="22" t="inlineStr">
         <is>
-          <t>Conformidade</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>Aplicativos separados do plano de controle com os itens de usuário/sistema</t>
+          <t>Usar um WAF para cargas de trabalho da Web (interfaces de usuário ou APIs)</t>
         </is>
       </c>
       <c r="D43" s="22" t="n"/>
       <c r="E43" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2731,7 +2731,7 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/use-system-pools</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
         </is>
       </c>
       <c r="I43" s="16" t="n"/>
@@ -2739,7 +2739,7 @@
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>6f158e3e-a3a9-42c2-be7e-2165c3a87af4</t>
+          <t>a3a92c2d-e7e2-4165-a3a8-7af4a7a1f893</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2750,23 +2750,23 @@
     <row r="44" ht="16.5" customHeight="1" s="13">
       <c r="A44" s="22" t="inlineStr">
         <is>
-          <t>Governança e Segurança</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B44" s="22" t="inlineStr">
         <is>
-          <t>Conformidade</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>Adicione mancha ao seu nó do sistema para torná-lo dedicado</t>
+          <t>Usar DDoS Standard na Rede Virtual AKS</t>
         </is>
       </c>
       <c r="D44" s="22" t="n"/>
       <c r="E44" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2777,7 +2777,7 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/use-system-pools</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I44" s="16" t="n"/>
@@ -2785,7 +2785,7 @@
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>a7a1f893-9bda-4477-98f2-4c116775c2ea</t>
+          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2796,23 +2796,23 @@
     <row r="45" ht="16.5" customHeight="1" s="13">
       <c r="A45" s="22" t="inlineStr">
         <is>
-          <t>Governança e Segurança</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B45" s="22" t="inlineStr">
         <is>
-          <t>Conformidade</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>Use um registro privado para suas imagens, como ACR</t>
+          <t>Se necessário, adicione o Proxy HTTP da empresa</t>
         </is>
       </c>
       <c r="D45" s="22" t="n"/>
       <c r="E45" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2823,14 +2823,14 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/container-registry/</t>
+          <t>https://learn.microsoft.com/azure/aks/http-proxy</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>55b46a94-8008-4ae7-b7e4-b475b6c8bdbf</t>
+          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2841,23 +2841,23 @@
     <row r="46" ht="16.5" customHeight="1" s="13">
       <c r="A46" s="22" t="inlineStr">
         <is>
-          <t>Governança e Segurança</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B46" s="22" t="inlineStr">
         <is>
-          <t>Conformidade</t>
+          <t>Práticas recomendadas</t>
         </is>
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>Escaneie suas imagens em busca de vulnerabilidades</t>
+          <t>Não use o AKS Application Routing Add-On</t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
       <c r="E46" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2868,7 +2868,7 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/container-security</t>
+          <t>https://docs.microsoft.com/azure/aks/http-application-routing</t>
         </is>
       </c>
       <c r="I46" s="16" t="n"/>
@@ -2876,7 +2876,7 @@
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>59bce65d-e8a0-43f9-9879-468d66a786d6</t>
+          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -2887,17 +2887,17 @@
     <row r="47" ht="16.5" customHeight="1" s="13">
       <c r="A47" s="22" t="inlineStr">
         <is>
-          <t>Governança e Segurança</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B47" s="22" t="inlineStr">
         <is>
-          <t>Conformidade</t>
+          <t>Práticas recomendadas</t>
         </is>
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>Use o Azure Security Center para detectar vulnerabilidades de postura de segurança</t>
+          <t>Para cargas de trabalho do Windows, use a Rede Acelerada</t>
         </is>
       </c>
       <c r="D47" s="22" t="n"/>
@@ -2914,7 +2914,7 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/container-security</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview</t>
         </is>
       </c>
       <c r="I47" s="16" t="n"/>
@@ -2922,7 +2922,7 @@
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
+          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -2933,17 +2933,17 @@
     <row r="48" ht="16.5" customHeight="1" s="13">
       <c r="A48" s="22" t="inlineStr">
         <is>
-          <t>Governança e Segurança</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B48" s="22" t="inlineStr">
         <is>
-          <t>Conformidade</t>
+          <t>Práticas recomendadas</t>
         </is>
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>Defina os requisitos de separação do aplicativo (namespace/nodepool/cluster)</t>
+          <t>Use o ALB padrão (em oposição ao básico)</t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
@@ -2960,14 +2960,14 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-cluster-isolation</t>
+          <t>https://docs.microsoft.com/azure/aks/load-balancer-standard</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>d167dd18-2b0a-4c24-8b99-9a646f8389a7</t>
+          <t>ba7da7be-9952-4914-a384-5d997cb39132</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -2978,23 +2978,23 @@
     <row r="49" ht="16.5" customHeight="1" s="13">
       <c r="A49" s="22" t="inlineStr">
         <is>
-          <t>Governança de Custos</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B49" s="22" t="inlineStr">
         <is>
-          <t>Custar</t>
+          <t>Tem</t>
         </is>
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Use um aplicativo externo, como o kubecost, para alocar custs para diferentes usuários</t>
+          <t>Se a conectividade híbrida for necessária, use 2xER ou ER+VPN para melhor disponibilidade</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
       <c r="E49" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3005,14 +3005,14 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/scenarios/aks/eslz-cost-governance-with-kubecost</t>
+          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
+          <t>E8A03F97-8794-468D-96A7-86D60F96C97B</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3023,23 +3023,23 @@
     <row r="50" ht="16.5" customHeight="1" s="13">
       <c r="A50" s="22" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B50" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>Use discos efêmeros do SISTEMA OPERACIONAL</t>
+          <t>Considere o uso de uma malha de serviço para gerenciamento avançado de comunicação de microsserviços</t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
       <c r="E50" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3050,7 +3050,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/cluster-configuration</t>
+          <t>https://docs.microsoft.com/azure/aks/servicemesh-about</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3058,7 +3058,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>24367b3-6971-45b1-952b-eee0b9b588de</t>
+          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3069,23 +3069,23 @@
     <row r="51" ht="16.5" customHeight="1" s="13">
       <c r="A51" s="22" t="inlineStr">
         <is>
+          <t>Topologia e conectividade de rede</t>
+        </is>
+      </c>
+      <c r="B51" s="22" t="inlineStr">
+        <is>
           <t>Operações</t>
         </is>
       </c>
-      <c r="B51" s="22" t="inlineStr">
-        <is>
-          <t>Armazenamento</t>
-        </is>
-      </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>Para discos não efêmeros, use discos IOPS altos e maiores para os nódulos ao executar muitos pods/nó, uma vez que requerem alto desempenho para executar vários pods e gerará enormes logs com limiares de rotação de log AKS padrão</t>
+          <t>Se necessário, adicione seu próprio plug-in CNI</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
       <c r="E51" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3096,7 +3096,7 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/disks-types</t>
+          <t>https://learn.microsoft.com/azure/aks/use-byo-cni</t>
         </is>
       </c>
       <c r="I51" s="16" t="n"/>
@@ -3104,7 +3104,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
+          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3115,23 +3115,23 @@
     <row r="52" ht="16.5" customHeight="1" s="13">
       <c r="A52" s="22" t="inlineStr">
         <is>
+          <t>Topologia e conectividade de rede</t>
+        </is>
+      </c>
+      <c r="B52" s="22" t="inlineStr">
+        <is>
           <t>Operações</t>
         </is>
       </c>
-      <c r="B52" s="22" t="inlineStr">
-        <is>
-          <t>Armazenamento</t>
-        </is>
-      </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>Evite manter o estado no cluster e armazene dados do lado de fora (AzStorage, AzSQL, Cosmos, etc)</t>
+          <t>Se necessário, configure o IP público por nó no AKS</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
       <c r="E52" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3142,7 +3142,7 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-multi-region</t>
+          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#assign-a-public-ip-per-node-for-your-node-pools</t>
         </is>
       </c>
       <c r="I52" s="16" t="n"/>
@@ -3150,7 +3150,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>9f7547c1-747d-4c56-868a-714435bd19dd</t>
+          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3161,17 +3161,17 @@
     <row r="53" ht="16.5" customHeight="1" s="13">
       <c r="A53" s="22" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B53" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Práticas recomendadas</t>
         </is>
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>Se estiver usando o AzFiles Standard, considere a AzFiles Premium e/ou ANF por razões de desempenho</t>
+          <t>Se estiver usando a CNI do Azure, considere o uso de sub-redes diferentes para NodePools</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
@@ -3188,14 +3188,14 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-storage</t>
+          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#add-a-node-pool-with-a-unique-subnet</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>24429eb7-2281-4376-85cc-57b4a4b18142</t>
+          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3206,17 +3206,17 @@
     <row r="54" ht="16.5" customHeight="1" s="13">
       <c r="A54" s="22" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Governança e Segurança</t>
         </is>
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>Se usar discos e AZs do Azure, considere ter nodepools dentro de uma região para disco LRS com VolumeBindingMode:WaitForFirstConsumer para provisionar armazenamento na zona direita ou usar disco ZRS para nodepools que abrangem várias zonas</t>
+          <t>Armazenar seus segredos no Cofre da Chave do Azure com o driver do CSI Secrets Store</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3233,7 +3233,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/availability-zones#azure-disk-availability-zone-support</t>
+          <t>https://github.com/Azure/secrets-store-csi-driver-provider-azure</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3241,7 +3241,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>83958a8c-2689-4b32-ab57-cfc64546135a</t>
+          <t>5e3df584-eccc-4d97-a3b6-bcda3b50eb2e</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3252,23 +3252,23 @@
     <row r="55" ht="16.5" customHeight="1" s="13">
       <c r="A55" s="22" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Governança e Segurança</t>
         </is>
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>Conformidade</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>Verifique regularmente o Azure Advisor para obter recomendações em seu cluster</t>
+          <t>Se as Entidades de Serviço do usuário para o cluster, atualize as credenciais periodicamente (como trimestralmente)</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
       <c r="E55" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3279,14 +3279,14 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/advisor/advisor-get-started</t>
+          <t>https://docs.microsoft.com/azure/aks/update-credentials</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>337453a3-cc63-4963-9a65-22ac19e80696</t>
+          <t>b03dda6d-58d7-4c89-8ddb-107d5769ae66</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3297,7 +3297,7 @@
     <row r="56" ht="16.5" customHeight="1" s="13">
       <c r="A56" s="22" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Governança e Segurança</t>
         </is>
       </c>
       <c r="B56" s="22" t="inlineStr">
@@ -3307,13 +3307,13 @@
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>Desenvolva seus manifestos YAML com editores de texto inteligentes, como vscode+kubeadvisor</t>
+          <t>Usar a Política do Azure para Kubernetes para garantir a conformidade do cluster</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
       <c r="E56" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3324,14 +3324,14 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/policy-for-kubernetes</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>5388e9de-d167-4dd1-a2b0-ac241b999a64</t>
+          <t>9ca48e4a-85e2-4223-bce8-bb12307ca5f1</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3342,23 +3342,23 @@
     <row r="57" ht="16.5" customHeight="1" s="13">
       <c r="A57" s="22" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Governança e Segurança</t>
         </is>
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Conformidade</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>Monitore suas métricas de cluster com insights de contêiner (ou outras ferramentas como o Prometeu)</t>
+          <t>Separe os aplicativos do plano de controle com os nodepools do usuário/sistema</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
       <c r="E57" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3369,14 +3369,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-overview</t>
+          <t>https://docs.microsoft.com/azure/aks/use-system-pools</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>6f8389a7-f82c-4b8e-a8c0-aa63a25a4956</t>
+          <t>6f158e3e-a3a9-42c2-be7e-2165c3a87af4</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3387,23 +3387,23 @@
     <row r="58" ht="16.5" customHeight="1" s="13">
       <c r="A58" s="22" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Governança e Segurança</t>
         </is>
       </c>
       <c r="B58" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Conformidade</t>
         </is>
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>Armazene e analise seus registros de cluster com insights de contêiner (ou outras ferramentas como Telegraf/ElasticSearch)</t>
+          <t>Adicione taint ao nodepool do seu sistema para torná-lo dedicado</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
       <c r="E58" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3414,14 +3414,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-overview</t>
+          <t>https://docs.microsoft.com/azure/aks/use-system-pools</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>eaa8dc4a-2436-47b3-9697-15b1752beee0</t>
+          <t>a7a1f893-9bda-4477-98f2-4c116775c2ea</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3432,23 +3432,23 @@
     <row r="59" ht="16.5" customHeight="1" s="13">
       <c r="A59" s="22" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Governança e Segurança</t>
         </is>
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>Alertando</t>
+          <t>Conformidade</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>Configure alertas nas métricas mais críticas (consulte Percepções de contêiner para recomendações)</t>
+          <t>Usar um registro privado para suas imagens, como ACR</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
       <c r="E59" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3459,14 +3459,14 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-metric-alerts</t>
+          <t>https://docs.microsoft.com/azure/container-registry/</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>67f7a9ed-5b31-4f38-a3f3-9812b2463cff</t>
+          <t>55b46a94-8008-4ae7-b7e4-b475b6c8bdbf</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3477,7 +3477,7 @@
     <row r="60" ht="16.5" customHeight="1" s="13">
       <c r="A60" s="22" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Governança e Segurança</t>
         </is>
       </c>
       <c r="B60" s="22" t="inlineStr">
@@ -3487,13 +3487,13 @@
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>Tenha um processo regular para atualizar sua versão kubernetes periodicamente (trimestral, por exemplo) ou usar o recurso de autoupgrade AKS</t>
+          <t>Verificar suas imagens em busca de vulnerabilidades</t>
         </is>
       </c>
       <c r="D60" s="22" t="n"/>
       <c r="E60" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3504,14 +3504,14 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/supported-kubernetes-versions</t>
+          <t>https://docs.microsoft.com/azure/security-center/container-security</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>e189c599-df0d-45a7-9dd4-ce32c1881370</t>
+          <t>59bce65d-e8a0-43f9-9879-468d66a786d6</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3522,7 +3522,7 @@
     <row r="61" ht="16.5" customHeight="1" s="13">
       <c r="A61" s="22" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Governança e Segurança</t>
         </is>
       </c>
       <c r="B61" s="22" t="inlineStr">
@@ -3532,13 +3532,13 @@
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>Use kured para atualizações de nó Linux no caso de você não estiver usando atualização de imagem de nó</t>
+          <t>Usar a Central de Segurança do Azure para detectar vulnerabilidades de postura de segurança</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
       <c r="E61" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3549,14 +3549,14 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/node-updates-kured</t>
+          <t>https://docs.microsoft.com/azure/security-center/container-security</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>6f7c4c0d-4e51-4464-ad24-57ed67138b82</t>
+          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3567,7 +3567,7 @@
     <row r="62" ht="16.5" customHeight="1" s="13">
       <c r="A62" s="22" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Governança e Segurança</t>
         </is>
       </c>
       <c r="B62" s="22" t="inlineStr">
@@ -3577,13 +3577,13 @@
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>Tenha um processo regular para atualizar as imagens do nó de cluster periodicamente (semanalmente, por exemplo)</t>
+          <t>Se necessário, configure o FIPS</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
       <c r="E62" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3594,14 +3594,14 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/node-image-upgrade</t>
+          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#add-a-fips-enabled-node-pool</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>139c9580-ade3-426a-ba09-cf157d9f6477</t>
+          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3612,23 +3612,23 @@
     <row r="63" ht="16.5" customHeight="1" s="13">
       <c r="A63" s="22" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Governança e Segurança</t>
         </is>
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>Conformidade</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>Considere gitops para implantar aplicativos ou configuração de cluster em vários clusters</t>
+          <t>Se necessário, adicione criptografia etcd do Serviço de Gerenciamento de Chaves</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
       <c r="E63" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3639,7 +3639,7 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/bedrock/bedrock-automated-deployments</t>
+          <t>https://learn.microsoft.com/azure/aks/use-kms-etcd-encryption</t>
         </is>
       </c>
       <c r="I63" s="16" t="n"/>
@@ -3647,7 +3647,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
+          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3658,17 +3658,17 @@
     <row r="64" ht="16.5" customHeight="1" s="13">
       <c r="A64" s="22" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Governança e Segurança</t>
         </is>
       </c>
       <c r="B64" s="22" t="inlineStr">
         <is>
-          <t>Custar</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>Considere pools de nó spot para cargas de trabalho não sensíveis ao tempo</t>
+          <t>Se necessário, considere o uso de Computação Confidencial para AKS</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
@@ -3685,7 +3685,7 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/spot-node-pool</t>
+          <t>https://learn.microsoft.com/azure/confidential-computing/confidential-nodes-aks-overview</t>
         </is>
       </c>
       <c r="I64" s="16" t="n"/>
@@ -3693,7 +3693,7 @@
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>c5a5b252-1e44-4a59-a9d2-399c4d7b68d0</t>
+          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3704,23 +3704,23 @@
     <row r="65" ht="16.5" customHeight="1" s="13">
       <c r="A65" s="22" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Governança e Segurança</t>
         </is>
       </c>
       <c r="B65" s="22" t="inlineStr">
         <is>
-          <t>Custar</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>Considere o nó virtual AKS para estouro rápido</t>
+          <t>Considere o uso do Defender for Containers</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
       <c r="E65" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3731,7 +3731,7 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/concepts-scale</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-enable</t>
         </is>
       </c>
       <c r="I65" s="16" t="n"/>
@@ -3739,7 +3739,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>c755562f-2b4e-4456-9b4d-874a748b662e</t>
+          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3750,7 +3750,7 @@
     <row r="66" ht="16.5" customHeight="1" s="13">
       <c r="A66" s="22" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Governança e Segurança</t>
         </is>
       </c>
       <c r="B66" s="22" t="inlineStr">
@@ -3760,7 +3760,7 @@
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>Desenvolver práticas próprias de governanance para garantir que não sejam realizadas alterações pelos operadores no nó RG (também conhecido como 'infra RG')</t>
+          <t>Definir requisitos de separação de aplicativos (namespace/nodepool/cluster)</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3777,14 +3777,14 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/faq</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-cluster-isolation</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
+          <t>d167dd18-2b0a-4c24-8b99-9a646f8389a7</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3795,17 +3795,17 @@
     <row r="67" ht="16.5" customHeight="1" s="13">
       <c r="A67" s="22" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Governança de Custos</t>
         </is>
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>Conformidade</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>Use o nome personalizado Node RG (também conhecido como 'Infra RG')</t>
+          <t>Use um aplicativo externo, como o kubecost, para alocar custs para diferentes usuários</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
@@ -3822,7 +3822,7 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/cluster-configuration</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/scenarios/aks/eslz-cost-governance-with-kubecost</t>
         </is>
       </c>
       <c r="I67" s="16" t="n"/>
@@ -3830,7 +3830,7 @@
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>73b32a5a-67f7-4a9e-b5b3-1f38c3f39812</t>
+          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -3841,23 +3841,23 @@
     <row r="68" ht="16.5" customHeight="1" s="13">
       <c r="A68" s="22" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Governança de Custos</t>
         </is>
       </c>
       <c r="B68" s="22" t="inlineStr">
         <is>
-          <t>Conformidade</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>Não use APIs Kubernetes preteridas em seus manifestos YAML</t>
+          <t>Se necessário, dimensione instantâneos do NodePool</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
       <c r="E68" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3868,7 +3868,7 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://kubernetes.io/docs/setup/release/notes/</t>
+          <t>https://learn.microsoft.com/azure/aks/node-pool-snapshot</t>
         </is>
       </c>
       <c r="I68" s="16" t="n"/>
@@ -3876,7 +3876,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>b2463cff-e189-4c59-adf0-d5a73dd4ce32</t>
+          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -3887,17 +3887,17 @@
     <row r="69" ht="16.5" customHeight="1" s="13">
       <c r="A69" s="22" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Governança de Custos</t>
         </is>
       </c>
       <c r="B69" s="22" t="inlineStr">
         <is>
-          <t>Conformidade</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>Maculam os acenos do Windows</t>
+          <t>Usar o modo de redução para excluir/desalocar nós</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
@@ -3914,7 +3914,7 @@
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure-stack/aks-hci/adapt-apps-mixed-os-clusters</t>
+          <t>https://learn.microsoft.com/azure/aks/scale-down-mode</t>
         </is>
       </c>
       <c r="I69" s="16" t="n"/>
@@ -3922,7 +3922,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>c1881370-6f7c-44c0-b4e5-14648d2457ed</t>
+          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -3933,23 +3933,23 @@
     <row r="70" ht="16.5" customHeight="1" s="13">
       <c r="A70" s="22" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Governança de Custos</t>
         </is>
       </c>
       <c r="B70" s="22" t="inlineStr">
         <is>
-          <t>Conformidade</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>Mantenha o nível de patch dos recipientes windows em sincronia com o nível de patch do host</t>
+          <t>Quando necessário, use GPU de partioning de várias instâncias em clusters AKS</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
       <c r="E70" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3960,7 +3960,7 @@
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/virtualization/windowscontainers/deploy-containers/version-compatibility?tabs=windows-server-20H2%2Cwindows-10-20H2</t>
+          <t>https://learn.microsoft.com/azure/aks/gpu-multi-instance</t>
         </is>
       </c>
       <c r="I70" s="16" t="n"/>
@@ -3968,7 +3968,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>67138b82-0102-4ce1-9ee3-01e6e882e52e</t>
+          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -3979,23 +3979,23 @@
     <row r="71" ht="16.5" customHeight="1" s="13">
       <c r="A71" s="22" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Governança de Custos</t>
         </is>
       </c>
       <c r="B71" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>Monitore a CPU e a utilização da memória dos nódulos</t>
+          <t>Se estiver executando um cluster de Desenvolvimento/Teste, use Iniciar/Parar do NodePool</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
       <c r="E71" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4006,7 +4006,7 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/containers/container-insights-analyze</t>
+          <t>https://learn.microsoft.com/azure/aks/start-stop-nodepools</t>
         </is>
       </c>
       <c r="I71" s="16" t="n"/>
@@ -4014,7 +4014,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>4621dd68-c5a5-4be2-bdb1-1726769ef669</t>
+          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4030,18 +4030,18 @@
       </c>
       <c r="B72" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>Se usar o Azure CNI, monitore % dos IPs de pod consumidos por nó</t>
+          <t>Usar discos efêmeros do sistema operacional</t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
       <c r="E72" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4052,7 +4052,7 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
+          <t>https://docs.microsoft.com/azure/aks/cluster-configuration</t>
         </is>
       </c>
       <c r="I72" s="16" t="n"/>
@@ -4060,7 +4060,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>1a4835ac-9422-423e-ae80-b123081a5417</t>
+          <t>24367b33-6971-45b1-952b-eee0b9b588de</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4076,22 +4076,18 @@
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>Monitore a profundidade da fila de disco do SISTEMA em nódulos</t>
-        </is>
-      </c>
-      <c r="D73" s="22" t="inlineStr">
-        <is>
-          <t>I/O no disco do SISTEMA OPERACIONAL é um recurso crítico. Se o SO nos nós for estrangulado na I/O, isso pode levar a um comportamento imprevisível, normalmente terminando em nó sendo declarado NotReady</t>
-        </is>
-      </c>
+          <t>Para discos não efêmeros, use IOPS altas e discos de sistema operacional maiores para os nós ao executar muitos pods/nós, pois isso requer alto desempenho para executar vários pods e gerará logs enormes com limites de rotação de log AKS padrão</t>
+        </is>
+      </c>
+      <c r="D73" s="22" t="n"/>
       <c r="E73" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4102,7 +4098,7 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/premium-storage-performance</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/disks-types</t>
         </is>
       </c>
       <c r="I73" s="16" t="n"/>
@@ -4110,7 +4106,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>415833ea-3ad3-4c2d-b733-165c3acbe04b</t>
+          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4126,18 +4122,18 @@
       </c>
       <c r="B74" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Se não estiver usando filtragem de saída com a AzFW/NVA, monitore as portas SNAT alocadas padrão ALB</t>
+          <t>Para a opção de armazenamento de hiperdesempenho, use Ultra Disks no AKS</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
       <c r="E74" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4148,7 +4144,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/load-balancer-standard</t>
+          <t>https://learn.microsoft.com/azure/aks/use-ultra-disks</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4156,7 +4152,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>be209d39-fda4-4777-a424-d116785c2fa5</t>
+          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4172,12 +4168,12 @@
       </c>
       <c r="B75" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Inscreva-se em notificações de saúde de recursos para o seu cluster AKS</t>
+          <t>Evite manter o estado no cluster e armazene dados fora (AzStorage, AzSQL, Cosmos, etc.)</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
@@ -4194,7 +4190,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/aks-resource-health</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-multi-region</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4202,7 +4198,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>74c2ee76-569b-4a79-a57e-dedf91b022c9</t>
+          <t>9f7547c1-747d-4c56-868a-714435bd19dd</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4218,22 +4214,18 @@
       </c>
       <c r="B76" s="22" t="inlineStr">
         <is>
-          <t>Conformidade</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Envie registros mestres (também conhecidos como registros de API) para o Azure Monitor ou sua solução de gerenciamento de log preferida</t>
-        </is>
-      </c>
-      <c r="D76" s="22" t="inlineStr">
-        <is>
-          <t>Através de configurações de diagnóstico no nível de cluster</t>
-        </is>
-      </c>
+          <t>Se estiver usando o AzFiles Standard, considere o AzFiles Premium e/ou ANF por motivos de desempenho</t>
+        </is>
+      </c>
+      <c r="D76" s="22" t="n"/>
       <c r="E76" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4244,7 +4236,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/monitor-aks</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-storage</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4252,7 +4244,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>5b56ad48-408f-4e72-934c-476ba280dcf5</t>
+          <t>24429eb7-2281-4376-85cc-57b4a4b18142</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4268,12 +4260,12 @@
       </c>
       <c r="B77" s="22" t="inlineStr">
         <is>
-          <t>Escalabilidade</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Use o cluster autoscaler</t>
+          <t>Se estiver usando Discos e AZs do Azure, considere ter pools de nós dentro de uma zona para disco LRS com VolumeBindingMode:WaitForFirstConsumer para provisionar armazenamento na zona direita ou use o disco ZRS para pools de nós que abrangem várias zonas</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
@@ -4290,7 +4282,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/concepts-scale</t>
+          <t>https://docs.microsoft.com/azure/aks/availability-zones#azure-disk-availability-zone-support</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4298,7 +4290,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>90ce65de-8e13-4f9c-abd4-692666abca264</t>
+          <t>83958a8c-2689-4b32-ab57-cfc64546135a</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4314,18 +4306,18 @@
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>Escalabilidade</t>
+          <t>Conformidade</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Use o escalador automático de pod horizontal quando necessário</t>
+          <t>Verifique regularmente o Azure Advisor para obter recomendações sobre seu cluster</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4336,7 +4328,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/concepts-scale</t>
+          <t>https://docs.microsoft.com/azure/advisor/advisor-get-started</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4344,7 +4336,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>faa19bfe-9d55-4d04-a3c4-919ca1b2d121</t>
+          <t>337453a3-cc63-4963-9a65-22ac19e80696</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4360,22 +4352,18 @@
       </c>
       <c r="B79" s="22" t="inlineStr">
         <is>
-          <t>Escalabilidade</t>
+          <t>Conformidade</t>
         </is>
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Considere um tamanho de nó apropriado, não muito grande ou muito pequeno</t>
-        </is>
-      </c>
-      <c r="D79" s="22" t="inlineStr">
-        <is>
-          <t>Nódulos maiores trarão maior desempenho e recursos como discos efêmeros e redes aceleradas, mas aumentarão o raio de explosão e diminuirão a granularidade de escala</t>
-        </is>
-      </c>
+          <t>Desenvolva seus manifestos YAML com editores de texto inteligentes, como vscode+kubeadvisor</t>
+        </is>
+      </c>
+      <c r="D79" s="22" t="n"/>
       <c r="E79" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4386,7 +4374,7 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://blog.cloudtrooper.net/2020/10/23/which-vm-size-should-i-choose-as-aks-node/</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
         </is>
       </c>
       <c r="I79" s="16" t="n"/>
@@ -4394,7 +4382,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>5388e9de-d167-4dd1-a2b0-ac241b999a64</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4410,18 +4398,18 @@
       </c>
       <c r="B80" s="22" t="inlineStr">
         <is>
-          <t>Recursos</t>
+          <t>Conformidade</t>
         </is>
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>Configure solicitações e limites nas especificações do seu pod</t>
+          <t>Ativar a rotação automática de certificados do AKS</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
       <c r="E80" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4432,7 +4420,7 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
+          <t>https://learn.microsoft.com/azure/aks/certificate-rotation</t>
         </is>
       </c>
       <c r="I80" s="16" t="n"/>
@@ -4440,7 +4428,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>b54eb2eb-03dd-4aa3-9927-18e2edb11726</t>
+          <t>5388e9de-d167-4dd1-a2b0-ac241b999a64</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4456,18 +4444,18 @@
       </c>
       <c r="B81" s="22" t="inlineStr">
         <is>
-          <t>Recursos</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>Impor cotas de recursos para espaços de nome</t>
+          <t>Monitore suas métricas de cluster com o Container Insights (ou outras ferramentas, como o Prometheus)</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
       <c r="E81" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4478,7 +4466,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-overview</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4486,7 +4474,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>769ef669-1a48-435a-a942-223ece80b123</t>
+          <t>6f8389a7-f82c-4b8e-a8c0-aa63a25a4956</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4502,12 +4490,12 @@
       </c>
       <c r="B82" s="22" t="inlineStr">
         <is>
-          <t>Recursos</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que sua assinatura tenha cota suficiente para dimensionar seus nodepools</t>
+          <t>Armazene e analise seus logs de cluster com o Container Insights (ou outras ferramentas, como Telegraf/ElasticSearch)</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4524,7 +4512,7 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-overview</t>
         </is>
       </c>
       <c r="I82" s="16" t="n"/>
@@ -4532,7 +4520,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>081a5417-4158-433e-a3ad-3c2de733165c</t>
+          <t>eaa8dc4a-2436-47b3-9697-15b1752beee0</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4543,23 +4531,23 @@
     <row r="83" ht="15.75" customHeight="1" s="13">
       <c r="A83" s="22" t="inlineStr">
         <is>
-          <t>Implantação de aplicativos</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B83" s="22" t="inlineStr">
         <is>
-          <t>Infraestrutura como Código</t>
+          <t>Alertando</t>
         </is>
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Use a automação através da ARM/TF para criar seus recursos do Azure</t>
+          <t>Configurar alertas sobre as métricas mais críticas (consulte Container Insights para obter recomendações)</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
       <c r="E83" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4570,7 +4558,7 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/developer/terraform/create-k8s-cluster-with-tf-and-aks</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-metric-alerts</t>
         </is>
       </c>
       <c r="I83" s="16" t="n"/>
@@ -4578,7 +4566,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>3acbe04b-be20-49d3-afda-47778424d116</t>
+          <t>67f7a9ed-5b31-4f38-a3f3-9812b2463cff</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4589,23 +4577,23 @@
     <row r="84" ht="16.5" customHeight="1" s="13">
       <c r="A84" s="22" t="inlineStr">
         <is>
-          <t>Implantação de aplicativos</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B84" s="22" t="inlineStr">
         <is>
-          <t>Desenvolvimento</t>
+          <t>Conformidade</t>
         </is>
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>Use implantações canárias ou azuis/verdes</t>
+          <t>Tenha um processo regular para atualizar sua versão do kubernetes periodicamente (trimestralmente, por exemplo) ou use o recurso de atualização automática do AKS</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
       <c r="E84" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4616,7 +4604,7 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/containers/aks/secure-baseline-aks</t>
+          <t>https://docs.microsoft.com/azure/aks/supported-kubernetes-versions</t>
         </is>
       </c>
       <c r="I84" s="16" t="n"/>
@@ -4624,7 +4612,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>785c2fa5-5b56-4ad4-a408-fe72734c476b</t>
+          <t>e189c599-df0d-45a7-9dd4-ce32c1881370</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4635,23 +4623,23 @@
     <row r="85" ht="16.5" customHeight="1" s="13">
       <c r="A85" s="22" t="inlineStr">
         <is>
-          <t>Implantação de aplicativos</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B85" s="22" t="inlineStr">
         <is>
-          <t>Desenvolvimento</t>
+          <t>Conformidade</t>
         </is>
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>Use o KEDA se executar cargas de trabalho orientadas a eventos</t>
+          <t>Use kured para atualizações de nó Linux caso você não esteja usando a atualização de imagem de nó</t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
       <c r="E85" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4662,7 +4650,7 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-functions/functions-kubernetes-keda</t>
+          <t>https://docs.microsoft.com/azure/aks/node-updates-kured</t>
         </is>
       </c>
       <c r="I85" s="16" t="n"/>
@@ -4670,7 +4658,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>a280dcf5-90ce-465d-b8e1-3f9ccbd46926</t>
+          <t>6f7c4c0d-4e51-4464-ad24-57ed67138b82</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4681,23 +4669,23 @@
     <row r="86" ht="16.5" customHeight="1" s="13">
       <c r="A86" s="22" t="inlineStr">
         <is>
-          <t>Implantação de aplicativos</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B86" s="22" t="inlineStr">
         <is>
-          <t>Desenvolvimento</t>
+          <t>Conformidade</t>
         </is>
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>Use o Dapr para facilitar o desenvolvimento de microsserviços</t>
+          <t>Tenha um processo regular para atualizar as imagens do nó do cluster periodicamente (semanalmente, por exemplo)</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
       <c r="E86" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4708,7 +4696,7 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://dapr.io/</t>
+          <t>https://docs.microsoft.com/azure/aks/node-image-upgrade</t>
         </is>
       </c>
       <c r="I86" s="16" t="n"/>
@@ -4716,7 +4704,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>26886d20-b66c-457b-a591-19bf8e8f5c58</t>
+          <t>139c9580-ade3-426a-ba09-cf157d9f6477</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4727,46 +4715,42 @@
     <row r="87" ht="16.5" customHeight="1" s="13">
       <c r="A87" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Conformidade</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Don't use virtual network service endpoints when there are data exfiltration concerns, unless you use NVA filtering.</t>
+          <t>Considere gitops para implantar aplicativos ou configuração de cluster em vários clusters</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
       <c r="E87" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>Não verificado</t>
         </is>
       </c>
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I87" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/bedrock/bedrock-automated-deployments</t>
+        </is>
+      </c>
+      <c r="I87" s="16" t="n"/>
       <c r="J87" s="23" t="n"/>
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4777,46 +4761,42 @@
     <row r="88" ht="16.5" customHeight="1" s="13">
       <c r="A88" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Conformidade</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>Don't implement forced tunneling to enable communication from Azure to Azure resources.</t>
+          <t>Considere o uso de invocar o comando AKS em clusters privados</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
       <c r="E88" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>Não verificado</t>
         </is>
       </c>
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I88" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/aks/command-invoke</t>
+        </is>
+      </c>
+      <c r="I88" s="16" t="n"/>
       <c r="J88" s="23" t="n"/>
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
+          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -4827,46 +4807,42 @@
     <row r="89" ht="16.5" customHeight="1" s="13">
       <c r="A89" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B89" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
+          <t>Considere pools de nós spot para cargas de trabalho não sensíveis ao tempo</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>Não verificado</t>
         </is>
       </c>
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I89" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/spot-node-pool</t>
+        </is>
+      </c>
+      <c r="I89" s="16" t="n"/>
       <c r="J89" s="23" t="n"/>
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>c5a5b252-1e44-4a59-a9d2-399c4d7b68d0</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -4877,46 +4853,42 @@
     <row r="90" ht="16.5" customHeight="1" s="13">
       <c r="A90" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B90" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Use Firewall Manager with Virtual WAN to deploy and manage Azure firewalls across Virtual WAN hubs or in hub virtual networks. Firewall Manager is now in general availability for both Virtual WAN and regular virtual networks.</t>
+          <t>Considere o nó virtual AKS para intermitência rápida</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
       <c r="E90" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>Não verificado</t>
         </is>
       </c>
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I90" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/concepts-scale</t>
+        </is>
+      </c>
+      <c r="I90" s="16" t="n"/>
       <c r="J90" s="23" t="n"/>
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+          <t>c755562f-2b4e-4456-9b4d-874a748b662e</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -4927,46 +4899,42 @@
     <row r="91" ht="16.5" customHeight="1" s="13">
       <c r="A91" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B91" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Conformidade</t>
         </is>
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
+          <t>Para eventos planejados, considere o uso do Nó Auto Drain</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
       <c r="E91" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>Não verificado</t>
         </is>
       </c>
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I91" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/aks/node-auto-repair#node-autodrain</t>
+        </is>
+      </c>
+      <c r="I91" s="16" t="n"/>
       <c r="J91" s="23" t="n"/>
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -4977,46 +4945,42 @@
     <row r="92" ht="16.5" customHeight="1" s="13">
       <c r="A92" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B92" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Conformidade</t>
         </is>
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
+          <t>Desenvolver práticas de governança próprias para garantir que nenhuma alteração seja executada pelos operadores no nó RG (também conhecido como 'infra RG')</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
       <c r="E92" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>Não verificado</t>
         </is>
       </c>
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I92" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/faq</t>
+        </is>
+      </c>
+      <c r="I92" s="16" t="n"/>
       <c r="J92" s="23" t="n"/>
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5027,46 +4991,42 @@
     <row r="93" ht="16.5" customHeight="1" s="13">
       <c r="A93" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B93" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Conformidade</t>
         </is>
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Use WAF within a landing-zone virtual network for protecting inbound HTTP/S traffic from the internet.</t>
+          <t>Use o nome personalizado do nó RG (também conhecido como 'Infra RG')</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
       <c r="E93" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>Não verificado</t>
         </is>
       </c>
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I93" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/cluster-configuration</t>
+        </is>
+      </c>
+      <c r="I93" s="16" t="n"/>
       <c r="J93" s="23" t="n"/>
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>73b32a5a-67f7-4a9e-b5b3-1f38c3f39812</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5077,46 +5037,42 @@
     <row r="94" ht="16.5" customHeight="1" s="13">
       <c r="A94" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B94" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Conformidade</t>
         </is>
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
+          <t>Não use APIs do Kubernetes preteridas em seus manifestos YAML</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
       <c r="E94" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>Não verificado</t>
         </is>
       </c>
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
-        </is>
-      </c>
-      <c r="I94" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://kubernetes.io/docs/setup/release/notes/</t>
+        </is>
+      </c>
+      <c r="I94" s="16" t="n"/>
       <c r="J94" s="23" t="n"/>
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>b2463cff-e189-4c59-adf0-d5a73dd4ce32</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5127,46 +5083,42 @@
     <row r="95" ht="16.5" customHeight="1" s="13">
       <c r="A95" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B95" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Conformidade</t>
         </is>
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
+          <t>Taint nós do Windows</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
       <c r="E95" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>Não verificado</t>
         </is>
       </c>
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I95" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure-stack/aks-hci/adapt-apps-mixed-os-clusters</t>
+        </is>
+      </c>
+      <c r="I95" s="16" t="n"/>
       <c r="J95" s="23" t="n"/>
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>c1881370-6f7c-44c0-b4e5-14648d2457ed</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5177,46 +5129,42 @@
     <row r="96" ht="16.5" customHeight="1" s="13">
       <c r="A96" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B96" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Conformidade</t>
         </is>
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>If partner NVAs are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
+          <t>Mantenha o nível de patch dos contêineres do Windows em sincronia com o nível de patch do host</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
       <c r="E96" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>Não verificado</t>
         </is>
       </c>
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I96" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/virtualization/windowscontainers/deploy-containers/version-compatibility?tabs=windows-server-20H2%2Cwindows-10-20H2</t>
+        </is>
+      </c>
+      <c r="I96" s="16" t="n"/>
       <c r="J96" s="23" t="n"/>
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>67138b82-0102-4ce1-9ee3-01e6e882e52e</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5227,46 +5175,42 @@
     <row r="97" ht="16.5" customHeight="1" s="13">
       <c r="A97" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B97" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Use Azure DDoS Protection Standard protection plans to help protect all public endpoints hosted within the virtual networks.</t>
+          <t>Monitorar a utilização da CPU e da memória dos nós</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
       <c r="E97" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>Não verificado</t>
         </is>
       </c>
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
-        </is>
-      </c>
-      <c r="I97" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-monitor/containers/container-insights-analyze</t>
+        </is>
+      </c>
+      <c r="I97" s="16" t="n"/>
       <c r="J97" s="23" t="n"/>
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>4621dd68-c5a5-4be2-bdb1-1726769ef669</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5277,46 +5221,42 @@
     <row r="98" ht="16.5" customHeight="1" s="13">
       <c r="A98" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B98" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>Perform app delivery within landing zones for both internal-facing (corp) and external-facing apps (online).</t>
+          <t>Se estiver usando a CNI do Azure, monitore % de IPs de pod consumidos por nó</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
       <c r="E98" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>Não verificado</t>
         </is>
       </c>
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
-        </is>
-      </c>
-      <c r="I98" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
+        </is>
+      </c>
+      <c r="I98" s="16" t="n"/>
       <c r="J98" s="23" t="n"/>
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>1A4835AC-9422-423E-AE80-B123081A5417</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5327,46 +5267,46 @@
     <row r="99" ht="16.5" customHeight="1" s="13">
       <c r="A99" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B99" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>For secure delivery of HTTP/S apps, use Application Gateway v2 and ensure that WAF protection and policies are enabled.</t>
-        </is>
-      </c>
-      <c r="D99" s="22" t="n"/>
+          <t>Monitorar a profundidade da fila de disco do sistema operacional nos nós</t>
+        </is>
+      </c>
+      <c r="D99" s="22" t="inlineStr">
+        <is>
+          <t>A E/S no disco do sistema operacional é um recurso crítico. Se o sistema operacional nos nós for limitado na E/S, isso pode levar a um comportamento imprevisível, normalmente terminando no nó sendo declarado NotReady</t>
+        </is>
+      </c>
       <c r="E99" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>Não verificado</t>
         </is>
       </c>
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
-        </is>
-      </c>
-      <c r="I99" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/virtual-machines/premium-storage-performance</t>
+        </is>
+      </c>
+      <c r="I99" s="16" t="n"/>
       <c r="J99" s="23" t="n"/>
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
+          <t>415833ea-3ad3-4c2d-b733-165c3acbe04b</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5377,46 +5317,42 @@
     <row r="100" ht="16.5" customHeight="1" s="13">
       <c r="A100" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B100" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>Use a partner NVA if you can't use Application Gateway v2 for the security of HTTP/S apps.</t>
+          <t>Se não estiver usando a filtragem de saída com AzFW/NVA, monitore as portas SNAT ALB alocadas padrão</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
       <c r="E100" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>Não verificado</t>
         </is>
       </c>
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
-        </is>
-      </c>
-      <c r="I100" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/load-balancer-standard</t>
+        </is>
+      </c>
+      <c r="I100" s="16" t="n"/>
       <c r="J100" s="23" t="n"/>
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
+          <t>be209d39-fda4-4777-a424-d116785c2fa5</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5427,46 +5363,42 @@
     <row r="101" ht="16.5" customHeight="1" s="13">
       <c r="A101" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B101" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Deploy Azure Application Gateway v2 or partner NVAs used for inbound HTTP/S connections within the landing-zone virtual network and with the apps that they're securing.</t>
+          <t>Inscrever-se em notificações de integridade de recursos para seu cluster AKS</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
       <c r="E101" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>Não verificado</t>
         </is>
       </c>
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I101" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/aks-resource-health</t>
+        </is>
+      </c>
+      <c r="I101" s="16" t="n"/>
       <c r="J101" s="23" t="n"/>
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>74c2ee76-569b-4a79-a57e-dedf91b022c9</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5477,46 +5409,46 @@
     <row r="102" ht="16.5" customHeight="1" s="13">
       <c r="A102" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B102" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Conformidade</t>
         </is>
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Use a DDoS standard protection plan for all public IP addresses in a landing zone.</t>
-        </is>
-      </c>
-      <c r="D102" s="22" t="n"/>
+          <t>Enviar logs mestres (também conhecidos como logs de API) para o Azure Monitor ou sua solução de gerenciamento de logs preferida</t>
+        </is>
+      </c>
+      <c r="D102" s="22" t="inlineStr">
+        <is>
+          <t>Por meio das Configurações de Diagnóstico no nível do cluster</t>
+        </is>
+      </c>
       <c r="E102" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>Não verificado</t>
         </is>
       </c>
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I102" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/monitor-aks</t>
+        </is>
+      </c>
+      <c r="I102" s="16" t="n"/>
       <c r="J102" s="23" t="n"/>
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>5B56AD48-408F-4E72-934C-476BA280DCF5</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5527,46 +5459,42 @@
     <row r="103" ht="16.5" customHeight="1" s="13">
       <c r="A103" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B103" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Escalabilidade</t>
         </is>
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span Azure regions.</t>
+          <t>Usar o Cluster Autoscaler</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
       <c r="E103" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>Não verificado</t>
         </is>
       </c>
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I103" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/concepts-scale</t>
+        </is>
+      </c>
+      <c r="I103" s="16" t="n"/>
       <c r="J103" s="23" t="n"/>
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5577,46 +5505,42 @@
     <row r="104" ht="16.5" customHeight="1" s="13">
       <c r="A104" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B104" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Escalabilidade</t>
         </is>
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
+          <t>Personalizar a configuração do nó para pools de nós AKS</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
       <c r="E104" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>Não verificado</t>
         </is>
       </c>
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
-        </is>
-      </c>
-      <c r="I104" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/aks/custom-node-configuration</t>
+        </is>
+      </c>
+      <c r="I104" s="16" t="n"/>
       <c r="J104" s="23" t="n"/>
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5627,46 +5551,42 @@
     <row r="105" ht="16.5" customHeight="1" s="13">
       <c r="A105" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B105" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Escalabilidade</t>
         </is>
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
+          <t>Use o Horizontal Pod Autoscaler quando necessário</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
       <c r="E105" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>Não verificado</t>
         </is>
       </c>
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I105" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/concepts-scale</t>
+        </is>
+      </c>
+      <c r="I105" s="16" t="n"/>
       <c r="J105" s="23" t="n"/>
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>faa19bfe-9d55-4d04-a3c4-919ca1b2d121</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5677,46 +5597,46 @@
     <row r="106" ht="16.5" customHeight="1" s="13">
       <c r="A106" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Escalabilidade</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>If users only need access to internal applications, has Azure AD Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
-        </is>
-      </c>
-      <c r="D106" s="22" t="n"/>
+          <t>Considere um tamanho de nó apropriado, não muito grande ou muito pequeno</t>
+        </is>
+      </c>
+      <c r="D106" s="22" t="inlineStr">
+        <is>
+          <t>Nós maiores trarão maior desempenho e recursos, como discos efêmeros e rede acelerada, mas aumentarão o raio de explosão e diminuirão a granularidade de dimensionamento</t>
+        </is>
+      </c>
       <c r="E106" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>Não verificado</t>
         </is>
       </c>
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
-        </is>
-      </c>
-      <c r="I106" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
-        </is>
-      </c>
+          <t>https://blog.cloudtrooper.net/2020/10/23/which-vm-size-should-i-choose-as-aks-node/</t>
+        </is>
+      </c>
+      <c r="I106" s="16" t="n"/>
       <c r="J106" s="23" t="n"/>
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5727,46 +5647,46 @@
     <row r="107" ht="16.5" customHeight="1" s="13">
       <c r="A107" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B107" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Escalabilidade</t>
         </is>
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
-        </is>
-      </c>
-      <c r="D107" s="22" t="n"/>
+          <t>Se necessário para escalabilidade, considere adicionar mais de 5000 nós</t>
+        </is>
+      </c>
+      <c r="D107" s="22" t="inlineStr">
+        <is>
+          <t>Nós maiores trarão maior desempenho e recursos, como discos efêmeros e rede acelerada, mas aumentarão o raio de explosão e diminuirão a granularidade de dimensionamento</t>
+        </is>
+      </c>
       <c r="E107" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>Não verificado</t>
         </is>
       </c>
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I107" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/aks/quotas-skus-regions#service-quotas-and-limits</t>
+        </is>
+      </c>
+      <c r="I107" s="16" t="n"/>
       <c r="J107" s="23" t="n"/>
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5777,46 +5697,46 @@
     <row r="108" ht="16.5" customHeight="1" s="13">
       <c r="A108" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Escalabilidade</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Azure AD Application Proxy to give remote users secure and authenticated access to internal applications.</t>
-        </is>
-      </c>
-      <c r="D108" s="22" t="n"/>
+          <t>Considere assinar o EventGrid Events para automação AKS</t>
+        </is>
+      </c>
+      <c r="D108" s="22" t="inlineStr">
+        <is>
+          <t>Nós maiores trarão maior desempenho e recursos, como discos efêmeros e rede acelerada, mas aumentarão o raio de explosão e diminuirão a granularidade de dimensionamento</t>
+        </is>
+      </c>
       <c r="E108" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>Não verificado</t>
         </is>
       </c>
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
-        </is>
-      </c>
-      <c r="I108" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/event-grid/event-schema-aks</t>
+        </is>
+      </c>
+      <c r="I108" s="16" t="n"/>
       <c r="J108" s="23" t="n"/>
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -5827,46 +5747,46 @@
     <row r="109" ht="16.5" customHeight="1" s="13">
       <c r="A109" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B109" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Escalabilidade</t>
         </is>
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
-        </is>
-      </c>
-      <c r="D109" s="22" t="n"/>
+          <t>Para uma operação de longa duração em um cluster AKS, considere o encerramento do evento</t>
+        </is>
+      </c>
+      <c r="D109" s="22" t="inlineStr">
+        <is>
+          <t>Nós maiores trarão maior desempenho e recursos, como discos efêmeros e rede acelerada, mas aumentarão o raio de explosão e diminuirão a granularidade de dimensionamento</t>
+        </is>
+      </c>
       <c r="E109" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>Não verificado</t>
         </is>
       </c>
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I109" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/aks/manage-abort-operations</t>
+        </is>
+      </c>
+      <c r="I109" s="16" t="n"/>
       <c r="J109" s="23" t="n"/>
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -5877,46 +5797,46 @@
     <row r="110" ht="16.5" customHeight="1" s="13">
       <c r="A110" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B110" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Escalabilidade</t>
         </is>
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
-        </is>
-      </c>
-      <c r="D110" s="22" t="n"/>
+          <t>Se necessário, considere o uso de Hosts Dedicados do Azure para nós AKS</t>
+        </is>
+      </c>
+      <c r="D110" s="22" t="inlineStr">
+        <is>
+          <t>Nós maiores trarão maior desempenho e recursos, como discos efêmeros e rede acelerada, mas aumentarão o raio de explosão e diminuirão a granularidade de dimensionamento</t>
+        </is>
+      </c>
       <c r="E110" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>Não verificado</t>
         </is>
       </c>
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
-        </is>
-      </c>
-      <c r="I110" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/aks/use-azure-dedicated-hosts</t>
+        </is>
+      </c>
+      <c r="I110" s="16" t="n"/>
       <c r="J110" s="23" t="n"/>
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -5927,46 +5847,41 @@
     <row r="111" ht="16.5" customHeight="1" s="13">
       <c r="A111" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B111" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Recursos</t>
         </is>
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
+          <t>Configurar solicitações e limites em suas especificações de pod</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
       <c r="E111" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>Não verificado</t>
         </is>
       </c>
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>b54eb2eb-03dd-4aa3-9927-18e2edb11726</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -5977,46 +5892,42 @@
     <row r="112" ht="16.5" customHeight="1" s="13">
       <c r="A112" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Recursos</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
+          <t>Impor cotas de recursos para namespaces</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
       <c r="E112" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>Não verificado</t>
         </is>
       </c>
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I112" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
+        </is>
+      </c>
+      <c r="I112" s="16" t="n"/>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>769ef669-1a48-435a-a942-223ece80b123</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6027,46 +5938,42 @@
     <row r="113" ht="16.5" customHeight="1" s="13">
       <c r="A113" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Recursos</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs to selectively allow connectivity between landing zones.</t>
+          <t>Verifique se sua assinatura tem cota suficiente para expandir seus nodepools</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
       <c r="E113" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>Não verificado</t>
         </is>
       </c>
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I113" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+        </is>
+      </c>
+      <c r="I113" s="16" t="n"/>
       <c r="J113" s="23" t="n"/>
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>081A5417-4158-433E-A3AD-3C2DE733165C</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6077,46 +5984,42 @@
     <row r="114" ht="16.5" customHeight="1" s="13">
       <c r="A114" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Implantação de aplicativos</t>
         </is>
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Infraestrutura como código</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>For Virtual WAN topologies, route traffic across landing zones via Azure Firewall if the organization requires filtering and logging capabilities for traffic flowing across landing zones.</t>
+          <t>Usar a automação por meio do ARM/TF para criar seus recursos do Azure</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
       <c r="E114" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>Não verificado</t>
         </is>
       </c>
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I114" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/developer/terraform/create-k8s-cluster-with-tf-and-aks</t>
+        </is>
+      </c>
+      <c r="I114" s="16" t="n"/>
       <c r="J114" s="23" t="n"/>
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>3acbe04b-be20-49d3-afda-47778424d116</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6127,41 +6030,41 @@
     <row r="115" ht="16.5" customHeight="1" s="13">
       <c r="A115" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Implantação de aplicativos</t>
         </is>
       </c>
       <c r="B115" s="22" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>Desenvolvimento</t>
         </is>
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
+          <t>Usar implantações canárias ou azuis/verdes</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
       <c r="E115" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>Não verificado</t>
         </is>
       </c>
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/containers/aks/secure-baseline-aks</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>785c2fa5-5b56-4ad4-a408-fe72734c476b</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6172,46 +6075,41 @@
     <row r="116" ht="16.5" customHeight="1" s="13">
       <c r="A116" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Implantação de aplicativos</t>
         </is>
       </c>
       <c r="B116" s="22" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>Desenvolvimento</t>
         </is>
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>If traffic between Azure regions must be encrypted, use global VNet peering to connect virtual networks across regions.</t>
+          <t>Se requrired para cargas de trabalho do AKS Windows contêineres HostProcess podem ser usados</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
       <c r="E116" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>Não verificado</t>
         </is>
       </c>
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/aks/use-windows-hpc</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
+          <t>785c2fa5-5b56-4ad4-a408-fe72734c476b</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6222,46 +6120,41 @@
     <row r="117" ht="16.5" customHeight="1" s="13">
       <c r="A117" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Implantação de aplicativos</t>
         </is>
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>Desenvolvimento</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">For Virtual WAN scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a Virtual WAN VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
+          <t>Use o KEDA se estiver executando cargas de trabalho orientadas a eventos</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
       <c r="E117" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>Não verificado</t>
         </is>
       </c>
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/azure/azure-functions/functions-kubernetes-keda</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>A280DCF5-90CE-465D-B8E1-3F9CCBD46926</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6272,46 +6165,42 @@
     <row r="118" ht="16.5" customHeight="1" s="13">
       <c r="A118" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Implantação de aplicativos</t>
         </is>
       </c>
       <c r="B118" s="22" t="inlineStr">
         <is>
-          <t>Inspection</t>
+          <t>Desenvolvimento</t>
         </is>
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Use Network Watcher packets to capture despite the limited capture window.</t>
+          <t>Use o Dapr para facilitar o desenvolvimento de microsserviços</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
       <c r="E118" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>Não verificado</t>
         </is>
       </c>
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
-        </is>
-      </c>
-      <c r="I118" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
+          <t>https://dapr.io/</t>
+        </is>
+      </c>
+      <c r="I118" s="16" t="n"/>
       <c r="J118" s="23" t="n"/>
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>26886d20-b66c-457b-a591-19bf8e8f5c58</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -11535,7 +11424,7 @@
     <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F87" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F119" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -11626,7 +11515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gestão de Identidade e Acesso</t>
+          <t>Gerenciamento de Identidade e Acesso</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -11646,7 +11535,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Este cheque ainda não foi examinado.</t>
+          <t>Esta verificação ainda não foi analisada</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -11673,7 +11562,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Topologia e Conectividade de Rede</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -11683,7 +11572,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Há um item de ação associado a este cheque</t>
+          <t>Há um item de ação associado a essa verificação</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -11720,7 +11609,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Esta verificação foi verificada, e não há mais itens de ação associados a ele</t>
+          <t>Essa verificação foi verificada e não há mais itens de ação associados a ela</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -11752,7 +11641,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Recomendação compreendida, mas não necessária pelos requisitos atuais</t>
+          <t>Recomendação entendida, mas não necessária pelos requisitos atuais</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -11784,7 +11673,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Não é aplicável para o design atual</t>
+          <t>Não aplicável ao projeto atual</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">

--- a/spreadsheet/aks_checklist.pt.xlsx
+++ b/spreadsheet/aks_checklist.pt.xlsx
@@ -977,7 +977,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="14" t="inlineStr">
         <is>
-          <t>Revisão do Azure AKS</t>
+          <t>Azure AKS Review</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -2279,7 +2279,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>C4581559-BB91-463E-A908-AED8C44CE3B2</t>
+          <t>c4581559-bb91-463e-a908-aed8c44ce3b2</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2983,7 +2983,7 @@
       </c>
       <c r="B49" s="22" t="inlineStr">
         <is>
-          <t>Tem</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="C49" s="22" t="inlineStr">
@@ -3012,7 +3012,7 @@
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>E8A03F97-8794-468D-96A7-86D60F96C97B</t>
+          <t>e8a03f97-8794-468d-96a7-86d60f96c97b</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -5256,7 +5256,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>1A4835AC-9422-423E-AE80-B123081A5417</t>
+          <t>1a4835ac-9422-423e-ae80-b123081a5417</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5448,7 +5448,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>5B56AD48-408F-4E72-934C-476BA280DCF5</t>
+          <t>5b56ad48-408f-4e72-934c-476ba280dcf5</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5973,7 +5973,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>081A5417-4158-433E-A3AD-3C2DE733165C</t>
+          <t>081a5417-4158-433e-a3ad-3c2de733165c</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6154,7 +6154,7 @@
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>A280DCF5-90CE-465D-B8E1-3F9CCBD46926</t>
+          <t>a280dcf5-90ce-465d-b8e1-3f9ccbd46926</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -7110,7 +7110,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Employ Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -11399,7 +11399,7 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="9">
+  <dataValidations count="13">
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
@@ -11416,6 +11416,18 @@
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
     <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">

--- a/spreadsheet/aks_checklist.pt.xlsx
+++ b/spreadsheet/aks_checklist.pt.xlsx
@@ -1243,7 +1243,7 @@
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Usar Zonas de Disponibilidade se houver suporte em sua região do Azure</t>
+          <t>Usar Zonas de Disponibilidade se elas tiverem suporte em sua região do Azure</t>
         </is>
       </c>
       <c r="D11" s="22" t="n"/>

--- a/spreadsheet/aks_checklist.pt.xlsx
+++ b/spreadsheet/aks_checklist.pt.xlsx
@@ -1095,23 +1095,23 @@
     <row r="8" ht="16.5" customHeight="1" s="13">
       <c r="A8" s="22" t="inlineStr">
         <is>
-          <t>BC e DR</t>
+          <t>Implantação de aplicativos</t>
         </is>
       </c>
       <c r="B8" s="22" t="inlineStr">
         <is>
-          <t>Requisitos</t>
+          <t>Desenvolvimento</t>
         </is>
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>Definir requisitos não funcionais, como SLAs, RTO (Recovery Time Objective) e RPO (Recovery Point Objective).</t>
+          <t>Usar implantações canárias ou azuis/verdes</t>
         </is>
       </c>
       <c r="D8" s="22" t="n"/>
       <c r="E8" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1122,7 +1122,7 @@
       <c r="G8" s="22" t="n"/>
       <c r="H8" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/business-continuity-and-disaster-recovery</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/containers/aks/secure-baseline-aks</t>
         </is>
       </c>
       <c r="I8" s="16" t="n"/>
@@ -1130,7 +1130,7 @@
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>bc14aea6-e65d-48d9-a3ad-c218e6436b06</t>
+          <t>785c2fa5-5b56-4ad4-a408-fe72734c476b</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1141,23 +1141,23 @@
     <row r="9" ht="16.5" customHeight="1" s="13">
       <c r="A9" s="22" t="inlineStr">
         <is>
-          <t>BC e DR</t>
+          <t>Implantação de aplicativos</t>
         </is>
       </c>
       <c r="B9" s="22" t="inlineStr">
         <is>
-          <t>Recuperação de desastres</t>
+          <t>Desenvolvimento</t>
         </is>
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>Agende e realize testes de DR regularmente</t>
+          <t>Se requrired para cargas de trabalho do AKS Windows contêineres HostProcess podem ser usados</t>
         </is>
       </c>
       <c r="D9" s="22" t="n"/>
       <c r="E9" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1168,7 +1168,7 @@
       <c r="G9" s="22" t="n"/>
       <c r="H9" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/business-continuity-and-disaster-recovery</t>
+          <t>https://learn.microsoft.com/azure/aks/use-windows-hpc</t>
         </is>
       </c>
       <c r="I9" s="16" t="n"/>
@@ -1176,7 +1176,7 @@
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>36cb45e5-7960-4332-9bdf-8cc23318da61</t>
+          <t>ab5351f6-383a-45ed-9c5e-b143b16db40a</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1187,23 +1187,23 @@
     <row r="10" ht="16.5" customHeight="1" s="13">
       <c r="A10" s="22" t="inlineStr">
         <is>
-          <t>BC e DR</t>
+          <t>Implantação de aplicativos</t>
         </is>
       </c>
       <c r="B10" s="22" t="inlineStr">
         <is>
-          <t>Alta disponibilidade</t>
+          <t>Desenvolvimento</t>
         </is>
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>Usar o Gerenciador de Tráfego do Azure ou o Azure Front Door como um balanceador de carga global para failover de região</t>
+          <t>Use o KEDA se estiver executando cargas de trabalho orientadas a eventos</t>
         </is>
       </c>
       <c r="D10" s="22" t="n"/>
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1214,7 +1214,7 @@
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-multi-region</t>
+          <t>https://docs.microsoft.com/azure/azure-functions/functions-kubernetes-keda</t>
         </is>
       </c>
       <c r="I10" s="16" t="n"/>
@@ -1222,7 +1222,7 @@
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>170265f4-bb46-4a39-9af7-f317284797b1</t>
+          <t>a280dcf5-90ce-465d-b8e1-3f9ccbd46926</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1233,23 +1233,23 @@
     <row r="11" ht="16.5" customHeight="1" s="13">
       <c r="A11" s="22" t="inlineStr">
         <is>
-          <t>BC e DR</t>
+          <t>Implantação de aplicativos</t>
         </is>
       </c>
       <c r="B11" s="22" t="inlineStr">
         <is>
-          <t>Alta disponibilidade</t>
+          <t>Desenvolvimento</t>
         </is>
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Usar Zonas de Disponibilidade se elas tiverem suporte em sua região do Azure</t>
+          <t>Use o Dapr para facilitar o desenvolvimento de microsserviços</t>
         </is>
       </c>
       <c r="D11" s="22" t="n"/>
       <c r="E11" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1260,7 +1260,7 @@
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/availability-zones</t>
+          <t>https://dapr.io/</t>
         </is>
       </c>
       <c r="I11" s="16" t="n"/>
@@ -1268,7 +1268,7 @@
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>578a219a-46be-4b54-9350-24922634292b</t>
+          <t>26886d20-b66c-457b-a591-19bf8e8f5c58</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1279,23 +1279,23 @@
     <row r="12" ht="16.5" customHeight="1" s="13">
       <c r="A12" s="22" t="inlineStr">
         <is>
-          <t>BC e DR</t>
+          <t>Implantação de aplicativos</t>
         </is>
       </c>
       <c r="B12" s="22" t="inlineStr">
         <is>
-          <t>Alta disponibilidade</t>
+          <t>Infraestrutura como código</t>
         </is>
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>Use a oferta AKS apoiada por SLA</t>
+          <t>Usar a automação por meio do ARM/TF para criar seus recursos do Azure</t>
         </is>
       </c>
       <c r="D12" s="22" t="n"/>
       <c r="E12" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1306,7 +1306,7 @@
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/uptime-sla</t>
+          <t>https://docs.microsoft.com/azure/developer/terraform/create-k8s-cluster-with-tf-and-aks</t>
         </is>
       </c>
       <c r="I12" s="16" t="n"/>
@@ -1314,7 +1314,7 @@
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>71d41e36-10cc-457b-9a4b-1410d4395898</t>
+          <t>3acbe04b-be20-49d3-afda-47778424d116</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1330,18 +1330,18 @@
       </c>
       <c r="B13" s="22" t="inlineStr">
         <is>
-          <t>Alta disponibilidade</t>
+          <t>Recuperação de desastres</t>
         </is>
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>Usar orçamentos de interrupção em seu pod e definições de implantação</t>
+          <t>Agende e realize testes de DR regularmente</t>
         </is>
       </c>
       <c r="D13" s="22" t="n"/>
       <c r="E13" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1352,7 +1352,7 @@
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/business-continuity-and-disaster-recovery</t>
         </is>
       </c>
       <c r="I13" s="16" t="n"/>
@@ -1360,7 +1360,7 @@
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>c1288b3c-6a57-4cfc-9444-51e1a3d3453a</t>
+          <t>36cb45e5-7960-4332-9bdf-8cc23318da61</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1381,13 +1381,13 @@
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>Se estiver usando um registro privado, configure a replicação de região para armazenar imagens em várias regiões</t>
+          <t>Usar o Gerenciador de Tráfego do Azure ou o Azure Front Door como um balanceador de carga global para failover de região</t>
         </is>
       </c>
       <c r="D14" s="22" t="n"/>
       <c r="E14" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1398,7 +1398,7 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/container-registry/container-registry-geo-replication</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-multi-region</t>
         </is>
       </c>
       <c r="I14" s="16" t="n"/>
@@ -1406,7 +1406,7 @@
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>3c763963-7a55-42d5-a15e-401955387e5c</t>
+          <t>170265f4-bb46-4a39-9af7-f317284797b1</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1417,23 +1417,23 @@
     <row r="15" ht="16.5" customHeight="1" s="13">
       <c r="A15" s="22" t="inlineStr">
         <is>
-          <t>Gerenciamento de Identidade e Acesso</t>
+          <t>BC e DR</t>
         </is>
       </c>
       <c r="B15" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Alta disponibilidade</t>
         </is>
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>Usar identidades gerenciadas em vez de Entidades de Serviço</t>
+          <t>Usar Zonas de Disponibilidade se elas tiverem suporte em sua região do Azure</t>
         </is>
       </c>
       <c r="D15" s="22" t="n"/>
       <c r="E15" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1444,7 +1444,7 @@
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/use-managed-identity</t>
+          <t>https://docs.microsoft.com/azure/aks/availability-zones</t>
         </is>
       </c>
       <c r="I15" s="16" t="n"/>
@@ -1452,7 +1452,7 @@
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>ed127dd1-42b0-46b2-8c69-99a646f3389a</t>
+          <t>578a219a-46be-4b54-9350-24922634292b</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1463,23 +1463,23 @@
     <row r="16" ht="16.5" customHeight="1" s="13">
       <c r="A16" s="22" t="inlineStr">
         <is>
-          <t>Gerenciamento de Identidade e Acesso</t>
+          <t>BC e DR</t>
         </is>
       </c>
       <c r="B16" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Alta disponibilidade</t>
         </is>
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>Integrar a autenticação com o AAD (usando a integração gerenciada)</t>
+          <t>Use a oferta AKS apoiada por SLA</t>
         </is>
       </c>
       <c r="D16" s="22" t="n"/>
       <c r="E16" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1490,7 +1490,7 @@
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/managed-aad</t>
+          <t>https://docs.microsoft.com/azure/aks/uptime-sla</t>
         </is>
       </c>
       <c r="I16" s="16" t="n"/>
@@ -1498,7 +1498,7 @@
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>7e42c78e-78c0-46a6-8a21-94956e698dc4</t>
+          <t>71d41e36-10cc-457b-9a4b-1410d4395898</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1509,23 +1509,23 @@
     <row r="17" ht="16.5" customHeight="1" s="13">
       <c r="A17" s="22" t="inlineStr">
         <is>
-          <t>Gerenciamento de Identidade e Acesso</t>
+          <t>BC e DR</t>
         </is>
       </c>
       <c r="B17" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Alta disponibilidade</t>
         </is>
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>Limitar o acesso ao admin kubeconfig (get-credentials --admin)</t>
+          <t>Usar orçamentos de interrupção em seu pod e definições de implantação</t>
         </is>
       </c>
       <c r="D17" s="22" t="n"/>
       <c r="E17" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1536,7 +1536,7 @@
       <c r="G17" s="22" t="n"/>
       <c r="H17" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/control-kubeconfig-access</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
         </is>
       </c>
       <c r="I17" s="16" t="n"/>
@@ -1544,7 +1544,7 @@
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>a2fe27b2-e287-401a-8352-beedf79b488d</t>
+          <t>c1288b3c-6a57-4cfc-9444-51e1a3d3453a</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1555,23 +1555,23 @@
     <row r="18" ht="16.5" customHeight="1" s="13">
       <c r="A18" s="22" t="inlineStr">
         <is>
-          <t>Gerenciamento de Identidade e Acesso</t>
+          <t>BC e DR</t>
         </is>
       </c>
       <c r="B18" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Alta disponibilidade</t>
         </is>
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>Integrar autorização com o AAD RBAC</t>
+          <t>Se estiver usando um registro privado, configure a replicação de região para armazenar imagens em várias regiões</t>
         </is>
       </c>
       <c r="D18" s="22" t="n"/>
       <c r="E18" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1582,7 +1582,7 @@
       <c r="G18" s="22" t="n"/>
       <c r="H18" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/manage-azure-rbac</t>
+          <t>https://docs.microsoft.com/azure/container-registry/container-registry-geo-replication</t>
         </is>
       </c>
       <c r="I18" s="16" t="n"/>
@@ -1590,7 +1590,7 @@
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>eec4962c-c3bd-421b-b77f-26e5e6b3bec3</t>
+          <t>3c763963-7a55-42d5-a15e-401955387e5c</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1601,17 +1601,17 @@
     <row r="19" ht="16.5" customHeight="1" s="13">
       <c r="A19" s="22" t="inlineStr">
         <is>
-          <t>Gerenciamento de Identidade e Acesso</t>
+          <t>BC e DR</t>
         </is>
       </c>
       <c r="B19" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Requisitos</t>
         </is>
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>Usar namespaces para restringir o privilégio RBAC no Kubernetes</t>
+          <t>Definir requisitos não funcionais, como SLAs, RTO (Recovery Time Objective) e RPO (Recovery Point Objective).</t>
         </is>
       </c>
       <c r="D19" s="22" t="n"/>
@@ -1628,7 +1628,7 @@
       <c r="G19" s="22" t="n"/>
       <c r="H19" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-identity</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/business-continuity-and-disaster-recovery</t>
         </is>
       </c>
       <c r="I19" s="16" t="n"/>
@@ -1636,7 +1636,7 @@
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>d4f3537c-1346-4dc5-9027-a71ffe1bd05d</t>
+          <t>bc14aea6-e65d-48d9-a3ad-c218e6436b06</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1647,23 +1647,23 @@
     <row r="20" ht="16.5" customHeight="1" s="13">
       <c r="A20" s="22" t="inlineStr">
         <is>
-          <t>Gerenciamento de Identidade e Acesso</t>
+          <t>Governança de Custos</t>
         </is>
       </c>
       <c r="B20" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>Para o Gerenciamento de Acesso de Identidade POD, use a Identidade da Carga de Trabalho do Azure AD (visualização)</t>
+          <t>Use um aplicativo externo, como o kubecost, para alocar custos para diferentes usuários</t>
         </is>
       </c>
       <c r="D20" s="22" t="n"/>
       <c r="E20" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1674,7 +1674,7 @@
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/workload-identity-migration-sidecar</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/scenarios/aks/eslz-cost-governance-with-kubecost</t>
         </is>
       </c>
       <c r="I20" s="16" t="n"/>
@@ -1682,7 +1682,7 @@
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
+          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1693,23 +1693,23 @@
     <row r="21" ht="16.5" customHeight="1" s="13">
       <c r="A21" s="22" t="inlineStr">
         <is>
-          <t>Gerenciamento de Identidade e Acesso</t>
+          <t>Governança de Custos</t>
         </is>
       </c>
       <c r="B21" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>Para logins não interativos do AKS, use kubelogin (visualização)</t>
+          <t>Se necessário, dimensione instantâneos do NodePool</t>
         </is>
       </c>
       <c r="D21" s="22" t="n"/>
       <c r="E21" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1720,7 +1720,7 @@
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/managed-aad#non-interactive-sign-in-with-kubelogin</t>
+          <t>https://learn.microsoft.com/azure/aks/node-pool-snapshot</t>
         </is>
       </c>
       <c r="I21" s="16" t="n"/>
@@ -1728,7 +1728,7 @@
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
+          <t>64d1a846-e28a-4b6b-9a33-22a635c15a21</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1739,23 +1739,23 @@
     <row r="22" ht="16.5" customHeight="1" s="13">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>Gerenciamento de Identidade e Acesso</t>
+          <t>Governança de Custos</t>
         </is>
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Desativar contas locais do AKS</t>
+          <t>Usar o modo de redução para excluir/desalocar nós</t>
         </is>
       </c>
       <c r="D22" s="22" t="n"/>
       <c r="E22" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1766,7 +1766,7 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/managed-aad#disable-local-accounts</t>
+          <t>https://learn.microsoft.com/azure/aks/scale-down-mode</t>
         </is>
       </c>
       <c r="I22" s="16" t="n"/>
@@ -1774,7 +1774,7 @@
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
+          <t>4d3dfbab-9924-4831-a68d-fdf0d72f462c</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1785,23 +1785,23 @@
     <row r="23" ht="16.5" customHeight="1" s="13">
       <c r="A23" s="22" t="inlineStr">
         <is>
-          <t>Gerenciamento de Identidade e Acesso</t>
+          <t>Governança de Custos</t>
         </is>
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>Configurar, se necessário, acesso ao cluster Just-in-time</t>
+          <t>Quando necessário, use GPU de partioning de várias instâncias em clusters AKS</t>
         </is>
       </c>
       <c r="D23" s="22" t="n"/>
       <c r="E23" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1812,7 +1812,7 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/managed-aad#configure-just-in-time-cluster-access-with-azure-ad-and-aks</t>
+          <t>https://learn.microsoft.com/azure/aks/gpu-multi-instance</t>
         </is>
       </c>
       <c r="I23" s="16" t="n"/>
@@ -1820,7 +1820,7 @@
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
+          <t>87e651ea-bc4a-4a87-a6df-c06a4b570ebc</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1831,17 +1831,17 @@
     <row r="24" ht="16.5" customHeight="1" s="13">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>Gerenciamento de Identidade e Acesso</t>
+          <t>Governança de Custos</t>
         </is>
       </c>
       <c r="B24" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>Configurar, se necessário, o acesso condicional do AAD para AKS</t>
+          <t>Se estiver executando um cluster de Desenvolvimento/Teste, use Iniciar/Parar do NodePool</t>
         </is>
       </c>
       <c r="D24" s="22" t="n"/>
@@ -1858,7 +1858,7 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/managed-aad#use-conditional-access-with-azure-ad-and-aks</t>
+          <t>https://learn.microsoft.com/azure/aks/start-stop-nodepools</t>
         </is>
       </c>
       <c r="I24" s="16" t="n"/>
@@ -1866,7 +1866,7 @@
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
+          <t>2b72a08b-0410-4cd6-9093-e068a5cf27e8</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1877,23 +1877,23 @@
     <row r="25" ht="16.5" customHeight="1" s="13">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>Gerenciamento de Identidade e Acesso</t>
+          <t>Governança e Segurança</t>
         </is>
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Conformidade</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se necessário para cargas de trabalho do Windows AKS, configure o gMSA </t>
+          <t>Usar a Política do Azure para Kubernetes para garantir a conformidade do cluster</t>
         </is>
       </c>
       <c r="D25" s="22" t="n"/>
       <c r="E25" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1904,7 +1904,7 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-group-managed-service-accounts</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/policy-for-kubernetes</t>
         </is>
       </c>
       <c r="I25" s="16" t="n"/>
@@ -1912,7 +1912,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
+          <t>9ca48e4a-85e2-4223-bce8-bb12307ca5f1</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -1923,17 +1923,17 @@
     <row r="26" ht="16.5" customHeight="1" s="13">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>Gerenciamento de Identidade e Acesso</t>
+          <t>Governança e Segurança</t>
         </is>
       </c>
       <c r="B26" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Conformidade</t>
         </is>
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>Para um controle mais preciso, considere o uso de uma identidade Kubelet gerenciada</t>
+          <t>Separe os aplicativos do plano de controle com os nodepools do usuário/sistema</t>
         </is>
       </c>
       <c r="D26" s="22" t="n"/>
@@ -1950,7 +1950,7 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-managed-identity#use-a-pre-created-kubelet-managed-identity</t>
+          <t>https://docs.microsoft.com/azure/aks/use-system-pools</t>
         </is>
       </c>
       <c r="I26" s="16" t="n"/>
@@ -1958,7 +1958,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
+          <t>6f158e3e-a3a9-42c2-be7e-2165c3a87af4</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -1969,23 +1969,23 @@
     <row r="27" ht="16.5" customHeight="1" s="13">
       <c r="A27" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Governança e Segurança</t>
         </is>
       </c>
       <c r="B27" s="22" t="inlineStr">
         <is>
-          <t>IPAM</t>
+          <t>Conformidade</t>
         </is>
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>Escolha o melhor plug-in de rede CNI para suas necessidades (CNI do Azure recomendado)</t>
+          <t>Adicione taint ao nodepool do seu sistema para torná-lo dedicado</t>
         </is>
       </c>
       <c r="D27" s="22" t="n"/>
       <c r="E27" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1996,14 +1996,14 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
+          <t>https://docs.microsoft.com/azure/aks/use-system-pools</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>a0f61565-9de5-458f-a372-49c831112dbd</t>
+          <t>a7a1f893-9bda-4477-98f2-4c116775c2ea</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2014,23 +2014,23 @@
     <row r="28" ht="16.5" customHeight="1" s="13">
       <c r="A28" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Governança e Segurança</t>
         </is>
       </c>
       <c r="B28" s="22" t="inlineStr">
         <is>
-          <t>IPAM</t>
+          <t>Conformidade</t>
         </is>
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>Se estiver usando a CNI do Azure, dimensione sua sub-rede de acordo, considerando o número máximo de pods por nó</t>
+          <t>Usar um registro privado para suas imagens, como ACR</t>
         </is>
       </c>
       <c r="D28" s="22" t="n"/>
       <c r="E28" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2041,14 +2041,14 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
+          <t>https://docs.microsoft.com/azure/container-registry/</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>7faf12e7-0943-4f63-8472-2da29c2b1cd6</t>
+          <t>55b46a94-8008-4ae7-b7e4-b475b6c8bdbf</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2059,23 +2059,23 @@
     <row r="29" ht="16.5" customHeight="1" s="13">
       <c r="A29" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Governança e Segurança</t>
         </is>
       </c>
       <c r="B29" s="22" t="inlineStr">
         <is>
-          <t>IPAM</t>
+          <t>Conformidade</t>
         </is>
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>Se estiver usando a CNI do Azure, verifique o máximo de pods/nós (padrão 30)</t>
+          <t>Verificar suas imagens em busca de vulnerabilidades</t>
         </is>
       </c>
       <c r="D29" s="22" t="n"/>
       <c r="E29" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2086,14 +2086,14 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
+          <t>https://docs.microsoft.com/azure/security-center/container-security</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>22f54b29-bade-43aa-b1e8-c38ec9366673</t>
+          <t>59bce65d-e8a0-43f9-9879-468d66a786d6</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2102,29 +2102,21 @@
       <c r="P29" s="26" t="n"/>
     </row>
     <row r="30" ht="16.5" customHeight="1" s="13">
-      <c r="A30" s="22" t="inlineStr">
-        <is>
-          <t>Topologia e conectividade de rede</t>
-        </is>
-      </c>
+      <c r="A30" s="22" t="n"/>
       <c r="B30" s="22" t="inlineStr">
         <is>
-          <t>IPAM</t>
+          <t>Conformidade</t>
         </is>
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Se estiver usando serviços LoadBalancer de IP privado, use uma sub-rede dedicada (não a sub-rede AKS)</t>
-        </is>
-      </c>
-      <c r="D30" s="22" t="inlineStr">
-        <is>
-          <t>Para aplicativos internos, as organizações geralmente abrem toda a sub-rede AKS em seus firewalls. Isso também abre o acesso de rede aos nós e, potencialmente, aos pods também (se estiver usando a CNI do Azure). Se os IPs do LoadBalancer estiverem em uma sub-rede diferente, somente este precisará estar disponível para os clientes do aplicativo. Outra razão é que, se os endereços IP na sub-rede AKS forem um recurso escasso, consumir seus endereços IP para serviços reduzirá a escalabilidade máxima do cluster.</t>
-        </is>
-      </c>
+          <t>Usar a Central de Segurança do Azure para detectar vulnerabilidades de postura de segurança</t>
+        </is>
+      </c>
+      <c r="D30" s="22" t="n"/>
       <c r="E30" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2135,14 +2127,14 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/internal-lb</t>
+          <t>https://docs.microsoft.com/azure/security-center/container-security</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>13c00567-4b1e-4945-a459-c373e7ed6162</t>
+          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2153,23 +2145,23 @@
     <row r="31" ht="16.5" customHeight="1" s="13">
       <c r="A31" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Governança e Segurança</t>
         </is>
       </c>
       <c r="B31" s="22" t="inlineStr">
         <is>
-          <t>IPAM</t>
+          <t>Conformidade</t>
         </is>
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>Dimensione o intervalo de endereços IP do serviço de acordo (ele limitará a escalabilidade do cluster)</t>
+          <t>Se necessário, configure o FIPS</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
       <c r="E31" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2180,14 +2172,14 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
+          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#add-a-fips-enabled-node-pool</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
+          <t>42d4aefe-2383-470e-b019-c30df24996b2</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2198,17 +2190,17 @@
     <row r="32" ht="16.5" customHeight="1" s="13">
       <c r="A32" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Governança e Segurança</t>
         </is>
       </c>
       <c r="B32" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Conformidade</t>
         </is>
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Filtre o tráfego de saída com o AzFW/NVA se os requisitos de segurança o exigirem</t>
+          <t>Definir requisitos de separação de aplicativos (namespace/nodepool/cluster)</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
@@ -2225,7 +2217,7 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/limit-egress-traffic</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-cluster-isolation</t>
         </is>
       </c>
       <c r="I32" s="16" t="n"/>
@@ -2233,7 +2225,7 @@
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>3b365a91-7ecb-4e48-bbe5-4cd7df2e8bba</t>
+          <t>d167dd18-2b0a-4c24-8b99-9a646f8389a7</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2244,17 +2236,17 @@
     <row r="33" ht="16.5" customHeight="1" s="13">
       <c r="A33" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Governança e Segurança</t>
         </is>
       </c>
       <c r="B33" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>Se estiver usando um ponto de extremidade de API pública, restrinja os endereços IP que podem acessá-lo</t>
+          <t>Armazenar seus segredos no Cofre da Chave do Azure com o driver do CSI Secrets Store</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
@@ -2271,7 +2263,7 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/api-server-authorized-ip-ranges</t>
+          <t>https://github.com/Azure/secrets-store-csi-driver-provider-azure</t>
         </is>
       </c>
       <c r="I33" s="16" t="n"/>
@@ -2279,7 +2271,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>c4581559-bb91-463e-a908-aed8c44ce3b2</t>
+          <t>5e3df584-eccc-4d97-a3b6-bcda3b50eb2e</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2290,23 +2282,23 @@
     <row r="34" ht="16.5" customHeight="1" s="13">
       <c r="A34" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Governança e Segurança</t>
         </is>
       </c>
       <c r="B34" s="22" t="inlineStr">
         <is>
-          <t>Escalabilidade</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>Use um controlador de entrada para expor aplicativos baseados na Web em vez de expô-los com serviços do tipo LoadBalancer</t>
+          <t>Se estiver usando Entidades de Serviço para o cluster, atualize as credenciais periodicamente (como trimestralmente)</t>
         </is>
       </c>
       <c r="D34" s="22" t="n"/>
       <c r="E34" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2317,7 +2309,7 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/concepts-network</t>
+          <t>https://docs.microsoft.com/azure/aks/update-credentials</t>
         </is>
       </c>
       <c r="I34" s="16" t="n"/>
@@ -2325,7 +2317,7 @@
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
+          <t>b03dda6d-58d7-4c89-8ddb-107d5769ae66</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2336,23 +2328,23 @@
     <row r="35" ht="16.5" customHeight="1" s="13">
       <c r="A35" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Governança e Segurança</t>
         </is>
       </c>
       <c r="B35" s="22" t="inlineStr">
         <is>
-          <t>Escalabilidade</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>Usar o Azue NAT Gateway como outboundType para dimensionar o tráfego de saída</t>
+          <t>Se necessário, adicione criptografia etcd do Serviço de Gerenciamento de Chaves</t>
         </is>
       </c>
       <c r="D35" s="22" t="n"/>
       <c r="E35" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2363,7 +2355,7 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/nat-gateway</t>
+          <t>https://learn.microsoft.com/azure/aks/use-kms-etcd-encryption</t>
         </is>
       </c>
       <c r="I35" s="16" t="n"/>
@@ -2371,7 +2363,7 @@
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
+          <t>e7ba73a3-0508-4f80-806f-527db30cee96</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2382,23 +2374,23 @@
     <row r="36" ht="16.5" customHeight="1" s="13">
       <c r="A36" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Governança e Segurança</t>
         </is>
       </c>
       <c r="B36" s="22" t="inlineStr">
         <is>
-          <t>Escalabilidade</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>Usar alocações dinâmicas de IPs para evitar o esgotamento do IP da CNI do Azure</t>
+          <t>Se necessário, considere o uso de Computação Confidencial para AKS</t>
         </is>
       </c>
       <c r="D36" s="22" t="n"/>
       <c r="E36" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2409,7 +2401,7 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni#dynamic-allocation-of-ips-and-enhanced-subnet-support</t>
+          <t>https://learn.microsoft.com/azure/confidential-computing/confidential-nodes-aks-overview</t>
         </is>
       </c>
       <c r="I36" s="16" t="n"/>
@@ -2417,7 +2409,7 @@
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
+          <t>ec8e4e42-0344-41b0-b865-9123e8956d31</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2428,17 +2420,17 @@
     <row r="37" ht="16.5" customHeight="1" s="13">
       <c r="A37" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Governança e Segurança</t>
         </is>
       </c>
       <c r="B37" s="22" t="inlineStr">
         <is>
-          <t>Práticas recomendadas</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>Se estiver usando AGIC, não compartilhe um AppGW entre clusters</t>
+          <t>Considere o uso do Defender for Containers</t>
         </is>
       </c>
       <c r="D37" s="22" t="n"/>
@@ -2455,7 +2447,7 @@
       <c r="G37" s="22" t="n"/>
       <c r="H37" s="16" t="inlineStr">
         <is>
-          <t>https://azure.github.io/application-gateway-kubernetes-ingress/setup/install-existing/</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-enable</t>
         </is>
       </c>
       <c r="I37" s="16" t="n"/>
@@ -2463,7 +2455,7 @@
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>cbd8ac2a-aebc-4a2a-94da-1dbf3dc99248</t>
+          <t>c9e95ffe-6dd1-4a17-8c5f-110389ca9b21</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2474,23 +2466,23 @@
     <row r="38" ht="16.5" customHeight="1" s="13">
       <c r="A38" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Gerenciamento de Identidade e Acesso</t>
         </is>
       </c>
       <c r="B38" s="22" t="inlineStr">
         <is>
-          <t>Custar</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>Usar Pontos de Extremidade Privados (preferencialmente) ou Pontos de Extremidade de Serviço de Rede Virtual para acessar serviços de PaaS a partir do cluster</t>
+          <t>Usar identidades gerenciadas em vez de Entidades de Serviço</t>
         </is>
       </c>
       <c r="D38" s="22" t="n"/>
       <c r="E38" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2501,7 +2493,7 @@
       <c r="G38" s="22" t="n"/>
       <c r="H38" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/private-link/private-link-overview</t>
+          <t>https://docs.microsoft.com/azure/aks/use-managed-identity</t>
         </is>
       </c>
       <c r="I38" s="16" t="n"/>
@@ -2509,7 +2501,7 @@
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>c3c39c98-6bb2-4c12-859a-114b5e3df584</t>
+          <t>ed127dd1-42b0-46b2-8c69-99a646f3389a</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2520,23 +2512,23 @@
     <row r="39" ht="16.5" customHeight="1" s="13">
       <c r="A39" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Gerenciamento de Identidade e Acesso</t>
         </is>
       </c>
       <c r="B39" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>Usar clusters privados se suas necessidades exigirem</t>
+          <t>Integrar a autenticação com o AAD (usando a integração gerenciada)</t>
         </is>
       </c>
       <c r="D39" s="22" t="n"/>
       <c r="E39" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2547,7 +2539,7 @@
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/private-clusters</t>
+          <t>https://docs.microsoft.com/azure/aks/managed-aad</t>
         </is>
       </c>
       <c r="I39" s="16" t="n"/>
@@ -2555,7 +2547,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
+          <t>7e42c78e-78c0-46a6-8a21-94956e698dc4</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2566,17 +2558,17 @@
     <row r="40" ht="16.5" customHeight="1" s="13">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Gerenciamento de Identidade e Acesso</t>
         </is>
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para nós AKS do Windows 2019 e 2022, as políticas de rede Calico podem ser usadas </t>
+          <t>Limitar o acesso ao admin kubeconfig (get-credentials --admin)</t>
         </is>
       </c>
       <c r="D40" s="22" t="n"/>
@@ -2593,7 +2585,7 @@
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-network-policies</t>
+          <t>https://docs.microsoft.com/azure/aks/control-kubeconfig-access</t>
         </is>
       </c>
       <c r="I40" s="16" t="n"/>
@@ -2601,7 +2593,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
+          <t>a2fe27b2-e287-401a-8352-beedf79b488d</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2612,23 +2604,23 @@
     <row r="41" ht="16.5" customHeight="1" s="13">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Gerenciamento de Identidade e Acesso</t>
         </is>
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>Habilitar uma opção de Política de Rede do Kubernetes (Calico/Azure)</t>
+          <t>Integrar autorização com o AAD RBAC</t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
       <c r="E41" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2639,7 +2631,7 @@
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/use-network-policies</t>
+          <t>https://docs.microsoft.com/azure/aks/manage-azure-rbac</t>
         </is>
       </c>
       <c r="I41" s="16" t="n"/>
@@ -2647,7 +2639,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>58d7c892-ddb1-407d-9769-ae669ca48e4a</t>
+          <t>eec4962c-c3bd-421b-b77f-26e5e6b3bec3</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2658,17 +2650,17 @@
     <row r="42" ht="16.5" customHeight="1" s="13">
       <c r="A42" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Gerenciamento de Identidade e Acesso</t>
         </is>
       </c>
       <c r="B42" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>Use as diretivas de rede do Kubernetes para aumentar a segurança intracluster</t>
+          <t>Usar namespaces para restringir o privilégio RBAC no Kubernetes</t>
         </is>
       </c>
       <c r="D42" s="22" t="n"/>
@@ -2685,7 +2677,7 @@
       <c r="G42" s="22" t="n"/>
       <c r="H42" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-identity</t>
         </is>
       </c>
       <c r="I42" s="16" t="n"/>
@@ -2693,7 +2685,7 @@
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>85e2223e-ce8b-4b12-907c-a5f16f158e3e</t>
+          <t>d4f3537c-1346-4dc5-9027-a71ffe1bd05d</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2704,23 +2696,23 @@
     <row r="43" ht="16.5" customHeight="1" s="13">
       <c r="A43" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Gerenciamento de Identidade e Acesso</t>
         </is>
       </c>
       <c r="B43" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>Usar um WAF para cargas de trabalho da Web (interfaces de usuário ou APIs)</t>
+          <t>Para o Gerenciamento de Acesso de Identidade POD, use a Identidade da Carga de Trabalho do Azure AD (visualização)</t>
         </is>
       </c>
       <c r="D43" s="22" t="n"/>
       <c r="E43" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2731,7 +2723,7 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
+          <t>https://learn.microsoft.com/azure/aks/workload-identity-migration-sidecar</t>
         </is>
       </c>
       <c r="I43" s="16" t="n"/>
@@ -2739,7 +2731,7 @@
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>a3a92c2d-e7e2-4165-a3a8-7af4a7a1f893</t>
+          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2750,17 +2742,17 @@
     <row r="44" ht="16.5" customHeight="1" s="13">
       <c r="A44" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Gerenciamento de Identidade e Acesso</t>
         </is>
       </c>
       <c r="B44" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>Usar DDoS Standard na Rede Virtual AKS</t>
+          <t>Para logins não interativos do AKS, use kubelogin (visualização)</t>
         </is>
       </c>
       <c r="D44" s="22" t="n"/>
@@ -2777,7 +2769,7 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#non-interactive-sign-in-with-kubelogin</t>
         </is>
       </c>
       <c r="I44" s="16" t="n"/>
@@ -2785,7 +2777,7 @@
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
+          <t>f4dcf690-1b30-407d-abab-6f8aa780d3a3</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2796,23 +2788,23 @@
     <row r="45" ht="16.5" customHeight="1" s="13">
       <c r="A45" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Gerenciamento de Identidade e Acesso</t>
         </is>
       </c>
       <c r="B45" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>Se necessário, adicione o Proxy HTTP da empresa</t>
+          <t>Desativar contas locais do AKS</t>
         </is>
       </c>
       <c r="D45" s="22" t="n"/>
       <c r="E45" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2823,14 +2815,14 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/http-proxy</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#disable-local-accounts</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
+          <t>b085b1f2-3119-4771-8c9a-bbf4411810ec</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2841,23 +2833,23 @@
     <row r="46" ht="16.5" customHeight="1" s="13">
       <c r="A46" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Gerenciamento de Identidade e Acesso</t>
         </is>
       </c>
       <c r="B46" s="22" t="inlineStr">
         <is>
-          <t>Práticas recomendadas</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>Não use o AKS Application Routing Add-On</t>
+          <t>Configurar, se necessário, acesso ao cluster Just-in-time</t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
       <c r="E46" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2868,7 +2860,7 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/http-application-routing</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#configure-just-in-time-cluster-access-with-azure-ad-and-aks</t>
         </is>
       </c>
       <c r="I46" s="16" t="n"/>
@@ -2876,7 +2868,7 @@
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
+          <t>36abb0db-c118-4f4c-9880-3f30f9a2deb6</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -2887,23 +2879,23 @@
     <row r="47" ht="16.5" customHeight="1" s="13">
       <c r="A47" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Gerenciamento de Identidade e Acesso</t>
         </is>
       </c>
       <c r="B47" s="22" t="inlineStr">
         <is>
-          <t>Práticas recomendadas</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>Para cargas de trabalho do Windows, use a Rede Acelerada</t>
+          <t>Configurar, se necessário, o acesso condicional do AAD para AKS</t>
         </is>
       </c>
       <c r="D47" s="22" t="n"/>
       <c r="E47" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2914,7 +2906,7 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#use-conditional-access-with-azure-ad-and-aks</t>
         </is>
       </c>
       <c r="I47" s="16" t="n"/>
@@ -2922,7 +2914,7 @@
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
+          <t>c4d7f4c6-79bf-45d0-aa05-ce8fc717e150</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -2933,23 +2925,23 @@
     <row r="48" ht="16.5" customHeight="1" s="13">
       <c r="A48" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Gerenciamento de Identidade e Acesso</t>
         </is>
       </c>
       <c r="B48" s="22" t="inlineStr">
         <is>
-          <t>Práticas recomendadas</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>Use o ALB padrão (em oposição ao básico)</t>
+          <t xml:space="preserve">Se necessário para cargas de trabalho do Windows AKS, configure o gMSA </t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
       <c r="E48" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2960,14 +2952,14 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/load-balancer-standard</t>
+          <t>https://learn.microsoft.com/azure/aks/use-group-managed-service-accounts</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>ba7da7be-9952-4914-a384-5d997cb39132</t>
+          <t>e1123a7c-a333-4eb4-a120-4ee3f293c9f3</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -2978,17 +2970,17 @@
     <row r="49" ht="16.5" customHeight="1" s="13">
       <c r="A49" s="22" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Gerenciamento de Identidade e Acesso</t>
         </is>
       </c>
       <c r="B49" s="22" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Se a conectividade híbrida for necessária, use 2xER ou ER+VPN para melhor disponibilidade</t>
+          <t>Para um controle mais preciso, considere o uso de uma identidade Kubelet gerenciada</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
@@ -3005,14 +2997,14 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering</t>
+          <t>https://learn.microsoft.com/azure/aks/use-managed-identity#use-a-pre-created-kubelet-managed-identity</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>e8a03f97-8794-468d-96a7-86d60f96c97b</t>
+          <t>1f711a74-3672-470b-b8b8-a2148d640d79</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3028,12 +3020,12 @@
       </c>
       <c r="B50" s="22" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Práticas recomendadas</t>
         </is>
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>Considere o uso de uma malha de serviço para gerenciamento avançado de comunicação de microsserviços</t>
+          <t>Se estiver usando AGIC, não compartilhe um AppGW entre clusters</t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
@@ -3050,7 +3042,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/servicemesh-about</t>
+          <t>https://azure.github.io/application-gateway-kubernetes-ingress/setup/install-existing/</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3058,7 +3050,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
+          <t>cbd8ac2a-aebc-4a2a-94da-1dbf3dc99248</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3074,18 +3066,18 @@
       </c>
       <c r="B51" s="22" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Práticas recomendadas</t>
         </is>
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>Se necessário, adicione seu próprio plug-in CNI</t>
+          <t>Não use o AKS Application Routing Add-On</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
       <c r="E51" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3096,7 +3088,7 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-byo-cni</t>
+          <t>https://docs.microsoft.com/azure/aks/http-application-routing</t>
         </is>
       </c>
       <c r="I51" s="16" t="n"/>
@@ -3104,7 +3096,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
+          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3120,18 +3112,18 @@
       </c>
       <c r="B52" s="22" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Práticas recomendadas</t>
         </is>
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>Se necessário, configure o IP público por nó no AKS</t>
+          <t>Para cargas de trabalho do Windows, use a Rede Acelerada</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
       <c r="E52" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3142,7 +3134,7 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#assign-a-public-ip-per-node-for-your-node-pools</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview</t>
         </is>
       </c>
       <c r="I52" s="16" t="n"/>
@@ -3150,7 +3142,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
+          <t>7bacd7b9-c025-4a9d-a5d2-25d6bc5439d9</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3171,13 +3163,13 @@
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>Se estiver usando a CNI do Azure, considere o uso de sub-redes diferentes para NodePools</t>
+          <t>Use o ALB padrão (em oposição ao básico)</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
       <c r="E53" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3188,14 +3180,14 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#add-a-node-pool-with-a-unique-subnet</t>
+          <t>https://docs.microsoft.com/azure/aks/load-balancer-standard</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
+          <t>ba7da7be-9952-4914-a384-5d997cb39132</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3206,17 +3198,17 @@
     <row r="54" ht="16.5" customHeight="1" s="13">
       <c r="A54" s="22" t="inlineStr">
         <is>
-          <t>Governança e Segurança</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Práticas recomendadas</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>Armazenar seus segredos no Cofre da Chave do Azure com o driver do CSI Secrets Store</t>
+          <t>Se estiver usando a CNI do Azure, considere o uso de sub-redes diferentes para NodePools</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3233,7 +3225,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/secrets-store-csi-driver-provider-azure</t>
+          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#add-a-node-pool-with-a-unique-subnet</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3241,7 +3233,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>5e3df584-eccc-4d97-a3b6-bcda3b50eb2e</t>
+          <t>22fbe8d6-9b40-47ef-9011-25bb1a555a6b</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3252,23 +3244,23 @@
     <row r="55" ht="16.5" customHeight="1" s="13">
       <c r="A55" s="22" t="inlineStr">
         <is>
-          <t>Governança e Segurança</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>Se as Entidades de Serviço do usuário para o cluster, atualize as credenciais periodicamente (como trimestralmente)</t>
+          <t>Usar Pontos de Extremidade Privados (preferencialmente) ou Pontos de Extremidade de Serviço de Rede Virtual para acessar serviços de PaaS a partir do cluster</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
       <c r="E55" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3279,14 +3271,14 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/update-credentials</t>
+          <t>https://docs.microsoft.com/azure/private-link/private-link-overview</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>b03dda6d-58d7-4c89-8ddb-107d5769ae66</t>
+          <t>c3c39c98-6bb2-4c12-859a-114b5e3df584</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3297,17 +3289,17 @@
     <row r="56" ht="16.5" customHeight="1" s="13">
       <c r="A56" s="22" t="inlineStr">
         <is>
-          <t>Governança e Segurança</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B56" s="22" t="inlineStr">
         <is>
-          <t>Conformidade</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>Usar a Política do Azure para Kubernetes para garantir a conformidade do cluster</t>
+          <t>Se a conectividade híbrida for necessária, use 2xER ou ER+VPN para melhor disponibilidade</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3324,14 +3316,14 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/concepts/policy-for-kubernetes</t>
+          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>9ca48e4a-85e2-4223-bce8-bb12307ca5f1</t>
+          <t>e8a03f97-8794-468d-96a7-86d60f96c97b</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3342,23 +3334,23 @@
     <row r="57" ht="16.5" customHeight="1" s="13">
       <c r="A57" s="22" t="inlineStr">
         <is>
-          <t>Governança e Segurança</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>Conformidade</t>
+          <t>IPAM</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>Separe os aplicativos do plano de controle com os nodepools do usuário/sistema</t>
+          <t>Escolha o melhor plug-in de rede CNI para suas necessidades (CNI do Azure recomendado)</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
       <c r="E57" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3369,14 +3361,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/use-system-pools</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>6f158e3e-a3a9-42c2-be7e-2165c3a87af4</t>
+          <t>a0f61565-9de5-458f-a372-49c831112dbd</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3387,23 +3379,23 @@
     <row r="58" ht="16.5" customHeight="1" s="13">
       <c r="A58" s="22" t="inlineStr">
         <is>
-          <t>Governança e Segurança</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B58" s="22" t="inlineStr">
         <is>
-          <t>Conformidade</t>
+          <t>IPAM</t>
         </is>
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>Adicione taint ao nodepool do seu sistema para torná-lo dedicado</t>
+          <t>Se estiver usando a CNI do Azure, dimensione sua sub-rede de acordo, considerando o número máximo de pods por nó</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
       <c r="E58" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3414,14 +3406,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/use-system-pools</t>
+          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>a7a1f893-9bda-4477-98f2-4c116775c2ea</t>
+          <t>7faf12e7-0943-4f63-8472-2da29c2b1cd6</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3432,23 +3424,23 @@
     <row r="59" ht="16.5" customHeight="1" s="13">
       <c r="A59" s="22" t="inlineStr">
         <is>
-          <t>Governança e Segurança</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>Conformidade</t>
+          <t>IPAM</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>Usar um registro privado para suas imagens, como ACR</t>
+          <t>Se estiver usando a CNI do Azure, verifique o máximo de pods/nós (padrão 30)</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
       <c r="E59" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3459,14 +3451,14 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/container-registry/</t>
+          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>55b46a94-8008-4ae7-b7e4-b475b6c8bdbf</t>
+          <t>22f54b29-bade-43aa-b1e8-c38ec9366673</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3477,23 +3469,27 @@
     <row r="60" ht="16.5" customHeight="1" s="13">
       <c r="A60" s="22" t="inlineStr">
         <is>
-          <t>Governança e Segurança</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B60" s="22" t="inlineStr">
         <is>
-          <t>Conformidade</t>
+          <t>IPAM</t>
         </is>
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>Verificar suas imagens em busca de vulnerabilidades</t>
-        </is>
-      </c>
-      <c r="D60" s="22" t="n"/>
+          <t>Se estiver usando serviços LoadBalancer de IP privado, use uma sub-rede dedicada (não a sub-rede AKS)</t>
+        </is>
+      </c>
+      <c r="D60" s="22" t="inlineStr">
+        <is>
+          <t>Para aplicativos internos, as organizações geralmente abrem toda a sub-rede AKS em seus firewalls. Isso também abre o acesso de rede aos nós e, potencialmente, aos pods também (se estiver usando a CNI do Azure). Se os IPs do LoadBalancer estiverem em uma sub-rede diferente, somente este precisará estar disponível para os clientes do aplicativo. Outra razão é que, se os endereços IP na sub-rede AKS forem um recurso escasso, consumir seus endereços IP para serviços reduzirá a escalabilidade máxima do cluster.</t>
+        </is>
+      </c>
       <c r="E60" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3504,14 +3500,14 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/container-security</t>
+          <t>https://docs.microsoft.com/azure/aks/internal-lb</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>59bce65d-e8a0-43f9-9879-468d66a786d6</t>
+          <t>13c00567-4b1e-4945-a459-c373e7ed6162</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3522,23 +3518,23 @@
     <row r="61" ht="16.5" customHeight="1" s="13">
       <c r="A61" s="22" t="inlineStr">
         <is>
-          <t>Governança e Segurança</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>Conformidade</t>
+          <t>IPAM</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>Usar a Central de Segurança do Azure para detectar vulnerabilidades de postura de segurança</t>
+          <t>Dimensione o intervalo de endereços IP do serviço de acordo (ele limitará a escalabilidade do cluster)</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
       <c r="E61" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3549,14 +3545,14 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/container-security</t>
+          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
+          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3567,17 +3563,17 @@
     <row r="62" ht="16.5" customHeight="1" s="13">
       <c r="A62" s="22" t="inlineStr">
         <is>
-          <t>Governança e Segurança</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B62" s="22" t="inlineStr">
         <is>
-          <t>Conformidade</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>Se necessário, configure o FIPS</t>
+          <t>Se necessário, adicione seu próprio plug-in CNI</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3594,14 +3590,14 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#add-a-fips-enabled-node-pool</t>
+          <t>https://learn.microsoft.com/azure/aks/use-byo-cni</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
+          <t>57bf217f-6dc8-481c-81e2-785773e9c00f</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3612,23 +3608,23 @@
     <row r="63" ht="16.5" customHeight="1" s="13">
       <c r="A63" s="22" t="inlineStr">
         <is>
-          <t>Governança e Segurança</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>Se necessário, adicione criptografia etcd do Serviço de Gerenciamento de Chaves</t>
+          <t>Se necessário, configure o IP público por nó no AKS</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
       <c r="E63" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3639,7 +3635,7 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-kms-etcd-encryption</t>
+          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#assign-a-public-ip-per-node-for-your-node-pools</t>
         </is>
       </c>
       <c r="I63" s="16" t="n"/>
@@ -3647,7 +3643,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
+          <t>4b3bb365-9458-44d9-9ed1-5c8f52890364</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3658,23 +3654,23 @@
     <row r="64" ht="16.5" customHeight="1" s="13">
       <c r="A64" s="22" t="inlineStr">
         <is>
-          <t>Governança e Segurança</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B64" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Escalabilidade</t>
         </is>
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>Se necessário, considere o uso de Computação Confidencial para AKS</t>
+          <t>Use um controlador de entrada para expor aplicativos baseados na Web em vez de expô-los com serviços do tipo LoadBalancer</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
       <c r="E64" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3685,7 +3681,7 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/confidential-computing/confidential-nodes-aks-overview</t>
+          <t>https://docs.microsoft.com/azure/aks/concepts-network</t>
         </is>
       </c>
       <c r="I64" s="16" t="n"/>
@@ -3693,7 +3689,7 @@
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
+          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3704,23 +3700,23 @@
     <row r="65" ht="16.5" customHeight="1" s="13">
       <c r="A65" s="22" t="inlineStr">
         <is>
-          <t>Governança e Segurança</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B65" s="22" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Escalabilidade</t>
         </is>
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>Considere o uso do Defender for Containers</t>
+          <t>Usar o Azue NAT Gateway como outboundType para dimensionar o tráfego de saída</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
       <c r="E65" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3731,7 +3727,7 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-enable</t>
+          <t>https://learn.microsoft.com/azure/aks/nat-gateway</t>
         </is>
       </c>
       <c r="I65" s="16" t="n"/>
@@ -3739,7 +3735,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
+          <t>ccb534e7-416e-4a1d-8e93-533b53199085</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3750,23 +3746,23 @@
     <row r="66" ht="16.5" customHeight="1" s="13">
       <c r="A66" s="22" t="inlineStr">
         <is>
-          <t>Governança e Segurança</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B66" s="22" t="inlineStr">
         <is>
-          <t>Conformidade</t>
+          <t>Escalabilidade</t>
         </is>
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>Definir requisitos de separação de aplicativos (namespace/nodepool/cluster)</t>
+          <t>Usar alocações dinâmicas de IPs para evitar o esgotamento do IP da CNI do Azure</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
       <c r="E66" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3777,14 +3773,14 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-cluster-isolation</t>
+          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni#dynamic-allocation-of-ips-and-enhanced-subnet-support</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>d167dd18-2b0a-4c24-8b99-9a646f8389a7</t>
+          <t>8ee9a69a-1b58-4b1e-9c61-476e110a160b</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3795,23 +3791,23 @@
     <row r="67" ht="16.5" customHeight="1" s="13">
       <c r="A67" s="22" t="inlineStr">
         <is>
-          <t>Governança de Custos</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>Custar</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>Use um aplicativo externo, como o kubecost, para alocar custs para diferentes usuários</t>
+          <t>Filtre o tráfego de saída com o AzFW/NVA se os requisitos de segurança o exigirem</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
       <c r="E67" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3822,7 +3818,7 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/scenarios/aks/eslz-cost-governance-with-kubecost</t>
+          <t>https://docs.microsoft.com/azure/aks/limit-egress-traffic</t>
         </is>
       </c>
       <c r="I67" s="16" t="n"/>
@@ -3830,7 +3826,7 @@
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
+          <t>3b365a91-7ecb-4e48-bbe5-4cd7df2e8bba</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -3841,23 +3837,23 @@
     <row r="68" ht="16.5" customHeight="1" s="13">
       <c r="A68" s="22" t="inlineStr">
         <is>
-          <t>Governança de Custos</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B68" s="22" t="inlineStr">
         <is>
-          <t>Custar</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>Se necessário, dimensione instantâneos do NodePool</t>
+          <t>Se estiver usando um ponto de extremidade de API pública, restrinja os endereços IP que podem acessá-lo</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
       <c r="E68" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3868,7 +3864,7 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/node-pool-snapshot</t>
+          <t>https://docs.microsoft.com/azure/aks/api-server-authorized-ip-ranges</t>
         </is>
       </c>
       <c r="I68" s="16" t="n"/>
@@ -3876,7 +3872,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
+          <t>c4581559-bb91-463e-a908-aed8c44ce3b2</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -3887,23 +3883,23 @@
     <row r="69" ht="16.5" customHeight="1" s="13">
       <c r="A69" s="22" t="inlineStr">
         <is>
-          <t>Governança de Custos</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B69" s="22" t="inlineStr">
         <is>
-          <t>Custar</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>Usar o modo de redução para excluir/desalocar nós</t>
+          <t>Usar clusters privados se suas necessidades exigirem</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
       <c r="E69" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3914,7 +3910,7 @@
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/scale-down-mode</t>
+          <t>https://docs.microsoft.com/azure/aks/private-clusters</t>
         </is>
       </c>
       <c r="I69" s="16" t="n"/>
@@ -3922,7 +3918,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
+          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -3933,17 +3929,17 @@
     <row r="70" ht="16.5" customHeight="1" s="13">
       <c r="A70" s="22" t="inlineStr">
         <is>
-          <t>Governança de Custos</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B70" s="22" t="inlineStr">
         <is>
-          <t>Custar</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>Quando necessário, use GPU de partioning de várias instâncias em clusters AKS</t>
+          <t xml:space="preserve">Para nós AKS do Windows 2019 e 2022, as políticas de rede Calico podem ser usadas </t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
@@ -3960,7 +3956,7 @@
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/gpu-multi-instance</t>
+          <t>https://learn.microsoft.com/azure/aks/use-network-policies</t>
         </is>
       </c>
       <c r="I70" s="16" t="n"/>
@@ -3968,7 +3964,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
+          <t>ce7f2a7c-297c-47c6-adea-a6ff838db665</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -3979,23 +3975,23 @@
     <row r="71" ht="16.5" customHeight="1" s="13">
       <c r="A71" s="22" t="inlineStr">
         <is>
-          <t>Governança de Custos</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B71" s="22" t="inlineStr">
         <is>
-          <t>Custar</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>Se estiver executando um cluster de Desenvolvimento/Teste, use Iniciar/Parar do NodePool</t>
+          <t>Habilitar uma opção de Política de Rede do Kubernetes (Calico/Azure)</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
       <c r="E71" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4006,7 +4002,7 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/start-stop-nodepools</t>
+          <t>https://docs.microsoft.com/azure/aks/use-network-policies</t>
         </is>
       </c>
       <c r="I71" s="16" t="n"/>
@@ -4014,7 +4010,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
+          <t>58d7c892-ddb1-407d-9769-ae669ca48e4a</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4025,17 +4021,17 @@
     <row r="72" ht="16.5" customHeight="1" s="13">
       <c r="A72" s="22" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B72" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>Usar discos efêmeros do sistema operacional</t>
+          <t>Use as diretivas de rede do Kubernetes para aumentar a segurança intracluster</t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
@@ -4052,7 +4048,7 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/cluster-configuration</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
         </is>
       </c>
       <c r="I72" s="16" t="n"/>
@@ -4060,7 +4056,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>24367b33-6971-45b1-952b-eee0b9b588de</t>
+          <t>85e2223e-ce8b-4b12-907c-a5f16f158e3e</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4071,17 +4067,17 @@
     <row r="73" ht="16.5" customHeight="1" s="13">
       <c r="A73" s="22" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>Para discos não efêmeros, use IOPS altas e discos de sistema operacional maiores para os nós ao executar muitos pods/nós, pois isso requer alto desempenho para executar vários pods e gerará logs enormes com limites de rotação de log AKS padrão</t>
+          <t>Usar um WAF para cargas de trabalho da Web (interfaces de usuário ou APIs)</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
@@ -4098,7 +4094,7 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/disks-types</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
         </is>
       </c>
       <c r="I73" s="16" t="n"/>
@@ -4106,7 +4102,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
+          <t>a3a92c2d-e7e2-4165-a3a8-7af4a7a1f893</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4117,23 +4113,23 @@
     <row r="74" ht="16.5" customHeight="1" s="13">
       <c r="A74" s="22" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B74" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Para a opção de armazenamento de hiperdesempenho, use Ultra Disks no AKS</t>
+          <t>Usar DDoS Standard na Rede Virtual AKS</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
       <c r="E74" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4144,7 +4140,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-ultra-disks</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4152,7 +4148,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
+          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4163,23 +4159,23 @@
     <row r="75" ht="16.5" customHeight="1" s="13">
       <c r="A75" s="22" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B75" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Evite manter o estado no cluster e armazene dados fora (AzStorage, AzSQL, Cosmos, etc.)</t>
+          <t>Se necessário, adicione o Proxy HTTP da empresa</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
       <c r="E75" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4190,7 +4186,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-multi-region</t>
+          <t>https://learn.microsoft.com/azure/aks/http-proxy</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4198,7 +4194,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>9f7547c1-747d-4c56-868a-714435bd19dd</t>
+          <t>6c46b91a-1107-4485-ad66-3183e2a8c266</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4209,17 +4205,17 @@
     <row r="76" ht="16.5" customHeight="1" s="13">
       <c r="A76" s="22" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="B76" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Se estiver usando o AzFiles Standard, considere o AzFiles Premium e/ou ANF por motivos de desempenho</t>
+          <t>Considere o uso de uma malha de serviço para gerenciamento avançado de comunicação de microsserviços</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
@@ -4236,7 +4232,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-storage</t>
+          <t>https://docs.microsoft.com/azure/aks/servicemesh-about</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4244,7 +4240,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>24429eb7-2281-4376-85cc-57b4a4b18142</t>
+          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4260,18 +4256,18 @@
       </c>
       <c r="B77" s="22" t="inlineStr">
         <is>
-          <t>Armazenamento</t>
+          <t>Alertando</t>
         </is>
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Se estiver usando Discos e AZs do Azure, considere ter pools de nós dentro de uma zona para disco LRS com VolumeBindingMode:WaitForFirstConsumer para provisionar armazenamento na zona direita ou use o disco ZRS para pools de nós que abrangem várias zonas</t>
+          <t>Configurar alertas sobre as métricas mais críticas (consulte Container Insights para obter recomendações)</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4282,7 +4278,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/availability-zones#azure-disk-availability-zone-support</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-metric-alerts</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4290,7 +4286,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>83958a8c-2689-4b32-ab57-cfc64546135a</t>
+          <t>67f7a9ed-5b31-4f38-a3f3-9812b2463cff</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4428,7 +4424,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>5388e9de-d167-4dd1-a2b0-ac241b999a64</t>
+          <t>3aa70560-e7e7-4968-be3d-628af35b2ced</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4444,12 +4440,12 @@
       </c>
       <c r="B81" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Conformidade</t>
         </is>
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>Monitore suas métricas de cluster com o Container Insights (ou outras ferramentas, como o Prometheus)</t>
+          <t>Tenha um processo regular para atualizar sua versão do kubernetes periodicamente (trimestralmente, por exemplo) ou use o recurso de atualização automática do AKS</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4466,7 +4462,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-overview</t>
+          <t>https://docs.microsoft.com/azure/aks/supported-kubernetes-versions</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4474,7 +4470,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>6f8389a7-f82c-4b8e-a8c0-aa63a25a4956</t>
+          <t>e189c599-df0d-45a7-9dd4-ce32c1881370</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4490,12 +4486,12 @@
       </c>
       <c r="B82" s="22" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Conformidade</t>
         </is>
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>Armazene e analise seus logs de cluster com o Container Insights (ou outras ferramentas, como Telegraf/ElasticSearch)</t>
+          <t>Use kured para atualizações de nó Linux caso você não esteja usando a atualização de imagem de nó</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4512,7 +4508,7 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-overview</t>
+          <t>https://docs.microsoft.com/azure/aks/node-updates-kured</t>
         </is>
       </c>
       <c r="I82" s="16" t="n"/>
@@ -4520,7 +4516,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>eaa8dc4a-2436-47b3-9697-15b1752beee0</t>
+          <t>6f7c4c0d-4e51-4464-ad24-57ed67138b82</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4536,12 +4532,12 @@
       </c>
       <c r="B83" s="22" t="inlineStr">
         <is>
-          <t>Alertando</t>
+          <t>Conformidade</t>
         </is>
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Configurar alertas sobre as métricas mais críticas (consulte Container Insights para obter recomendações)</t>
+          <t>Tenha um processo regular para atualizar as imagens do nó do cluster periodicamente (semanalmente, por exemplo)</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
@@ -4558,7 +4554,7 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-metric-alerts</t>
+          <t>https://docs.microsoft.com/azure/aks/node-image-upgrade</t>
         </is>
       </c>
       <c r="I83" s="16" t="n"/>
@@ -4566,7 +4562,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>67f7a9ed-5b31-4f38-a3f3-9812b2463cff</t>
+          <t>139c9580-ade3-426a-ba09-cf157d9f6477</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4587,13 +4583,13 @@
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>Tenha um processo regular para atualizar sua versão do kubernetes periodicamente (trimestralmente, por exemplo) ou use o recurso de atualização automática do AKS</t>
+          <t>Considere gitops para implantar aplicativos ou configuração de cluster em vários clusters</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
       <c r="E84" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4604,7 +4600,7 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/supported-kubernetes-versions</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/bedrock/bedrock-automated-deployments</t>
         </is>
       </c>
       <c r="I84" s="16" t="n"/>
@@ -4612,7 +4608,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>e189c599-df0d-45a7-9dd4-ce32c1881370</t>
+          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4633,13 +4629,13 @@
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>Use kured para atualizações de nó Linux caso você não esteja usando a atualização de imagem de nó</t>
+          <t>Considere o uso de invocar o comando AKS em clusters privados</t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
       <c r="E85" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4650,7 +4646,7 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/node-updates-kured</t>
+          <t>https://learn.microsoft.com/azure/aks/command-invoke</t>
         </is>
       </c>
       <c r="I85" s="16" t="n"/>
@@ -4658,7 +4654,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>6f7c4c0d-4e51-4464-ad24-57ed67138b82</t>
+          <t>d7672c26-7602-4482-85a4-14527fbe855c</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4679,13 +4675,13 @@
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>Tenha um processo regular para atualizar as imagens do nó do cluster periodicamente (semanalmente, por exemplo)</t>
+          <t>Para eventos planejados, considere o uso do Nó Auto Drain</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
       <c r="E86" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4696,7 +4692,7 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/node-image-upgrade</t>
+          <t>https://learn.microsoft.com/azure/aks/node-auto-repair#node-autodrain</t>
         </is>
       </c>
       <c r="I86" s="16" t="n"/>
@@ -4704,7 +4700,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>139c9580-ade3-426a-ba09-cf157d9f6477</t>
+          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4725,13 +4721,13 @@
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Considere gitops para implantar aplicativos ou configuração de cluster em vários clusters</t>
+          <t>Desenvolver práticas de governança próprias para garantir que nenhuma alteração seja executada pelos operadores no nó RG (também conhecido como 'infra RG')</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
       <c r="E87" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4742,7 +4738,7 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/bedrock/bedrock-automated-deployments</t>
+          <t>https://docs.microsoft.com/azure/aks/faq</t>
         </is>
       </c>
       <c r="I87" s="16" t="n"/>
@@ -4750,7 +4746,7 @@
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
+          <t>ed0fda7f-211b-47c7-8b6e-c18873fb473c</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4771,7 +4767,7 @@
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>Considere o uso de invocar o comando AKS em clusters privados</t>
+          <t>Use o nome personalizado do nó RG (também conhecido como 'Infra RG')</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
@@ -4788,7 +4784,7 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/command-invoke</t>
+          <t>https://docs.microsoft.com/azure/aks/cluster-configuration</t>
         </is>
       </c>
       <c r="I88" s="16" t="n"/>
@@ -4796,7 +4792,7 @@
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
+          <t>73b32a5a-67f7-4a9e-b5b3-1f38c3f39812</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -4812,18 +4808,18 @@
       </c>
       <c r="B89" s="22" t="inlineStr">
         <is>
-          <t>Custar</t>
+          <t>Conformidade</t>
         </is>
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Considere pools de nós spot para cargas de trabalho não sensíveis ao tempo</t>
+          <t>Não use APIs do Kubernetes preteridas em seus manifestos YAML</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4834,7 +4830,7 @@
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/spot-node-pool</t>
+          <t>https://kubernetes.io/docs/setup/release/notes/</t>
         </is>
       </c>
       <c r="I89" s="16" t="n"/>
@@ -4842,7 +4838,7 @@
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>c5a5b252-1e44-4a59-a9d2-399c4d7b68d0</t>
+          <t>b2463cff-e189-4c59-adf0-d5a73dd4ce32</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -4858,12 +4854,12 @@
       </c>
       <c r="B90" s="22" t="inlineStr">
         <is>
-          <t>Custar</t>
+          <t>Conformidade</t>
         </is>
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Considere o nó virtual AKS para intermitência rápida</t>
+          <t>Taint nós do Windows</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -4880,7 +4876,7 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/concepts-scale</t>
+          <t>https://docs.microsoft.com/azure-stack/aks-hci/adapt-apps-mixed-os-clusters</t>
         </is>
       </c>
       <c r="I90" s="16" t="n"/>
@@ -4888,7 +4884,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>c755562f-2b4e-4456-9b4d-874a748b662e</t>
+          <t>c1881370-6f7c-44c0-b4e5-14648d2457ed</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -4909,7 +4905,7 @@
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Para eventos planejados, considere o uso do Nó Auto Drain</t>
+          <t>Mantenha o nível de patch dos contêineres do Windows em sincronia com o nível de patch do host</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -4926,7 +4922,7 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/node-auto-repair#node-autodrain</t>
+          <t>https://docs.microsoft.com/virtualization/windowscontainers/deploy-containers/version-compatibility?tabs=windows-server-20H2%2Cwindows-10-20H2</t>
         </is>
       </c>
       <c r="I91" s="16" t="n"/>
@@ -4934,7 +4930,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
+          <t>67138b82-0102-4ce1-9ee3-01e6e882e52e</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -4955,13 +4951,17 @@
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Desenvolver práticas de governança próprias para garantir que nenhuma alteração seja executada pelos operadores no nó RG (também conhecido como 'infra RG')</t>
-        </is>
-      </c>
-      <c r="D92" s="22" t="n"/>
+          <t>Enviar logs mestres (também conhecidos como logs de API) para o Azure Monitor ou sua solução de gerenciamento de logs preferida</t>
+        </is>
+      </c>
+      <c r="D92" s="22" t="inlineStr">
+        <is>
+          <t>Por meio das Configurações de Diagnóstico no nível do cluster</t>
+        </is>
+      </c>
       <c r="E92" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -4972,7 +4972,7 @@
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/faq</t>
+          <t>https://docs.microsoft.com/azure/aks/monitor-aks</t>
         </is>
       </c>
       <c r="I92" s="16" t="n"/>
@@ -4980,7 +4980,7 @@
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
+          <t>5b56ad48-408f-4e72-934c-476ba280dcf5</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -4996,12 +4996,12 @@
       </c>
       <c r="B93" s="22" t="inlineStr">
         <is>
-          <t>Conformidade</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Use o nome personalizado do nó RG (também conhecido como 'Infra RG')</t>
+          <t>Considere pools de nós spot para cargas de trabalho não sensíveis ao tempo</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5018,7 +5018,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/cluster-configuration</t>
+          <t>https://docs.microsoft.com/azure/aks/spot-node-pool</t>
         </is>
       </c>
       <c r="I93" s="16" t="n"/>
@@ -5026,7 +5026,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>73b32a5a-67f7-4a9e-b5b3-1f38c3f39812</t>
+          <t>c5a5b252-1e44-4a59-a9d2-399c4d7b68d0</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5042,18 +5042,18 @@
       </c>
       <c r="B94" s="22" t="inlineStr">
         <is>
-          <t>Conformidade</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>Não use APIs do Kubernetes preteridas em seus manifestos YAML</t>
+          <t>Considere o nó virtual AKS para intermitência rápida</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
       <c r="E94" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -5064,7 +5064,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://kubernetes.io/docs/setup/release/notes/</t>
+          <t>https://docs.microsoft.com/azure/aks/concepts-scale</t>
         </is>
       </c>
       <c r="I94" s="16" t="n"/>
@@ -5072,7 +5072,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>b2463cff-e189-4c59-adf0-d5a73dd4ce32</t>
+          <t>c755562f-2b4e-4456-9b4d-874a748b662e</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5088,18 +5088,18 @@
       </c>
       <c r="B95" s="22" t="inlineStr">
         <is>
-          <t>Conformidade</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>Taint nós do Windows</t>
+          <t>Monitore suas métricas de cluster com o Container Insights (ou outras ferramentas, como o Prometheus)</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
       <c r="E95" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5110,7 +5110,7 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure-stack/aks-hci/adapt-apps-mixed-os-clusters</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-overview</t>
         </is>
       </c>
       <c r="I95" s="16" t="n"/>
@@ -5118,7 +5118,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>c1881370-6f7c-44c0-b4e5-14648d2457ed</t>
+          <t>6f8389a7-f82c-4b8e-a8c0-aa63a25a4956</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5134,18 +5134,18 @@
       </c>
       <c r="B96" s="22" t="inlineStr">
         <is>
-          <t>Conformidade</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Mantenha o nível de patch dos contêineres do Windows em sincronia com o nível de patch do host</t>
+          <t>Armazene e analise seus logs de cluster com o Container Insights (ou outras ferramentas, como Telegraf/ElasticSearch)</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
       <c r="E96" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5156,7 +5156,7 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/virtualization/windowscontainers/deploy-containers/version-compatibility?tabs=windows-server-20H2%2Cwindows-10-20H2</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-overview</t>
         </is>
       </c>
       <c r="I96" s="16" t="n"/>
@@ -5164,7 +5164,7 @@
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>67138b82-0102-4ce1-9ee3-01e6e882e52e</t>
+          <t>eaa8dc4a-2436-47b3-9697-15b1752beee0</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5414,22 +5414,18 @@
       </c>
       <c r="B102" s="22" t="inlineStr">
         <is>
-          <t>Conformidade</t>
+          <t>Recursos</t>
         </is>
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Enviar logs mestres (também conhecidos como logs de API) para o Azure Monitor ou sua solução de gerenciamento de logs preferida</t>
-        </is>
-      </c>
-      <c r="D102" s="22" t="inlineStr">
-        <is>
-          <t>Por meio das Configurações de Diagnóstico no nível do cluster</t>
-        </is>
-      </c>
+          <t>Configurar solicitações e limites em suas especificações de pod</t>
+        </is>
+      </c>
+      <c r="D102" s="22" t="n"/>
       <c r="E102" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5440,7 +5436,7 @@
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/monitor-aks</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
         </is>
       </c>
       <c r="I102" s="16" t="n"/>
@@ -5448,7 +5444,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>5b56ad48-408f-4e72-934c-476ba280dcf5</t>
+          <t>b54eb2eb-03dd-4aa3-9927-18e2edb11726</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5464,12 +5460,12 @@
       </c>
       <c r="B103" s="22" t="inlineStr">
         <is>
-          <t>Escalabilidade</t>
+          <t>Recursos</t>
         </is>
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>Usar o Cluster Autoscaler</t>
+          <t>Impor cotas de recursos para namespaces</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5486,7 +5482,7 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/concepts-scale</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
         </is>
       </c>
       <c r="I103" s="16" t="n"/>
@@ -5494,7 +5490,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
+          <t>769ef669-1a48-435a-a942-223ece80b123</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5510,18 +5506,18 @@
       </c>
       <c r="B104" s="22" t="inlineStr">
         <is>
-          <t>Escalabilidade</t>
+          <t>Recursos</t>
         </is>
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Personalizar a configuração do nó para pools de nós AKS</t>
+          <t>Verifique se sua assinatura tem cota suficiente para expandir seus nodepools</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
       <c r="E104" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5532,7 +5528,7 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/custom-node-configuration</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="I104" s="16" t="n"/>
@@ -5540,7 +5536,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
+          <t>081a5417-4158-433e-a3ad-3c2de733165c</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5561,7 +5557,7 @@
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>Use o Horizontal Pod Autoscaler quando necessário</t>
+          <t>Usar o Cluster Autoscaler</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
@@ -5586,7 +5582,7 @@
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>faa19bfe-9d55-4d04-a3c4-919ca1b2d121</t>
+          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5607,17 +5603,13 @@
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>Considere um tamanho de nó apropriado, não muito grande ou muito pequeno</t>
-        </is>
-      </c>
-      <c r="D106" s="22" t="inlineStr">
-        <is>
-          <t>Nós maiores trarão maior desempenho e recursos, como discos efêmeros e rede acelerada, mas aumentarão o raio de explosão e diminuirão a granularidade de dimensionamento</t>
-        </is>
-      </c>
+          <t>Personalizar a configuração do nó para pools de nós AKS</t>
+        </is>
+      </c>
+      <c r="D106" s="22" t="n"/>
       <c r="E106" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5628,7 +5620,7 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://blog.cloudtrooper.net/2020/10/23/which-vm-size-should-i-choose-as-aks-node/</t>
+          <t>https://learn.microsoft.com/azure/aks/custom-node-configuration</t>
         </is>
       </c>
       <c r="I106" s="16" t="n"/>
@@ -5636,7 +5628,7 @@
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>831c2872-c693-4b39-a887-a561bada49bc</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5657,17 +5649,13 @@
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>Se necessário para escalabilidade, considere adicionar mais de 5000 nós</t>
-        </is>
-      </c>
-      <c r="D107" s="22" t="inlineStr">
-        <is>
-          <t>Nós maiores trarão maior desempenho e recursos, como discos efêmeros e rede acelerada, mas aumentarão o raio de explosão e diminuirão a granularidade de dimensionamento</t>
-        </is>
-      </c>
+          <t>Use o Horizontal Pod Autoscaler quando necessário</t>
+        </is>
+      </c>
+      <c r="D107" s="22" t="n"/>
       <c r="E107" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5678,7 +5666,7 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/quotas-skus-regions#service-quotas-and-limits</t>
+          <t>https://docs.microsoft.com/azure/aks/concepts-scale</t>
         </is>
       </c>
       <c r="I107" s="16" t="n"/>
@@ -5686,7 +5674,7 @@
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>faa19bfe-9d55-4d04-a3c4-919ca1b2d121</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5707,7 +5695,7 @@
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Considere assinar o EventGrid Events para automação AKS</t>
+          <t>Considere um tamanho de nó apropriado, não muito grande ou muito pequeno</t>
         </is>
       </c>
       <c r="D108" s="22" t="inlineStr">
@@ -5717,7 +5705,7 @@
       </c>
       <c r="E108" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5728,7 +5716,7 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/event-grid/event-schema-aks</t>
+          <t>https://blog.cloudtrooper.net/2020/10/23/which-vm-size-should-i-choose-as-aks-node/</t>
         </is>
       </c>
       <c r="I108" s="16" t="n"/>
@@ -5757,14 +5745,10 @@
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>Para uma operação de longa duração em um cluster AKS, considere o encerramento do evento</t>
-        </is>
-      </c>
-      <c r="D109" s="22" t="inlineStr">
-        <is>
-          <t>Nós maiores trarão maior desempenho e recursos, como discos efêmeros e rede acelerada, mas aumentarão o raio de explosão e diminuirão a granularidade de dimensionamento</t>
-        </is>
-      </c>
+          <t>Se necessário para escalabilidade, considere adicionar mais de 5000 nós</t>
+        </is>
+      </c>
+      <c r="D109" s="22" t="n"/>
       <c r="E109" s="22" t="inlineStr">
         <is>
           <t>Baixo</t>
@@ -5778,7 +5762,7 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/manage-abort-operations</t>
+          <t>https://learn.microsoft.com/azure/aks/quotas-skus-regions#service-quotas-and-limits</t>
         </is>
       </c>
       <c r="I109" s="16" t="n"/>
@@ -5807,14 +5791,10 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>Se necessário, considere o uso de Hosts Dedicados do Azure para nós AKS</t>
-        </is>
-      </c>
-      <c r="D110" s="22" t="inlineStr">
-        <is>
-          <t>Nós maiores trarão maior desempenho e recursos, como discos efêmeros e rede acelerada, mas aumentarão o raio de explosão e diminuirão a granularidade de dimensionamento</t>
-        </is>
-      </c>
+          <t>Considere assinar o EventGrid Events para automação AKS</t>
+        </is>
+      </c>
+      <c r="D110" s="22" t="n"/>
       <c r="E110" s="22" t="inlineStr">
         <is>
           <t>Baixo</t>
@@ -5828,7 +5808,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-azure-dedicated-hosts</t>
+          <t>https://learn.microsoft.com/azure/event-grid/event-schema-aks</t>
         </is>
       </c>
       <c r="I110" s="16" t="n"/>
@@ -5852,18 +5832,18 @@
       </c>
       <c r="B111" s="22" t="inlineStr">
         <is>
-          <t>Recursos</t>
+          <t>Escalabilidade</t>
         </is>
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Configurar solicitações e limites em suas especificações de pod</t>
+          <t>Para uma operação de longa duração em um cluster AKS, considere o encerramento do evento</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
       <c r="E111" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -5874,14 +5854,14 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
+          <t>https://learn.microsoft.com/azure/aks/manage-abort-operations</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>b54eb2eb-03dd-4aa3-9927-18e2edb11726</t>
+          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -5897,18 +5877,18 @@
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t>Recursos</t>
+          <t>Escalabilidade</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Impor cotas de recursos para namespaces</t>
+          <t>Se necessário, considere o uso de Hosts Dedicados do Azure para nós AKS</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
       <c r="E112" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -5919,7 +5899,7 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
+          <t>https://learn.microsoft.com/azure/aks/use-azure-dedicated-hosts</t>
         </is>
       </c>
       <c r="I112" s="16" t="n"/>
@@ -5927,7 +5907,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>769ef669-1a48-435a-a942-223ece80b123</t>
+          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -5943,12 +5923,12 @@
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t>Recursos</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Verifique se sua assinatura tem cota suficiente para expandir seus nodepools</t>
+          <t>Usar discos efêmeros do sistema operacional</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -5965,7 +5945,7 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://docs.microsoft.com/azure/aks/cluster-configuration</t>
         </is>
       </c>
       <c r="I113" s="16" t="n"/>
@@ -5973,7 +5953,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>081a5417-4158-433e-a3ad-3c2de733165c</t>
+          <t>24367b33-6971-45b1-952b-eee0b9b588de</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -5984,23 +5964,23 @@
     <row r="114" ht="16.5" customHeight="1" s="13">
       <c r="A114" s="22" t="inlineStr">
         <is>
-          <t>Implantação de aplicativos</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>Infraestrutura como código</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Usar a automação por meio do ARM/TF para criar seus recursos do Azure</t>
+          <t>Para discos não efêmeros, use IOPS altas e discos de sistema operacional maiores para os nós ao executar muitos pods/nós, pois requer alto desempenho para executar vários pods e gerará logs enormes com limites de rotação de log AKS padrão</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
       <c r="E114" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6011,7 +5991,7 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/developer/terraform/create-k8s-cluster-with-tf-and-aks</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/disks-types</t>
         </is>
       </c>
       <c r="I114" s="16" t="n"/>
@@ -6019,7 +5999,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>3acbe04b-be20-49d3-afda-47778424d116</t>
+          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6030,23 +6010,23 @@
     <row r="115" ht="16.5" customHeight="1" s="13">
       <c r="A115" s="22" t="inlineStr">
         <is>
-          <t>Implantação de aplicativos</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B115" s="22" t="inlineStr">
         <is>
-          <t>Desenvolvimento</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Usar implantações canárias ou azuis/verdes</t>
+          <t>Para a opção de armazenamento de hiperdesempenho, use Ultra Disks no AKS</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
       <c r="E115" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6057,14 +6037,14 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/containers/aks/secure-baseline-aks</t>
+          <t>https://learn.microsoft.com/azure/aks/use-ultra-disks</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>785c2fa5-5b56-4ad4-a408-fe72734c476b</t>
+          <t>39c486ce-d5af-4062-89d5-18bb5fd795db</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6075,23 +6055,23 @@
     <row r="116" ht="16.5" customHeight="1" s="13">
       <c r="A116" s="22" t="inlineStr">
         <is>
-          <t>Implantação de aplicativos</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B116" s="22" t="inlineStr">
         <is>
-          <t>Desenvolvimento</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Se requrired para cargas de trabalho do AKS Windows contêineres HostProcess podem ser usados</t>
+          <t>Evite manter o estado no cluster e armazene dados fora (AzStorage, AzSQL, Cosmos, etc.)</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
       <c r="E116" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -6102,14 +6082,14 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-windows-hpc</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-multi-region</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>785c2fa5-5b56-4ad4-a408-fe72734c476b</t>
+          <t>9f7547c1-747d-4c56-868a-714435bd19dd</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6120,23 +6100,23 @@
     <row r="117" ht="16.5" customHeight="1" s="13">
       <c r="A117" s="22" t="inlineStr">
         <is>
-          <t>Implantação de aplicativos</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>Desenvolvimento</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Use o KEDA se estiver executando cargas de trabalho orientadas a eventos</t>
+          <t>Se estiver usando o AzFiles Standard, considere o AzFiles Premium e/ou ANF por motivos de desempenho</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
       <c r="E117" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6147,14 +6127,14 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-functions/functions-kubernetes-keda</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-storage</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>a280dcf5-90ce-465d-b8e1-3f9ccbd46926</t>
+          <t>24429eb7-2281-4376-85cc-57b4a4b18142</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6165,23 +6145,23 @@
     <row r="118" ht="16.5" customHeight="1" s="13">
       <c r="A118" s="22" t="inlineStr">
         <is>
-          <t>Implantação de aplicativos</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B118" s="22" t="inlineStr">
         <is>
-          <t>Desenvolvimento</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Use o Dapr para facilitar o desenvolvimento de microsserviços</t>
+          <t>Se estiver usando Discos e AZs do Azure, considere ter pools de nós dentro de uma zona para disco LRS com VolumeBindingMode:WaitForFirstConsumer para provisionar armazenamento na zona direita ou use o disco ZRS para pools de nós que abrangem várias zonas</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
       <c r="E118" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6192,7 +6172,7 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://dapr.io/</t>
+          <t>https://docs.microsoft.com/azure/aks/availability-zones#azure-disk-availability-zone-support</t>
         </is>
       </c>
       <c r="I118" s="16" t="n"/>
@@ -6200,7 +6180,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>26886d20-b66c-457b-a591-19bf8e8f5c58</t>
+          <t>83958a8c-2689-4b32-ab57-cfc64546135a</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -11259,7 +11239,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
+  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
     <cfRule type="expression" priority="57" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11343,7 +11323,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
+  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
     <cfRule type="expression" priority="9" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11400,43 +11380,43 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="13">
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F119" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F119" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/aks_checklist.pt.xlsx
+++ b/spreadsheet/aks_checklist.pt.xlsx
@@ -2102,7 +2102,11 @@
       <c r="P29" s="26" t="n"/>
     </row>
     <row r="30" ht="16.5" customHeight="1" s="13">
-      <c r="A30" s="22" t="n"/>
+      <c r="A30" s="22" t="inlineStr">
+        <is>
+          <t>Governança e Segurança</t>
+        </is>
+      </c>
       <c r="B30" s="22" t="inlineStr">
         <is>
           <t>Conformidade</t>
@@ -5770,7 +5774,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>38800e6a-ae01-40a2-9fbc-ae5a06e5462d</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -5816,7 +5820,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>9583c0f6-6083-43f6-aa6b-df7102c901bb</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -5861,7 +5865,7 @@
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>c5016d8c-c6c9-4165-89ae-673ef0fff19d</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -5907,7 +5911,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>c4e37133-f186-4ce1-aed9-9f1b32f6e021</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>

--- a/spreadsheet/aks_checklist.pt.xlsx
+++ b/spreadsheet/aks_checklist.pt.xlsx
@@ -1151,7 +1151,7 @@
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>Se requrired para cargas de trabalho do AKS Windows contêineres HostProcess podem ser usados</t>
+          <t>Se necessário para cargas de trabalho do AKS Windows, os contêineres HostProcess podem ser usados</t>
         </is>
       </c>
       <c r="D9" s="22" t="n"/>
@@ -2102,7 +2102,11 @@
       <c r="P29" s="26" t="n"/>
     </row>
     <row r="30" ht="16.5" customHeight="1" s="13">
-      <c r="A30" s="22" t="n"/>
+      <c r="A30" s="22" t="inlineStr">
+        <is>
+          <t>Governança e Segurança</t>
+        </is>
+      </c>
       <c r="B30" s="22" t="inlineStr">
         <is>
           <t>Conformidade</t>
@@ -4721,7 +4725,7 @@
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Desenvolver práticas de governança próprias para garantir que nenhuma alteração seja executada pelos operadores no nó RG (também conhecido como 'infra RG')</t>
+          <t>Desenvolver práticas de governança próprias para garantir que nenhuma alteração seja realizada pelos operadores no nó RG (também conhecido como 'infra RG')</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
@@ -5770,7 +5774,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>38800e6a-ae01-40a2-9fbc-ae5a06e5462d</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -5816,7 +5820,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>9583c0f6-6083-43f6-aa6b-df7102c901bb</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -5861,7 +5865,7 @@
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>c5016d8c-c6c9-4165-89ae-673ef0fff19d</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -5907,7 +5911,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>c4e37133-f186-4ce1-aed9-9f1b32f6e021</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
